--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9CD614CD-95D0-FB48-AC81-8AB965EB75A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C33DAC4-E96A-6144-A98B-DD2C891A621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="Missings" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$N$234</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -289,9 +289,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>tc={3C191CB6-7D0E-2E4F-AF3E-FF84F11654AB}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{13B1E071-7D97-F54A-ADA8-4FFC9EAB5E13}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{13B1E071-7D97-F54A-ADA8-4FFC9EAB5E13}">
       <text>
         <r>
           <rPr>
@@ -411,15 +412,68 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>@mabel.carabali@mail.mcgill.ca 
-We made these complications and abnormalities by trimester, so I think it is ANY identified in the trimester, do we prefer to have these time varying without the tri specifcation, to reduce the number of variables?
-_Assigned to mabel.carabali_
-	-Helen Cerigo
-I would like to keep the trimester specification. It implies having more vars, but also keep us informed about the time frame of the abnormality which is an indicator of the severity of the outcome too
-	-Mabel Carabali</t>
+          <t xml:space="preserve">@mabel.carabali@mail.mcgill.ca 
+</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">We made these complications and abnormalities by trimester, so I think it is ANY identified in the trimester, do we prefer to have these time varying without the tri specifcation, to reduce the number of variables?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">_Assigned to mabel.carabali_
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Helen Cerigo
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">I would like to keep the trimester specification. It implies having more vars, but also keep us informed about the time frame of the abnormality which is an indicator of the severity of the outcome too
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Mabel Carabali</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L172" authorId="1" shapeId="0" xr:uid="{3C191CB6-7D0E-2E4F-AF3E-FF84F11654AB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Can be used to impute missing. If this is 0, all other abnormalities are also 0.</t>
       </text>
     </comment>
     <comment ref="A211" authorId="0" shapeId="0" xr:uid="{913F9291-72DD-7E48-891C-27537B96FBA6}">
@@ -561,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11700" uniqueCount="2828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11947" uniqueCount="2844">
   <si>
     <t>Tab</t>
   </si>
@@ -10792,9 +10846,6 @@
     <t>Craniofacial disproportion</t>
   </si>
   <si>
-    <t xml:space="preserve">Ocular abnormalities </t>
-  </si>
-  <si>
     <t>bmi</t>
   </si>
   <si>
@@ -10805,6 +10856,57 @@
   </si>
   <si>
     <t>Maternal vaccination</t>
+  </si>
+  <si>
+    <t>Intrauterine growth restriction</t>
+  </si>
+  <si>
+    <t>Outcome?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuroimaging abnormalities </t>
+  </si>
+  <si>
+    <t>Any abnormality</t>
+  </si>
+  <si>
+    <t>ZIKA</t>
+  </si>
+  <si>
+    <t>Ocular abnormalities  / congenital deafness or hearing loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congenital contractures </t>
+  </si>
+  <si>
+    <t>Other non-neurologic congenital abnormalities</t>
+  </si>
+  <si>
+    <t>All abnormalities if 0</t>
+  </si>
+  <si>
+    <t>Any abnormality?</t>
+  </si>
+  <si>
+    <t>Genetic anomalies, metabolic disorders, perinatal brain injury</t>
+  </si>
+  <si>
+    <t>Timing of infection during pregnancy</t>
+  </si>
+  <si>
+    <t>Viral genotype and load</t>
+  </si>
+  <si>
+    <t>Concurrent or prior flavi- or alphavirus infection</t>
+  </si>
+  <si>
+    <t>Intrauterine exposure to STORCH pathogens</t>
+  </si>
+  <si>
+    <t>Presence and severity of maternal and infant clinical symptoms</t>
+  </si>
+  <si>
+    <t>ses?</t>
   </si>
 </sst>
 </file>
@@ -10813,9 +10915,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="67">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -11201,8 +11303,22 @@
       <color theme="5"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11285,6 +11401,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
         <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -11407,7 +11529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12032,9 +12154,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12050,9 +12169,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12063,9 +12179,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12122,9 +12235,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12135,9 +12245,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12176,75 +12283,35 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -12320,6 +12387,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Damen, J.A.A. (Anneke)" id="{180709C5-47DB-034C-BE70-810A4CB1B15D}" userId="S::j.a.a.damen@umcutrecht.nl::ff192a12-bce0-48ae-ae65-f19a10ca2bf4" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12516,6 +12589,14 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L172" dT="2022-07-15T09:29:37.57" personId="{180709C5-47DB-034C-BE70-810A4CB1B15D}" id="{3C191CB6-7D0E-2E4F-AF3E-FF84F11654AB}">
+    <text>Can be used to impute missing. If this is 0, all other abnormalities are also 0.</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47512,27 +47593,27 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="C2:D218">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:D252">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C219))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:D321">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C253))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C322:D346">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C322))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C347:C388">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C347))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47558,11 +47639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
   <dimension ref="A1:N234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -47571,52 +47652,52 @@
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" customWidth="1"/>
     <col min="8" max="8" width="37.1640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="278"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="272"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="262" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="266" t="s">
+      <c r="B1" s="261" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="266" t="s">
+      <c r="C1" s="261" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="266" t="s">
+      <c r="D1" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="266" t="s">
+      <c r="E1" s="261" t="s">
         <v>2603</v>
       </c>
-      <c r="F1" s="266" t="s">
+      <c r="F1" s="261" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="266" t="s">
+      <c r="G1" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="266" t="s">
+      <c r="H1" s="261" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="266" t="s">
+      <c r="I1" s="261" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="266" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="268" t="s">
+      <c r="J1" s="263" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="279" t="s">
+      <c r="K1" s="273" t="s">
         <v>2803</v>
       </c>
-      <c r="M1" s="269" t="s">
+      <c r="L1" s="264" t="s">
         <v>2804</v>
       </c>
-      <c r="N1" s="269" t="s">
+      <c r="M1" s="264" t="s">
         <v>2815</v>
+      </c>
+      <c r="N1" s="264" t="s">
+        <v>2818</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
@@ -47648,8 +47729,7 @@
         <v>126</v>
       </c>
       <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="278">
+      <c r="K2" s="272">
         <v>0.31448788506897302</v>
       </c>
     </row>
@@ -47681,9 +47761,8 @@
       <c r="I3" s="226" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="228"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="278">
+      <c r="J3" s="226"/>
+      <c r="K3" s="272">
         <v>13.4086198270317</v>
       </c>
     </row>
@@ -47715,9 +47794,8 @@
       <c r="I4" s="226" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="229"/>
-      <c r="K4" s="226"/>
-      <c r="L4" s="278">
+      <c r="J4" s="226"/>
+      <c r="K4" s="272">
         <v>60.303051961975598</v>
       </c>
     </row>
@@ -47749,9 +47827,8 @@
       <c r="I5" s="226" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="228"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="278">
+      <c r="J5" s="226"/>
+      <c r="K5" s="272">
         <v>76.291901936959505</v>
       </c>
     </row>
@@ -47783,9 +47860,8 @@
       <c r="I6" s="226" t="s">
         <v>134</v>
       </c>
-      <c r="J6" s="228"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="278">
+      <c r="J6" s="226"/>
+      <c r="K6" s="272">
         <v>77.342577371167195</v>
       </c>
     </row>
@@ -47817,11 +47893,11 @@
       <c r="I7" s="226" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="228"/>
-      <c r="K7" s="226"/>
-      <c r="L7" s="278">
+      <c r="J7" s="226"/>
+      <c r="K7" s="272">
         <v>83.732399399614096</v>
       </c>
+      <c r="M7" s="274"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="227" t="s">
@@ -47851,11 +47927,11 @@
       <c r="I8" s="226" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="228"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="278">
+      <c r="J8" s="226"/>
+      <c r="K8" s="272">
         <v>88.249589021513799</v>
       </c>
+      <c r="M8" s="274"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="227" t="s">
@@ -47885,11 +47961,11 @@
       <c r="I9" s="226" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="228"/>
-      <c r="K9" s="226"/>
-      <c r="L9" s="278">
+      <c r="J9" s="226"/>
+      <c r="K9" s="272">
         <v>94.617968694160595</v>
       </c>
+      <c r="M9" s="274"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="227" t="s">
@@ -47919,11 +47995,11 @@
       <c r="I10" s="226" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="228"/>
-      <c r="K10" s="226"/>
-      <c r="L10" s="278">
+      <c r="J10" s="226"/>
+      <c r="K10" s="272">
         <v>92.116360517475499</v>
       </c>
+      <c r="M10" s="274"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="227" t="s">
@@ -47953,17 +48029,16 @@
       <c r="I11" s="226" t="s">
         <v>169</v>
       </c>
-      <c r="J11" s="226"/>
-      <c r="K11" s="226" t="s">
+      <c r="J11" s="226" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="278">
+      <c r="K11" s="272">
         <v>39.589736259023702</v>
       </c>
-      <c r="M11" s="281" t="s">
+      <c r="L11" s="275" t="s">
         <v>2809</v>
       </c>
-      <c r="N11" s="281" t="s">
+      <c r="M11" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
@@ -47989,26 +48064,25 @@
       <c r="G12" s="227" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="243" t="s">
+      <c r="H12" s="240" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="243" t="s">
+      <c r="I12" s="240" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="228"/>
-      <c r="K12" s="230"/>
-      <c r="L12" s="278">
+      <c r="J12" s="229"/>
+      <c r="K12" s="272">
         <v>80.087198913587301</v>
       </c>
-      <c r="M12" s="280" t="s">
+      <c r="L12" s="274" t="s">
         <v>2808</v>
       </c>
-      <c r="N12" s="281" t="s">
+      <c r="M12" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="246" t="s">
+      <c r="A13" s="243" t="s">
         <v>174</v>
       </c>
       <c r="B13" s="227" t="s">
@@ -48029,21 +48103,20 @@
       <c r="G13" s="227" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="236" t="s">
+      <c r="H13" s="234" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="231" t="s">
+      <c r="I13" s="230" t="s">
         <v>176</v>
       </c>
       <c r="J13" s="226"/>
-      <c r="K13" s="226"/>
-      <c r="L13" s="278">
+      <c r="K13" s="272">
         <v>67.143163462225701</v>
       </c>
-      <c r="M13" s="280" t="s">
+      <c r="L13" s="274" t="s">
         <v>2807</v>
       </c>
-      <c r="N13" s="281" t="s">
+      <c r="M13" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
@@ -48069,21 +48142,20 @@
       <c r="G14" s="227" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="243" t="s">
+      <c r="H14" s="240" t="s">
         <v>178</v>
       </c>
-      <c r="I14" s="232" t="s">
+      <c r="I14" s="231" t="s">
         <v>179</v>
       </c>
       <c r="J14" s="226"/>
-      <c r="K14" s="226"/>
-      <c r="L14" s="278">
+      <c r="K14" s="272">
         <v>50.611107140304497</v>
       </c>
-      <c r="M14" s="282" t="s">
+      <c r="L14" s="276" t="s">
         <v>2810</v>
       </c>
-      <c r="N14" s="281" t="s">
+      <c r="M14" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
@@ -48112,13 +48184,18 @@
       <c r="H15" s="226" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="231" t="s">
+      <c r="I15" s="230" t="s">
         <v>182</v>
       </c>
       <c r="J15" s="226"/>
-      <c r="K15" s="226"/>
-      <c r="L15" s="278">
+      <c r="K15" s="272">
         <v>74.455006790079395</v>
+      </c>
+      <c r="L15" s="274" t="s">
+        <v>2843</v>
+      </c>
+      <c r="M15" s="274" t="s">
+        <v>2812</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
@@ -48146,22 +48223,21 @@
       <c r="H16" s="226" t="s">
         <v>184</v>
       </c>
-      <c r="I16" s="232" t="s">
+      <c r="I16" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="J16" s="233"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="278">
+      <c r="J16" s="226"/>
+      <c r="K16" s="272">
         <v>89.657637052390797</v>
       </c>
-      <c r="M16" s="280" t="s">
+      <c r="L16" s="274" t="s">
         <v>2811</v>
       </c>
-      <c r="N16" s="281" t="s">
+      <c r="M16" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1">
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="227" t="s">
         <v>208</v>
       </c>
@@ -48183,19 +48259,19 @@
       <c r="G17" s="227" t="s">
         <v>207</v>
       </c>
-      <c r="H17" s="236" t="s">
+      <c r="H17" s="234" t="s">
         <v>209</v>
       </c>
-      <c r="I17" s="231" t="s">
+      <c r="I17" s="230" t="s">
         <v>210</v>
       </c>
-      <c r="J17" s="234"/>
-      <c r="K17" s="226"/>
-      <c r="L17" s="278">
+      <c r="J17" s="226"/>
+      <c r="K17" s="272">
         <v>76.1203630905582</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="M17" s="274"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="227" t="s">
         <v>247</v>
       </c>
@@ -48220,16 +48296,16 @@
       <c r="H18" s="226" t="s">
         <v>248</v>
       </c>
-      <c r="I18" s="231" t="s">
+      <c r="I18" s="230" t="s">
         <v>249</v>
       </c>
       <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="278">
+      <c r="K18" s="272">
         <v>96.140375955971706</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="M18" s="274"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="227" t="s">
         <v>250</v>
       </c>
@@ -48254,18 +48330,16 @@
       <c r="H19" s="226" t="s">
         <v>251</v>
       </c>
-      <c r="I19" s="235" t="s">
+      <c r="I19" s="233" t="s">
         <v>252</v>
       </c>
-      <c r="J19" s="236" t="s">
-        <v>253</v>
-      </c>
-      <c r="K19" s="229"/>
-      <c r="L19" s="278">
+      <c r="J19" s="228"/>
+      <c r="K19" s="272">
         <v>97.798584804517205</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="M19" s="274"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="227" t="s">
         <v>254</v>
       </c>
@@ -48290,17 +48364,17 @@
       <c r="H20" s="226" t="s">
         <v>255</v>
       </c>
-      <c r="I20" s="231" t="s">
+      <c r="I20" s="230" t="s">
         <v>256</v>
       </c>
       <c r="J20" s="226"/>
-      <c r="K20" s="226"/>
-      <c r="L20" s="278">
+      <c r="K20" s="272">
         <v>99.942820384532894</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1">
-      <c r="A21" s="246" t="s">
+      <c r="M20" s="274"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
+      <c r="A21" s="243" t="s">
         <v>267</v>
       </c>
       <c r="B21" s="227" t="s">
@@ -48321,35 +48395,34 @@
       <c r="G21" s="227" t="s">
         <v>266</v>
       </c>
-      <c r="H21" s="236" t="s">
+      <c r="H21" s="234" t="s">
         <v>268</v>
       </c>
-      <c r="I21" s="236" t="s">
+      <c r="I21" s="234" t="s">
         <v>249</v>
       </c>
       <c r="J21" s="226"/>
-      <c r="K21" s="226"/>
-      <c r="L21" s="278">
+      <c r="K21" s="272">
         <v>66.4784504324209</v>
       </c>
-      <c r="M21" s="280" t="s">
+      <c r="L21" s="274" t="s">
         <v>2813</v>
       </c>
-      <c r="N21" s="281" t="s">
+      <c r="M21" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1">
-      <c r="A22" s="270" t="s">
+    <row r="22" spans="1:13" ht="15" customHeight="1">
+      <c r="A22" s="265" t="s">
         <v>269</v>
       </c>
-      <c r="B22" s="238" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="237" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="238" t="s">
+      <c r="B22" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="236" t="s">
         <v>121</v>
       </c>
       <c r="E22" s="227">
@@ -48358,29 +48431,28 @@
       <c r="F22" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G22" s="238" t="s">
+      <c r="G22" s="236" t="s">
         <v>266</v>
       </c>
-      <c r="H22" s="237" t="s">
+      <c r="H22" s="235" t="s">
         <v>270</v>
       </c>
-      <c r="I22" s="237" t="s">
+      <c r="I22" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="J22" s="237"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="278">
+      <c r="J22" s="235"/>
+      <c r="K22" s="272">
         <v>73.540132942605993</v>
       </c>
-      <c r="M22" s="280" t="s">
+      <c r="L22" s="274" t="s">
         <v>2813</v>
       </c>
-      <c r="N22" s="281" t="s">
+      <c r="M22" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1">
-      <c r="A23" s="246" t="s">
+    <row r="23" spans="1:13" ht="15" customHeight="1">
+      <c r="A23" s="243" t="s">
         <v>309</v>
       </c>
       <c r="B23" s="227" t="s">
@@ -48401,25 +48473,24 @@
       <c r="G23" s="227" t="s">
         <v>266</v>
       </c>
-      <c r="H23" s="236" t="s">
+      <c r="H23" s="234" t="s">
         <v>310</v>
       </c>
-      <c r="I23" s="231" t="s">
+      <c r="I23" s="230" t="s">
         <v>311</v>
       </c>
       <c r="J23" s="226"/>
-      <c r="K23" s="226"/>
-      <c r="L23" s="278">
+      <c r="K23" s="272">
         <v>23.629476091773299</v>
       </c>
-      <c r="M23" t="s">
+      <c r="L23" t="s">
         <v>2813</v>
       </c>
-      <c r="N23" s="281" t="s">
+      <c r="M23" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1">
+    <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" s="227" t="s">
         <v>332</v>
       </c>
@@ -48447,13 +48518,18 @@
       <c r="I24" s="226" t="s">
         <v>249</v>
       </c>
-      <c r="J24" s="239"/>
-      <c r="K24" s="226"/>
-      <c r="L24" s="278">
+      <c r="J24" s="226"/>
+      <c r="K24" s="272">
         <v>71.696090343792406</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="L24" s="274" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M24" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" s="227" t="s">
         <v>347</v>
       </c>
@@ -48482,12 +48558,17 @@
         <v>349</v>
       </c>
       <c r="J25" s="226"/>
-      <c r="K25" s="226"/>
-      <c r="L25" s="278">
+      <c r="K25" s="272">
         <v>75.648631262954794</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="L25" s="274" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M25" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1">
       <c r="A26" s="227" t="s">
         <v>361</v>
       </c>
@@ -48515,16 +48596,16 @@
       <c r="I26" s="226" t="s">
         <v>363</v>
       </c>
-      <c r="J26" s="228"/>
-      <c r="K26" s="226" t="s">
+      <c r="J26" s="226" t="s">
         <v>364</v>
       </c>
-      <c r="L26" s="278">
+      <c r="K26" s="272">
         <v>9.7062397255378396</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1">
-      <c r="A27" s="246" t="s">
+      <c r="M26" s="274"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1">
+      <c r="A27" s="243" t="s">
         <v>365</v>
       </c>
       <c r="B27" s="227" t="s">
@@ -48545,22 +48626,22 @@
       <c r="G27" s="227" t="s">
         <v>360</v>
       </c>
-      <c r="H27" s="236" t="s">
+      <c r="H27" s="234" t="s">
         <v>366</v>
       </c>
-      <c r="I27" s="231" t="s">
+      <c r="I27" s="230" t="s">
         <v>363</v>
       </c>
-      <c r="J27" s="228"/>
-      <c r="K27" s="226" t="s">
+      <c r="J27" s="226" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="278">
+      <c r="K27" s="272">
         <v>16.6321206489886</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1">
-      <c r="A28" s="246" t="s">
+      <c r="M27" s="274"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1">
+      <c r="A28" s="243" t="s">
         <v>369</v>
       </c>
       <c r="B28" s="227" t="s">
@@ -48581,20 +48662,20 @@
       <c r="G28" s="227" t="s">
         <v>360</v>
       </c>
-      <c r="H28" s="236" t="s">
+      <c r="H28" s="234" t="s">
         <v>370</v>
       </c>
-      <c r="I28" s="231" t="s">
+      <c r="I28" s="230" t="s">
         <v>371</v>
       </c>
-      <c r="J28" s="228"/>
-      <c r="K28" s="226"/>
-      <c r="L28" s="278">
+      <c r="J28" s="226"/>
+      <c r="K28" s="272">
         <v>17.875777285397799</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1">
-      <c r="A29" s="271" t="s">
+      <c r="M28" s="274"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1">
+      <c r="A29" s="266" t="s">
         <v>372</v>
       </c>
       <c r="B29" s="227" t="s">
@@ -48618,17 +48699,17 @@
       <c r="H29" s="226" t="s">
         <v>373</v>
       </c>
-      <c r="I29" s="232" t="s">
+      <c r="I29" s="231" t="s">
         <v>371</v>
       </c>
-      <c r="J29" s="228"/>
-      <c r="K29" s="226"/>
-      <c r="L29" s="278">
+      <c r="J29" s="226"/>
+      <c r="K29" s="272">
         <v>66.599957115288404</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1">
-      <c r="A30" s="271" t="s">
+      <c r="M29" s="274"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1">
+      <c r="A30" s="266" t="s">
         <v>374</v>
       </c>
       <c r="B30" s="227" t="s">
@@ -48652,17 +48733,18 @@
       <c r="H30" s="226" t="s">
         <v>375</v>
       </c>
-      <c r="I30" s="232" t="s">
+      <c r="I30" s="231" t="s">
         <v>371</v>
       </c>
-      <c r="J30" s="228"/>
-      <c r="K30" s="226"/>
-      <c r="L30" s="278">
+      <c r="J30" s="226"/>
+      <c r="K30" s="272">
         <v>84.468586948752801</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="271" t="s">
+      <c r="L30" s="274"/>
+      <c r="M30" s="274"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1">
+      <c r="A31" s="266" t="s">
         <v>376</v>
       </c>
       <c r="B31" s="227" t="s">
@@ -48686,17 +48768,18 @@
       <c r="H31" s="226" t="s">
         <v>377</v>
       </c>
-      <c r="I31" s="232" t="s">
+      <c r="I31" s="231" t="s">
         <v>371</v>
       </c>
-      <c r="J31" s="228"/>
-      <c r="K31" s="226"/>
-      <c r="L31" s="278">
+      <c r="J31" s="226"/>
+      <c r="K31" s="272">
         <v>97.920091487384795</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1">
-      <c r="A32" s="271" t="s">
+      <c r="L31" s="274"/>
+      <c r="M31" s="274"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1">
+      <c r="A32" s="266" t="s">
         <v>378</v>
       </c>
       <c r="B32" s="227" t="s">
@@ -48720,17 +48803,17 @@
       <c r="H32" s="226" t="s">
         <v>379</v>
       </c>
-      <c r="I32" s="232" t="s">
+      <c r="I32" s="231" t="s">
         <v>371</v>
       </c>
-      <c r="J32" s="228"/>
-      <c r="K32" s="226"/>
-      <c r="L32" s="278">
+      <c r="J32" s="226"/>
+      <c r="K32" s="272">
         <v>85.483525123293603</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1">
-      <c r="A33" s="246" t="s">
+      <c r="M32" s="274"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1">
+      <c r="A33" s="243" t="s">
         <v>380</v>
       </c>
       <c r="B33" s="227" t="s">
@@ -48754,17 +48837,16 @@
       <c r="H33" s="226" t="s">
         <v>381</v>
       </c>
-      <c r="I33" s="231" t="s">
+      <c r="I33" s="230" t="s">
         <v>249</v>
       </c>
-      <c r="J33" s="233"/>
-      <c r="K33" s="226"/>
-      <c r="L33" s="278">
+      <c r="J33" s="226"/>
+      <c r="K33" s="272">
         <v>95.053963262097099</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1">
-      <c r="A34" s="246" t="s">
+    <row r="34" spans="1:13" ht="15" customHeight="1">
+      <c r="A34" s="243" t="s">
         <v>382</v>
       </c>
       <c r="B34" s="227" t="s">
@@ -48791,16 +48873,15 @@
       <c r="I34" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="J34" s="228"/>
-      <c r="K34" s="226" t="s">
+      <c r="J34" s="226" t="s">
         <v>384</v>
       </c>
-      <c r="L34" s="278">
+      <c r="K34" s="272">
         <v>99.842756057465493</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1">
-      <c r="A35" s="246" t="s">
+    <row r="35" spans="1:13" ht="15" customHeight="1">
+      <c r="A35" s="243" t="s">
         <v>385</v>
       </c>
       <c r="B35" s="227" t="s">
@@ -48824,17 +48905,16 @@
       <c r="H35" s="226" t="s">
         <v>386</v>
       </c>
-      <c r="I35" s="231" t="s">
+      <c r="I35" s="230" t="s">
         <v>371</v>
       </c>
-      <c r="J35" s="228"/>
-      <c r="K35" s="240"/>
-      <c r="L35" s="278">
+      <c r="J35" s="237"/>
+      <c r="K35" s="272">
         <v>57.808591237223901</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1">
-      <c r="A36" s="272" t="s">
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="267" t="s">
         <v>395</v>
       </c>
       <c r="B36" s="227" t="s">
@@ -48855,25 +48935,24 @@
       <c r="G36" s="227" t="s">
         <v>394</v>
       </c>
-      <c r="H36" s="236" t="s">
+      <c r="H36" s="234" t="s">
         <v>396</v>
       </c>
-      <c r="I36" s="231" t="s">
+      <c r="I36" s="230" t="s">
         <v>249</v>
       </c>
-      <c r="J36" s="228"/>
-      <c r="K36" s="230"/>
-      <c r="L36" s="278">
+      <c r="J36" s="229"/>
+      <c r="K36" s="272">
         <v>49.074404974626603</v>
       </c>
-      <c r="M36" s="280" t="s">
-        <v>2826</v>
-      </c>
-      <c r="N36" s="280" t="s">
+      <c r="L36" s="274" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M36" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1">
+    <row r="37" spans="1:13" ht="15" customHeight="1">
       <c r="A37" s="227" t="s">
         <v>397</v>
       </c>
@@ -48895,26 +48974,25 @@
       <c r="G37" s="227" t="s">
         <v>394</v>
       </c>
-      <c r="H37" s="236" t="s">
+      <c r="H37" s="234" t="s">
         <v>398</v>
       </c>
-      <c r="I37" s="231" t="s">
+      <c r="I37" s="230" t="s">
         <v>399</v>
       </c>
       <c r="J37" s="226"/>
-      <c r="K37" s="226"/>
-      <c r="L37" s="278">
+      <c r="K37" s="272">
         <v>80.9663355013938</v>
       </c>
-      <c r="M37" s="280" t="s">
-        <v>2826</v>
-      </c>
-      <c r="N37" s="280" t="s">
+      <c r="L37" s="274" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M37" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1">
-      <c r="A38" s="271" t="s">
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="A38" s="266" t="s">
         <v>400</v>
       </c>
       <c r="B38" s="227" t="s">
@@ -48923,7 +49001,7 @@
       <c r="C38" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="241" t="s">
+      <c r="D38" s="238" t="s">
         <v>153</v>
       </c>
       <c r="E38" s="227">
@@ -48932,29 +49010,28 @@
       <c r="F38" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G38" s="241" t="s">
+      <c r="G38" s="238" t="s">
         <v>394</v>
       </c>
       <c r="H38" s="226" t="s">
         <v>401</v>
       </c>
-      <c r="I38" s="232" t="s">
+      <c r="I38" s="231" t="s">
         <v>402</v>
       </c>
       <c r="J38" s="226"/>
-      <c r="K38" s="226"/>
-      <c r="L38" s="278">
+      <c r="K38" s="272">
         <v>96.948038024444301</v>
       </c>
-      <c r="M38" s="280" t="s">
-        <v>2826</v>
-      </c>
-      <c r="N38" s="280" t="s">
+      <c r="L38" s="274" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M38" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1">
-      <c r="A39" s="246" t="s">
+    <row r="39" spans="1:13" ht="15" customHeight="1">
+      <c r="A39" s="243" t="s">
         <v>403</v>
       </c>
       <c r="B39" s="227" t="s">
@@ -48975,20 +49052,19 @@
       <c r="G39" s="227" t="s">
         <v>394</v>
       </c>
-      <c r="H39" s="236" t="s">
+      <c r="H39" s="234" t="s">
         <v>404</v>
       </c>
-      <c r="I39" s="231" t="s">
+      <c r="I39" s="230" t="s">
         <v>249</v>
       </c>
       <c r="J39" s="226"/>
-      <c r="K39" s="226"/>
-      <c r="L39" s="278">
+      <c r="K39" s="272">
         <v>57.0366664284183</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1">
-      <c r="A40" s="246" t="s">
+    <row r="40" spans="1:13" ht="15" customHeight="1">
+      <c r="A40" s="243" t="s">
         <v>405</v>
       </c>
       <c r="B40" s="227" t="s">
@@ -49009,20 +49085,19 @@
       <c r="G40" s="227" t="s">
         <v>394</v>
       </c>
-      <c r="H40" s="236" t="s">
+      <c r="H40" s="234" t="s">
         <v>406</v>
       </c>
-      <c r="I40" s="231" t="s">
+      <c r="I40" s="230" t="s">
         <v>407</v>
       </c>
       <c r="J40" s="226"/>
-      <c r="K40" s="226"/>
-      <c r="L40" s="278">
+      <c r="K40" s="272">
         <v>68.808519762704606</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1">
-      <c r="A41" s="246" t="s">
+    <row r="41" spans="1:13" ht="15" customHeight="1">
+      <c r="A41" s="243" t="s">
         <v>408</v>
       </c>
       <c r="B41" s="227" t="s">
@@ -49043,17 +49118,16 @@
       <c r="G41" s="227" t="s">
         <v>394</v>
       </c>
-      <c r="H41" s="236" t="s">
+      <c r="H41" s="234" t="s">
         <v>409</v>
       </c>
-      <c r="I41" s="231"/>
+      <c r="I41" s="230"/>
       <c r="J41" s="226"/>
-      <c r="K41" s="226"/>
-      <c r="L41" s="278">
+      <c r="K41" s="272">
         <v>98.499035093988994</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1">
+    <row r="42" spans="1:13" ht="15" customHeight="1">
       <c r="A42" s="227" t="s">
         <v>414</v>
       </c>
@@ -49075,20 +49149,25 @@
       <c r="G42" s="227" t="s">
         <v>394</v>
       </c>
-      <c r="H42" s="236" t="s">
+      <c r="H42" s="234" t="s">
         <v>415</v>
       </c>
       <c r="I42" s="226" t="s">
         <v>349</v>
       </c>
-      <c r="J42" s="228"/>
-      <c r="K42" s="226"/>
-      <c r="L42" s="278">
+      <c r="J42" s="226"/>
+      <c r="K42" s="272">
         <v>91.244371381602505</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="246" t="s">
+      <c r="L42" s="274" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M42" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1">
+      <c r="A43" s="243" t="s">
         <v>416</v>
       </c>
       <c r="B43" s="227" t="s">
@@ -49109,21 +49188,26 @@
       <c r="G43" s="227" t="s">
         <v>394</v>
       </c>
-      <c r="H43" s="236" t="s">
+      <c r="H43" s="234" t="s">
         <v>417</v>
       </c>
       <c r="I43" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="J43" s="228"/>
-      <c r="K43" s="226" t="s">
+      <c r="J43" s="226" t="s">
         <v>418</v>
       </c>
-      <c r="L43" s="278">
+      <c r="K43" s="272">
         <v>99.857050961332305</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1">
+      <c r="L43" s="274" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M43" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1">
       <c r="A44" s="227" t="s">
         <v>437</v>
       </c>
@@ -49152,18 +49236,17 @@
         <v>249</v>
       </c>
       <c r="J44" s="226"/>
-      <c r="K44" s="226"/>
-      <c r="L44" s="278">
+      <c r="K44" s="272">
         <v>89.957830033592998</v>
       </c>
-      <c r="M44" s="280" t="s">
-        <v>2827</v>
-      </c>
-      <c r="N44" s="280" t="s">
+      <c r="L44" s="274" t="s">
+        <v>2826</v>
+      </c>
+      <c r="M44" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1">
+    <row r="45" spans="1:13" ht="15" customHeight="1">
       <c r="A45" s="227" t="s">
         <v>439</v>
       </c>
@@ -49192,18 +49275,17 @@
         <v>249</v>
       </c>
       <c r="J45" s="226"/>
-      <c r="K45" s="226"/>
-      <c r="L45" s="278">
+      <c r="K45" s="272">
         <v>94.875276963762403</v>
       </c>
-      <c r="M45" s="280" t="s">
-        <v>2827</v>
-      </c>
-      <c r="N45" s="280" t="s">
+      <c r="L45" s="274" t="s">
+        <v>2826</v>
+      </c>
+      <c r="M45" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1">
+    <row r="46" spans="1:13" ht="15" customHeight="1">
       <c r="A46" s="227" t="s">
         <v>441</v>
       </c>
@@ -49232,19 +49314,18 @@
         <v>249</v>
       </c>
       <c r="J46" s="226"/>
-      <c r="K46" s="226"/>
-      <c r="L46" s="278">
+      <c r="K46" s="272">
         <v>87.649203059109396</v>
       </c>
-      <c r="M46" s="280" t="s">
-        <v>2827</v>
-      </c>
-      <c r="N46" s="280" t="s">
+      <c r="L46" s="274" t="s">
+        <v>2826</v>
+      </c>
+      <c r="M46" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" s="246" t="s">
+    <row r="47" spans="1:13" ht="15" customHeight="1">
+      <c r="A47" s="243" t="s">
         <v>454</v>
       </c>
       <c r="B47" s="227" t="s">
@@ -49272,13 +49353,18 @@
         <v>456</v>
       </c>
       <c r="J47" s="226"/>
-      <c r="K47" s="226"/>
-      <c r="L47" s="278">
+      <c r="K47" s="272">
         <v>97.920091487384795</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1">
-      <c r="A48" s="246" t="s">
+      <c r="L47" s="274" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M47" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1">
+      <c r="A48" s="243" t="s">
         <v>457</v>
       </c>
       <c r="B48" s="227" t="s">
@@ -49302,12 +49388,11 @@
       <c r="H48" s="226" t="s">
         <v>458</v>
       </c>
-      <c r="I48" s="242" t="s">
+      <c r="I48" s="239" t="s">
         <v>459</v>
       </c>
-      <c r="J48" s="228"/>
-      <c r="K48" s="226"/>
-      <c r="L48" s="278">
+      <c r="J48" s="226"/>
+      <c r="K48" s="272">
         <v>100</v>
       </c>
     </row>
@@ -49333,22 +49418,21 @@
       <c r="G49" s="227" t="s">
         <v>460</v>
       </c>
-      <c r="H49" s="236" t="s">
+      <c r="H49" s="234" t="s">
         <v>462</v>
       </c>
-      <c r="I49" s="231" t="s">
+      <c r="I49" s="230" t="s">
         <v>463</v>
       </c>
-      <c r="J49" s="228"/>
-      <c r="K49" s="226" t="s">
+      <c r="J49" s="226" t="s">
         <v>464</v>
       </c>
-      <c r="L49" s="278">
+      <c r="K49" s="272">
         <v>79.236649999999997</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1">
-      <c r="A50" s="246" t="s">
+      <c r="A50" s="243" t="s">
         <v>465</v>
       </c>
       <c r="B50" s="227" t="s">
@@ -49369,21 +49453,20 @@
       <c r="G50" s="227" t="s">
         <v>460</v>
       </c>
-      <c r="H50" s="236" t="s">
+      <c r="H50" s="234" t="s">
         <v>466</v>
       </c>
       <c r="I50" s="226" t="s">
         <v>463</v>
       </c>
-      <c r="J50" s="228"/>
-      <c r="K50" s="226" t="s">
+      <c r="J50" s="226" t="s">
         <v>192</v>
       </c>
-      <c r="L50" s="278">
+      <c r="K50" s="272">
         <v>77.664212708169501</v>
       </c>
-      <c r="M50" s="280" t="s">
-        <v>2824</v>
+      <c r="L50" s="274" t="s">
+        <v>2823</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1">
@@ -49414,19 +49497,18 @@
       <c r="I51" s="226" t="s">
         <v>463</v>
       </c>
-      <c r="J51" s="228"/>
-      <c r="K51" s="226" t="s">
+      <c r="J51" s="226" t="s">
         <v>192</v>
       </c>
-      <c r="L51" s="278">
+      <c r="K51" s="272">
         <v>57.8157386891573</v>
       </c>
-      <c r="M51" s="281" t="s">
-        <v>2824</v>
+      <c r="L51" s="275" t="s">
+        <v>2823</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1">
-      <c r="A52" s="246" t="s">
+      <c r="A52" s="243" t="s">
         <v>469</v>
       </c>
       <c r="B52" s="227" t="s">
@@ -49453,16 +49535,15 @@
       <c r="I52" s="226" t="s">
         <v>463</v>
       </c>
-      <c r="J52" s="228"/>
-      <c r="K52" s="226" t="s">
+      <c r="J52" s="226" t="s">
         <v>192</v>
       </c>
-      <c r="L52" s="278">
+      <c r="K52" s="272">
         <v>98.7063112000572</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1">
-      <c r="A53" s="246" t="s">
+      <c r="A53" s="243" t="s">
         <v>472</v>
       </c>
       <c r="B53" s="227" t="s">
@@ -49483,20 +49564,25 @@
       <c r="G53" s="227" t="s">
         <v>471</v>
       </c>
-      <c r="H53" s="236" t="s">
+      <c r="H53" s="234" t="s">
         <v>473</v>
       </c>
       <c r="I53" s="226" t="s">
         <v>249</v>
       </c>
       <c r="J53" s="226"/>
-      <c r="K53" s="226"/>
-      <c r="L53" s="278">
+      <c r="K53" s="272">
         <v>74.197698520477502</v>
       </c>
+      <c r="L53" s="274" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M53" s="274" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1">
-      <c r="A54" s="271" t="s">
+      <c r="A54" s="266" t="s">
         <v>474</v>
       </c>
       <c r="B54" s="227" t="s">
@@ -49505,7 +49591,7 @@
       <c r="C54" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="241" t="s">
+      <c r="D54" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E54" s="227">
@@ -49514,25 +49600,30 @@
       <c r="F54" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G54" s="241" t="s">
+      <c r="G54" s="238" t="s">
         <v>471</v>
       </c>
-      <c r="H54" s="243" t="s">
+      <c r="H54" s="240" t="s">
         <v>475</v>
       </c>
-      <c r="I54" s="232" t="s">
+      <c r="I54" s="231" t="s">
         <v>476</v>
       </c>
-      <c r="J54" s="226"/>
-      <c r="K54" s="232" t="s">
+      <c r="J54" s="231" t="s">
         <v>477</v>
       </c>
-      <c r="L54" s="278">
+      <c r="K54" s="272">
         <v>77.3640197269673</v>
       </c>
+      <c r="L54" s="274" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M54" s="274" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1">
-      <c r="A55" s="271" t="s">
+      <c r="A55" s="266" t="s">
         <v>478</v>
       </c>
       <c r="B55" s="227" t="s">
@@ -49541,7 +49632,7 @@
       <c r="C55" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="241" t="s">
+      <c r="D55" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E55" s="227">
@@ -49550,20 +49641,19 @@
       <c r="F55" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G55" s="241" t="s">
+      <c r="G55" s="238" t="s">
         <v>471</v>
       </c>
-      <c r="H55" s="243" t="s">
+      <c r="H55" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I55" s="232" t="s">
+      <c r="I55" s="231" t="s">
         <v>480</v>
       </c>
-      <c r="J55" s="226"/>
-      <c r="K55" s="232" t="s">
+      <c r="J55" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="L55" s="278">
+      <c r="K55" s="272">
         <v>94.246301193624504</v>
       </c>
     </row>
@@ -49577,7 +49667,7 @@
       <c r="C56" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="241" t="s">
+      <c r="D56" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E56" s="227">
@@ -49586,23 +49676,25 @@
       <c r="F56" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G56" s="241" t="s">
+      <c r="G56" s="238" t="s">
         <v>471</v>
       </c>
-      <c r="H56" s="243" t="s">
+      <c r="H56" s="240" t="s">
         <v>483</v>
       </c>
       <c r="I56" s="226" t="s">
         <v>349</v>
       </c>
       <c r="J56" s="226"/>
-      <c r="K56" s="226"/>
-      <c r="L56" s="278">
+      <c r="K56" s="272">
         <v>25.959545422057001</v>
       </c>
+      <c r="M56" s="277" t="s">
+        <v>2828</v>
+      </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1">
-      <c r="A57" s="271" t="s">
+      <c r="A57" s="266" t="s">
         <v>484</v>
       </c>
       <c r="B57" s="227" t="s">
@@ -49611,7 +49703,7 @@
       <c r="C57" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="241" t="s">
+      <c r="D57" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E57" s="227">
@@ -49620,21 +49712,23 @@
       <c r="F57" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G57" s="241" t="s">
+      <c r="G57" s="238" t="s">
         <v>471</v>
       </c>
-      <c r="H57" s="243" t="s">
+      <c r="H57" s="240" t="s">
         <v>485</v>
       </c>
       <c r="I57" s="226" t="s">
         <v>486</v>
       </c>
-      <c r="J57" s="228"/>
-      <c r="K57" s="226" t="s">
+      <c r="J57" s="226" t="s">
         <v>487</v>
       </c>
-      <c r="L57" s="278">
+      <c r="K57" s="272">
         <v>86.598527624901706</v>
+      </c>
+      <c r="M57" s="277" t="s">
+        <v>2828</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1">
@@ -49647,7 +49741,7 @@
       <c r="C58" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="241" t="s">
+      <c r="D58" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E58" s="227">
@@ -49656,7 +49750,7 @@
       <c r="F58" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G58" s="241" t="s">
+      <c r="G58" s="238" t="s">
         <v>471</v>
       </c>
       <c r="H58" s="226" t="s">
@@ -49666,13 +49760,18 @@
         <v>349</v>
       </c>
       <c r="J58" s="226"/>
-      <c r="K58" s="226"/>
-      <c r="L58" s="278">
+      <c r="K58" s="272">
         <v>82.603101994139095</v>
       </c>
+      <c r="L58" s="274" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M58" s="274" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1">
-      <c r="A59" s="273" t="s">
+      <c r="A59" s="268" t="s">
         <v>490</v>
       </c>
       <c r="B59" s="227" t="s">
@@ -49681,7 +49780,7 @@
       <c r="C59" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="241" t="s">
+      <c r="D59" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E59" s="227">
@@ -49690,25 +49789,24 @@
       <c r="F59" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G59" s="241" t="s">
+      <c r="G59" s="238" t="s">
         <v>471</v>
       </c>
       <c r="H59" s="226" t="s">
         <v>491</v>
       </c>
-      <c r="I59" s="232" t="s">
+      <c r="I59" s="231" t="s">
         <v>492</v>
       </c>
-      <c r="J59" s="226"/>
-      <c r="K59" s="226" t="s">
+      <c r="J59" s="226" t="s">
         <v>487</v>
       </c>
-      <c r="L59" s="278">
+      <c r="K59" s="272">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1">
-      <c r="A60" s="271" t="s">
+      <c r="A60" s="266" t="s">
         <v>493</v>
       </c>
       <c r="B60" s="227" t="s">
@@ -49717,7 +49815,7 @@
       <c r="C60" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="241" t="s">
+      <c r="D60" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E60" s="227">
@@ -49726,7 +49824,7 @@
       <c r="F60" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G60" s="241" t="s">
+      <c r="G60" s="238" t="s">
         <v>471</v>
       </c>
       <c r="H60" s="226" t="s">
@@ -49736,9 +49834,14 @@
         <v>349</v>
       </c>
       <c r="J60" s="226"/>
-      <c r="K60" s="226"/>
-      <c r="L60" s="278">
+      <c r="K60" s="272">
         <v>44.878850689729099</v>
+      </c>
+      <c r="L60" s="274" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M60" s="274" t="s">
+        <v>2812</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1">
@@ -49751,7 +49854,7 @@
       <c r="C61" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="241" t="s">
+      <c r="D61" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E61" s="227">
@@ -49760,7 +49863,7 @@
       <c r="F61" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G61" s="241" t="s">
+      <c r="G61" s="238" t="s">
         <v>471</v>
       </c>
       <c r="H61" s="226" t="s">
@@ -49770,9 +49873,14 @@
         <v>349</v>
       </c>
       <c r="J61" s="226"/>
-      <c r="K61" s="226"/>
-      <c r="L61" s="278">
+      <c r="K61" s="272">
         <v>62.890429561861197</v>
+      </c>
+      <c r="L61" s="274" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M61" s="274" t="s">
+        <v>2812</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1">
@@ -49785,7 +49893,7 @@
       <c r="C62" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="241" t="s">
+      <c r="D62" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E62" s="227">
@@ -49794,7 +49902,7 @@
       <c r="F62" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G62" s="241" t="s">
+      <c r="G62" s="238" t="s">
         <v>471</v>
       </c>
       <c r="H62" s="226" t="s">
@@ -49804,13 +49912,18 @@
         <v>349</v>
       </c>
       <c r="J62" s="226"/>
-      <c r="K62" s="226"/>
-      <c r="L62" s="278">
+      <c r="K62" s="272">
         <v>75.205489243084898</v>
       </c>
+      <c r="L62" s="274" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M62" s="274" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1">
-      <c r="A63" s="246" t="s">
+      <c r="A63" s="243" t="s">
         <v>526</v>
       </c>
       <c r="B63" s="227" t="s">
@@ -49819,7 +49932,7 @@
       <c r="C63" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="241" t="s">
+      <c r="D63" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E63" s="227">
@@ -49831,22 +49944,27 @@
       <c r="G63" s="227" t="s">
         <v>525</v>
       </c>
-      <c r="H63" s="236" t="s">
+      <c r="H63" s="234" t="s">
         <v>527</v>
       </c>
       <c r="I63" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J63" s="226"/>
-      <c r="K63" s="231" t="s">
+      <c r="J63" s="230" t="s">
         <v>529</v>
       </c>
-      <c r="L63" s="278">
+      <c r="K63" s="272">
         <v>60.746193981845501</v>
       </c>
+      <c r="L63" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M63" s="274" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1">
-      <c r="A64" s="271" t="s">
+      <c r="A64" s="266" t="s">
         <v>530</v>
       </c>
       <c r="B64" s="227" t="s">
@@ -49855,7 +49973,7 @@
       <c r="C64" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="241" t="s">
+      <c r="D64" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E64" s="227">
@@ -49864,23 +49982,28 @@
       <c r="F64" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G64" s="241" t="s">
+      <c r="G64" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H64" s="243" t="s">
+      <c r="H64" s="240" t="s">
         <v>531</v>
       </c>
       <c r="I64" s="226" t="s">
         <v>532</v>
       </c>
       <c r="J64" s="226"/>
-      <c r="K64" s="226"/>
-      <c r="L64" s="278">
+      <c r="K64" s="272">
         <v>75.698663426488494</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="15" customHeight="1">
-      <c r="A65" s="246" t="s">
+      <c r="L64" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M64" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1">
+      <c r="A65" s="243" t="s">
         <v>533</v>
       </c>
       <c r="B65" s="227" t="s">
@@ -49889,7 +50012,7 @@
       <c r="C65" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="241" t="s">
+      <c r="D65" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E65" s="227">
@@ -49898,23 +50021,28 @@
       <c r="F65" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G65" s="241" t="s">
+      <c r="G65" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H65" s="236" t="s">
+      <c r="H65" s="234" t="s">
         <v>534</v>
       </c>
       <c r="I65" s="226" t="s">
         <v>528</v>
       </c>
       <c r="J65" s="226"/>
-      <c r="K65" s="226"/>
-      <c r="L65" s="278">
+      <c r="K65" s="272">
         <v>73.597312558073099</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="15" customHeight="1">
-      <c r="A66" s="271" t="s">
+      <c r="L65" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M65" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1">
+      <c r="A66" s="266" t="s">
         <v>535</v>
       </c>
       <c r="B66" s="227" t="s">
@@ -49923,7 +50051,7 @@
       <c r="C66" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="241" t="s">
+      <c r="D66" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E66" s="227">
@@ -49932,7 +50060,7 @@
       <c r="F66" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G66" s="241" t="s">
+      <c r="G66" s="238" t="s">
         <v>525</v>
       </c>
       <c r="H66" s="226" t="s">
@@ -49942,13 +50070,18 @@
         <v>528</v>
       </c>
       <c r="J66" s="226"/>
-      <c r="K66" s="226"/>
-      <c r="L66" s="278">
+      <c r="K66" s="272">
         <v>99.285254806661399</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="15" customHeight="1">
-      <c r="A67" s="271" t="s">
+      <c r="L66" s="274" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M66" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1">
+      <c r="A67" s="266" t="s">
         <v>537</v>
       </c>
       <c r="B67" s="227" t="s">
@@ -49957,7 +50090,7 @@
       <c r="C67" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="241" t="s">
+      <c r="D67" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E67" s="227">
@@ -49966,23 +50099,28 @@
       <c r="F67" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G67" s="241" t="s">
+      <c r="G67" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H67" s="243" t="s">
+      <c r="H67" s="240" t="s">
         <v>538</v>
       </c>
       <c r="I67" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J67" s="230"/>
-      <c r="K67" s="240"/>
-      <c r="L67" s="278">
+      <c r="J67" s="237"/>
+      <c r="K67" s="272">
         <v>32.485169037238201</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="15" customHeight="1">
-      <c r="A68" s="271" t="s">
+      <c r="L67" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M67" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1">
+      <c r="A68" s="266" t="s">
         <v>539</v>
       </c>
       <c r="B68" s="227" t="s">
@@ -49991,7 +50129,7 @@
       <c r="C68" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="241" t="s">
+      <c r="D68" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E68" s="227">
@@ -50000,23 +50138,28 @@
       <c r="F68" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G68" s="241" t="s">
+      <c r="G68" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H68" s="243" t="s">
+      <c r="H68" s="240" t="s">
         <v>540</v>
       </c>
       <c r="I68" s="226" t="s">
         <v>541</v>
       </c>
-      <c r="J68" s="230"/>
-      <c r="K68" s="226"/>
-      <c r="L68" s="278">
+      <c r="J68" s="226"/>
+      <c r="K68" s="272">
         <v>96.326209706239695</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="15" customHeight="1">
-      <c r="A69" s="271" t="s">
+      <c r="L68" s="274" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M68" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1">
+      <c r="A69" s="266" t="s">
         <v>542</v>
       </c>
       <c r="B69" s="227" t="s">
@@ -50025,7 +50168,7 @@
       <c r="C69" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D69" s="241" t="s">
+      <c r="D69" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E69" s="227">
@@ -50034,23 +50177,22 @@
       <c r="F69" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G69" s="241" t="s">
+      <c r="G69" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H69" s="243" t="s">
+      <c r="H69" s="240" t="s">
         <v>543</v>
       </c>
       <c r="I69" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="J69" s="230"/>
-      <c r="K69" s="240"/>
-      <c r="L69" s="278">
+      <c r="J69" s="237"/>
+      <c r="K69" s="272">
         <v>99.892788220999194</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1">
-      <c r="A70" s="271" t="s">
+    <row r="70" spans="1:13" ht="15" customHeight="1">
+      <c r="A70" s="266" t="s">
         <v>544</v>
       </c>
       <c r="B70" s="227" t="s">
@@ -50059,7 +50201,7 @@
       <c r="C70" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="241" t="s">
+      <c r="D70" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E70" s="227">
@@ -50068,23 +50210,28 @@
       <c r="F70" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G70" s="241" t="s">
+      <c r="G70" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H70" s="243" t="s">
+      <c r="H70" s="240" t="s">
         <v>545</v>
       </c>
       <c r="I70" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J70" s="230"/>
-      <c r="K70" s="240"/>
-      <c r="L70" s="278">
+      <c r="J70" s="237"/>
+      <c r="K70" s="272">
         <v>96.898005860910601</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="15" customHeight="1">
-      <c r="A71" s="271" t="s">
+      <c r="L70" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M70" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1">
+      <c r="A71" s="266" t="s">
         <v>546</v>
       </c>
       <c r="B71" s="227" t="s">
@@ -50093,7 +50240,7 @@
       <c r="C71" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="241" t="s">
+      <c r="D71" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E71" s="227">
@@ -50102,23 +50249,28 @@
       <c r="F71" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G71" s="241" t="s">
+      <c r="G71" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H71" s="243" t="s">
+      <c r="H71" s="240" t="s">
         <v>547</v>
       </c>
       <c r="I71" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J71" s="230"/>
-      <c r="K71" s="240"/>
-      <c r="L71" s="278">
+      <c r="J71" s="237"/>
+      <c r="K71" s="272">
         <v>89.350296619255204</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="15" customHeight="1">
-      <c r="A72" s="271" t="s">
+      <c r="L71" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M71" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1">
+      <c r="A72" s="266" t="s">
         <v>548</v>
       </c>
       <c r="B72" s="227" t="s">
@@ -50127,7 +50279,7 @@
       <c r="C72" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="241" t="s">
+      <c r="D72" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E72" s="227">
@@ -50136,22 +50288,27 @@
       <c r="F72" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G72" s="241" t="s">
+      <c r="G72" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H72" s="243" t="s">
+      <c r="H72" s="240" t="s">
         <v>549</v>
       </c>
       <c r="I72" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J72" s="230"/>
-      <c r="K72" s="240"/>
-      <c r="L72" s="278">
+      <c r="J72" s="237"/>
+      <c r="K72" s="272">
         <v>56.0574655135444</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="15" customHeight="1">
+      <c r="L72" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M72" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1">
       <c r="A73" s="227" t="s">
         <v>550</v>
       </c>
@@ -50161,7 +50318,7 @@
       <c r="C73" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="241" t="s">
+      <c r="D73" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E73" s="227">
@@ -50170,22 +50327,27 @@
       <c r="F73" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G73" s="241" t="s">
+      <c r="G73" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H73" s="243" t="s">
+      <c r="H73" s="240" t="s">
         <v>551</v>
       </c>
       <c r="I73" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J73" s="230"/>
-      <c r="K73" s="240"/>
-      <c r="L73" s="278">
+      <c r="J73" s="237"/>
+      <c r="K73" s="272">
         <v>78.750625402044193</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="15" customHeight="1">
+      <c r="L73" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M73" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1">
       <c r="A74" s="227" t="s">
         <v>552</v>
       </c>
@@ -50195,7 +50357,7 @@
       <c r="C74" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D74" s="241" t="s">
+      <c r="D74" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E74" s="227">
@@ -50204,23 +50366,28 @@
       <c r="F74" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G74" s="241" t="s">
+      <c r="G74" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H74" s="243" t="s">
+      <c r="H74" s="240" t="s">
         <v>553</v>
       </c>
       <c r="I74" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J74" s="230"/>
-      <c r="K74" s="240"/>
-      <c r="L74" s="278">
+      <c r="J74" s="237"/>
+      <c r="K74" s="272">
         <v>82.767493388606994</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="15" customHeight="1">
-      <c r="A75" s="271" t="s">
+      <c r="L74" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M74" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1">
+      <c r="A75" s="266" t="s">
         <v>554</v>
       </c>
       <c r="B75" s="227" t="s">
@@ -50229,7 +50396,7 @@
       <c r="C75" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D75" s="241" t="s">
+      <c r="D75" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E75" s="227">
@@ -50238,23 +50405,28 @@
       <c r="F75" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G75" s="241" t="s">
+      <c r="G75" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H75" s="243" t="s">
+      <c r="H75" s="240" t="s">
         <v>555</v>
       </c>
       <c r="I75" s="226" t="s">
         <v>528</v>
       </c>
       <c r="J75" s="226"/>
-      <c r="K75" s="226"/>
-      <c r="L75" s="278">
+      <c r="K75" s="272">
         <v>99.857050961332305</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="15" customHeight="1">
-      <c r="A76" s="271" t="s">
+      <c r="L75" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M75" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1">
+      <c r="A76" s="266" t="s">
         <v>556</v>
       </c>
       <c r="B76" s="227" t="s">
@@ -50263,7 +50435,7 @@
       <c r="C76" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="241" t="s">
+      <c r="D76" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E76" s="227">
@@ -50272,23 +50444,28 @@
       <c r="F76" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G76" s="241" t="s">
+      <c r="G76" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H76" s="243" t="s">
+      <c r="H76" s="240" t="s">
         <v>557</v>
       </c>
       <c r="I76" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J76" s="228"/>
-      <c r="K76" s="236"/>
-      <c r="L76" s="278">
+      <c r="J76" s="234"/>
+      <c r="K76" s="272">
         <v>73.325709384604394</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="15" customHeight="1">
-      <c r="A77" s="271" t="s">
+      <c r="L76" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M76" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1">
+      <c r="A77" s="266" t="s">
         <v>558</v>
       </c>
       <c r="B77" s="227" t="s">
@@ -50297,7 +50474,7 @@
       <c r="C77" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D77" s="241" t="s">
+      <c r="D77" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E77" s="227">
@@ -50306,23 +50483,28 @@
       <c r="F77" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G77" s="241" t="s">
+      <c r="G77" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H77" s="243" t="s">
+      <c r="H77" s="240" t="s">
         <v>559</v>
       </c>
       <c r="I77" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J77" s="228"/>
-      <c r="K77" s="236"/>
-      <c r="L77" s="278">
+      <c r="J77" s="234"/>
+      <c r="K77" s="272">
         <v>73.2828246730041</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1">
-      <c r="A78" s="271" t="s">
+      <c r="L77" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M77" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1">
+      <c r="A78" s="266" t="s">
         <v>560</v>
       </c>
       <c r="B78" s="227" t="s">
@@ -50331,7 +50513,7 @@
       <c r="C78" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="241" t="s">
+      <c r="D78" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E78" s="227">
@@ -50340,23 +50522,28 @@
       <c r="F78" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G78" s="241" t="s">
+      <c r="G78" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H78" s="243" t="s">
+      <c r="H78" s="240" t="s">
         <v>561</v>
       </c>
       <c r="I78" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="J78" s="228"/>
-      <c r="K78" s="236"/>
-      <c r="L78" s="278">
+      <c r="J78" s="234"/>
+      <c r="K78" s="272">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="15" customHeight="1">
-      <c r="A79" s="271" t="s">
+      <c r="L78" s="274" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M78" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1">
+      <c r="A79" s="266" t="s">
         <v>562</v>
       </c>
       <c r="B79" s="227" t="s">
@@ -50365,7 +50552,7 @@
       <c r="C79" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D79" s="241" t="s">
+      <c r="D79" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E79" s="227">
@@ -50374,29 +50561,28 @@
       <c r="F79" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G79" s="241" t="s">
+      <c r="G79" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H79" s="243" t="s">
+      <c r="H79" s="240" t="s">
         <v>563</v>
       </c>
       <c r="I79" s="226" t="s">
         <v>564</v>
       </c>
-      <c r="J79" s="228"/>
-      <c r="K79" s="236"/>
-      <c r="L79" s="278">
+      <c r="J79" s="234"/>
+      <c r="K79" s="272">
         <v>34.779501107854998</v>
       </c>
-      <c r="M79" s="280" t="s">
-        <v>2825</v>
-      </c>
-      <c r="N79" s="280" t="s">
+      <c r="L79" s="274" t="s">
+        <v>2824</v>
+      </c>
+      <c r="M79" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15" customHeight="1">
-      <c r="A80" s="271" t="s">
+    <row r="80" spans="1:13" ht="15" customHeight="1">
+      <c r="A80" s="266" t="s">
         <v>565</v>
       </c>
       <c r="B80" s="227" t="s">
@@ -50405,7 +50591,7 @@
       <c r="C80" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D80" s="241" t="s">
+      <c r="D80" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E80" s="227">
@@ -50414,29 +50600,28 @@
       <c r="F80" s="227" t="s">
         <v>1155</v>
       </c>
-      <c r="G80" s="241" t="s">
+      <c r="G80" s="238" t="s">
         <v>525</v>
       </c>
-      <c r="H80" s="243" t="s">
+      <c r="H80" s="240" t="s">
         <v>566</v>
       </c>
       <c r="I80" s="226" t="s">
         <v>349</v>
       </c>
-      <c r="J80" s="228"/>
-      <c r="K80" s="236"/>
-      <c r="L80" s="278">
+      <c r="J80" s="234"/>
+      <c r="K80" s="272">
         <v>51.361589593310001</v>
       </c>
-      <c r="M80" s="280" t="s">
-        <v>2825</v>
-      </c>
-      <c r="N80" s="280" t="s">
+      <c r="L80" s="274" t="s">
+        <v>2824</v>
+      </c>
+      <c r="M80" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15" customHeight="1">
-      <c r="A81" s="246" t="s">
+    <row r="81" spans="1:13" ht="15" customHeight="1">
+      <c r="A81" s="243" t="s">
         <v>574</v>
       </c>
       <c r="B81" s="227" t="s">
@@ -50445,7 +50630,7 @@
       <c r="C81" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="D81" s="241" t="s">
+      <c r="D81" s="238" t="s">
         <v>121</v>
       </c>
       <c r="E81" s="227">
@@ -50457,32 +50642,31 @@
       <c r="G81" s="227" t="s">
         <v>525</v>
       </c>
-      <c r="H81" s="236" t="s">
+      <c r="H81" s="234" t="s">
         <v>575</v>
       </c>
       <c r="I81" s="226" t="s">
         <v>576</v>
       </c>
       <c r="J81" s="226"/>
-      <c r="K81" s="226"/>
-      <c r="L81" s="278">
+      <c r="K81" s="272">
         <v>94.725180473161302</v>
       </c>
-      <c r="M81" s="280" t="s">
-        <v>2825</v>
-      </c>
-      <c r="N81" s="280" t="s">
+      <c r="L81" s="274" t="s">
+        <v>2824</v>
+      </c>
+      <c r="M81" s="274" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15" customHeight="1">
+    <row r="82" spans="1:13" ht="15" customHeight="1">
       <c r="A82" s="227" t="s">
         <v>702</v>
       </c>
       <c r="B82" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="233" t="s">
+      <c r="C82" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D82" s="227" t="s">
@@ -50497,26 +50681,31 @@
       <c r="G82" s="227" t="s">
         <v>701</v>
       </c>
-      <c r="H82" s="244" t="s">
+      <c r="H82" s="241" t="s">
         <v>703</v>
       </c>
-      <c r="I82" s="245" t="s">
+      <c r="I82" s="242" t="s">
         <v>278</v>
       </c>
       <c r="J82" s="226"/>
-      <c r="K82" s="226"/>
-      <c r="L82" s="278">
+      <c r="K82" s="272">
         <v>5.8680580373096998</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="15" customHeight="1">
+      <c r="L82" s="274" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M82" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1">
       <c r="A83" s="227" t="s">
         <v>704</v>
       </c>
       <c r="B83" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="233" t="s">
+      <c r="C83" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D83" s="227" t="s">
@@ -50534,23 +50723,28 @@
       <c r="H83" s="226" t="s">
         <v>705</v>
       </c>
-      <c r="I83" s="245" t="s">
+      <c r="I83" s="242" t="s">
         <v>706</v>
       </c>
       <c r="J83" s="226"/>
-      <c r="K83" s="226"/>
-      <c r="L83" s="278">
+      <c r="K83" s="272">
         <v>97.033807447644904</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="15" customHeight="1">
+      <c r="L83" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M83" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1">
       <c r="A84" s="227" t="s">
         <v>710</v>
       </c>
       <c r="B84" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="233" t="s">
+      <c r="C84" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D84" s="227" t="s">
@@ -50568,23 +50762,22 @@
       <c r="H84" s="226" t="s">
         <v>711</v>
       </c>
-      <c r="I84" s="245" t="s">
+      <c r="I84" s="242" t="s">
         <v>53</v>
       </c>
       <c r="J84" s="226"/>
-      <c r="K84" s="226"/>
-      <c r="L84" s="278">
+      <c r="K84" s="272">
         <v>62.911871917661401</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15" customHeight="1">
+    <row r="85" spans="1:13" ht="15" customHeight="1">
       <c r="A85" s="227" t="s">
         <v>712</v>
       </c>
       <c r="B85" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="233" t="s">
+      <c r="C85" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D85" s="227" t="s">
@@ -50602,23 +50795,28 @@
       <c r="H85" s="226" t="s">
         <v>713</v>
       </c>
-      <c r="I85" s="245" t="s">
+      <c r="I85" s="242" t="s">
         <v>714</v>
       </c>
       <c r="J85" s="226"/>
-      <c r="K85" s="226"/>
-      <c r="L85" s="278">
+      <c r="K85" s="272">
         <v>84.761632478021596</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="15" customHeight="1">
+      <c r="L85" s="274" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M85" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15" customHeight="1">
       <c r="A86" s="227" t="s">
         <v>715</v>
       </c>
       <c r="B86" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C86" s="233" t="s">
+      <c r="C86" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D86" s="227" t="s">
@@ -50636,23 +50834,28 @@
       <c r="H86" s="226" t="s">
         <v>716</v>
       </c>
-      <c r="I86" s="245" t="s">
+      <c r="I86" s="242" t="s">
         <v>93</v>
       </c>
       <c r="J86" s="226"/>
-      <c r="K86" s="226"/>
-      <c r="L86" s="278">
+      <c r="K86" s="272">
         <v>72.989779143735305</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="15" customHeight="1">
+      <c r="L86" s="274" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M86" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15" customHeight="1">
       <c r="A87" s="227" t="s">
         <v>717</v>
       </c>
       <c r="B87" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="233" t="s">
+      <c r="C87" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D87" s="227" t="s">
@@ -50670,25 +50873,24 @@
       <c r="H87" s="226" t="s">
         <v>718</v>
       </c>
-      <c r="I87" s="245" t="s">
+      <c r="I87" s="242" t="s">
         <v>719</v>
       </c>
-      <c r="J87" s="226"/>
-      <c r="K87" s="240" t="s">
+      <c r="J87" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L87" s="278">
+      <c r="K87" s="272">
         <v>75.691515974555102</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15" customHeight="1">
+    <row r="88" spans="1:13" ht="15" customHeight="1">
       <c r="A88" s="227" t="s">
         <v>721</v>
       </c>
       <c r="B88" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="233" t="s">
+      <c r="C88" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D88" s="227" t="s">
@@ -50706,25 +50908,24 @@
       <c r="H88" s="226" t="s">
         <v>722</v>
       </c>
-      <c r="I88" s="245" t="s">
+      <c r="I88" s="242" t="s">
         <v>723</v>
       </c>
-      <c r="J88" s="226"/>
-      <c r="K88" s="240" t="s">
+      <c r="J88" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L88" s="278">
+      <c r="K88" s="272">
         <v>97.848616968050905</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15" customHeight="1">
+    <row r="89" spans="1:13" ht="15" customHeight="1">
       <c r="A89" s="227" t="s">
         <v>725</v>
       </c>
       <c r="B89" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="233" t="s">
+      <c r="C89" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D89" s="227" t="s">
@@ -50745,20 +50946,25 @@
       <c r="I89" s="226" t="s">
         <v>727</v>
       </c>
-      <c r="J89" s="240"/>
-      <c r="K89" s="240"/>
-      <c r="L89" s="278">
+      <c r="J89" s="237"/>
+      <c r="K89" s="272">
         <v>29.075834465013202</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="15" customHeight="1">
+      <c r="L89" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M89" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15" customHeight="1">
       <c r="A90" s="227" t="s">
         <v>728</v>
       </c>
       <c r="B90" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="233" t="s">
+      <c r="C90" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D90" s="227" t="s">
@@ -50779,20 +50985,25 @@
       <c r="I90" s="226" t="s">
         <v>730</v>
       </c>
-      <c r="J90" s="240"/>
-      <c r="K90" s="240"/>
-      <c r="L90" s="278">
+      <c r="J90" s="237"/>
+      <c r="K90" s="272">
         <v>82.238581945536396</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="15" customHeight="1">
-      <c r="A91" s="246" t="s">
+      <c r="L90" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M90" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15" customHeight="1">
+      <c r="A91" s="243" t="s">
         <v>733</v>
       </c>
       <c r="B91" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="233" t="s">
+      <c r="C91" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D91" s="227" t="s">
@@ -50813,22 +51024,21 @@
       <c r="I91" s="226" t="s">
         <v>735</v>
       </c>
-      <c r="J91" s="240"/>
-      <c r="K91" s="240" t="s">
+      <c r="J91" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L91" s="278">
+      <c r="K91" s="272">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15" customHeight="1">
+    <row r="92" spans="1:13" ht="15" customHeight="1">
       <c r="A92" s="227" t="s">
         <v>739</v>
       </c>
       <c r="B92" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="233" t="s">
+      <c r="C92" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D92" s="227" t="s">
@@ -50849,22 +51059,27 @@
       <c r="I92" s="226" t="s">
         <v>741</v>
       </c>
-      <c r="J92" s="240"/>
-      <c r="K92" s="240" t="s">
+      <c r="J92" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L92" s="278">
+      <c r="K92" s="272">
         <v>94.303480809091596</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="15" customHeight="1">
+      <c r="L92" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M92" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15" customHeight="1">
       <c r="A93" s="227" t="s">
         <v>742</v>
       </c>
       <c r="B93" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="233" t="s">
+      <c r="C93" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D93" s="227" t="s">
@@ -50879,26 +51094,31 @@
       <c r="G93" s="227" t="s">
         <v>724</v>
       </c>
-      <c r="H93" s="244" t="s">
+      <c r="H93" s="241" t="s">
         <v>743</v>
       </c>
       <c r="I93" s="226" t="s">
         <v>727</v>
       </c>
       <c r="J93" s="226"/>
-      <c r="K93" s="226"/>
-      <c r="L93" s="278">
+      <c r="K93" s="272">
         <v>27.8965048960046</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="15" customHeight="1">
+      <c r="L93" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M93" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" customHeight="1">
       <c r="A94" s="227" t="s">
         <v>744</v>
       </c>
       <c r="B94" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="233" t="s">
+      <c r="C94" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="227" t="s">
@@ -50920,19 +51140,24 @@
         <v>730</v>
       </c>
       <c r="J94" s="226"/>
-      <c r="K94" s="226"/>
-      <c r="L94" s="278">
+      <c r="K94" s="272">
         <v>81.781145021799702</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="15" customHeight="1">
+      <c r="L94" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M94" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15" customHeight="1">
       <c r="A95" s="227" t="s">
         <v>746</v>
       </c>
       <c r="B95" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="233" t="s">
+      <c r="C95" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D95" s="227" t="s">
@@ -50947,28 +51172,33 @@
       <c r="G95" s="227" t="s">
         <v>724</v>
       </c>
-      <c r="H95" s="244" t="s">
+      <c r="H95" s="241" t="s">
         <v>747</v>
       </c>
       <c r="I95" s="226" t="s">
         <v>741</v>
       </c>
-      <c r="J95" s="226"/>
-      <c r="K95" s="240" t="s">
+      <c r="J95" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L95" s="278">
+      <c r="K95" s="272">
         <v>95.911657494103395</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="15" customHeight="1">
+      <c r="L95" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M95" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15" customHeight="1">
       <c r="A96" s="227" t="s">
         <v>748</v>
       </c>
       <c r="B96" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C96" s="233" t="s">
+      <c r="C96" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D96" s="227" t="s">
@@ -50989,22 +51219,27 @@
       <c r="I96" s="226" t="s">
         <v>750</v>
       </c>
-      <c r="J96" s="226"/>
-      <c r="K96" s="240" t="s">
+      <c r="J96" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L96" s="278">
+      <c r="K96" s="272">
         <v>99.542563076263306</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="15" customHeight="1">
+      <c r="L96" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M96" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15" customHeight="1">
       <c r="A97" s="227" t="s">
         <v>751</v>
       </c>
       <c r="B97" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="233" t="s">
+      <c r="C97" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D97" s="227" t="s">
@@ -51026,19 +51261,24 @@
         <v>727</v>
       </c>
       <c r="J97" s="226"/>
-      <c r="K97" s="226"/>
-      <c r="L97" s="278">
+      <c r="K97" s="272">
         <v>65.077549853477194</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="15" customHeight="1">
+      <c r="L97" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M97" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" customHeight="1">
       <c r="A98" s="227" t="s">
         <v>753</v>
       </c>
       <c r="B98" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="233" t="s">
+      <c r="C98" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D98" s="227" t="s">
@@ -51059,20 +51299,25 @@
       <c r="I98" s="226" t="s">
         <v>730</v>
       </c>
-      <c r="J98" s="226"/>
-      <c r="K98" s="240"/>
-      <c r="L98" s="278">
+      <c r="J98" s="237"/>
+      <c r="K98" s="272">
         <v>99.292402258594805</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="15" customHeight="1">
+      <c r="L98" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M98" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15" customHeight="1">
       <c r="A99" s="227" t="s">
         <v>755</v>
       </c>
       <c r="B99" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="233" t="s">
+      <c r="C99" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D99" s="227" t="s">
@@ -51094,19 +51339,24 @@
         <v>727</v>
       </c>
       <c r="J99" s="226"/>
-      <c r="K99" s="226"/>
-      <c r="L99" s="278">
+      <c r="K99" s="272">
         <v>31.0199413908941</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="15" customHeight="1">
+      <c r="L99" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M99" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15" customHeight="1">
       <c r="A100" s="227" t="s">
         <v>757</v>
       </c>
       <c r="B100" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C100" s="233" t="s">
+      <c r="C100" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D100" s="227" t="s">
@@ -51128,19 +51378,24 @@
         <v>730</v>
       </c>
       <c r="J100" s="226"/>
-      <c r="K100" s="226"/>
-      <c r="L100" s="278">
+      <c r="K100" s="272">
         <v>77.771424487170293</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="15" customHeight="1">
+      <c r="L100" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M100" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15" customHeight="1">
       <c r="A101" s="227" t="s">
         <v>759</v>
       </c>
       <c r="B101" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C101" s="233" t="s">
+      <c r="C101" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D101" s="227" t="s">
@@ -51162,19 +51417,24 @@
         <v>727</v>
       </c>
       <c r="J101" s="226"/>
-      <c r="K101" s="226"/>
-      <c r="L101" s="278">
+      <c r="K101" s="272">
         <v>56.178972196411998</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="15" customHeight="1">
+      <c r="L101" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M101" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15" customHeight="1">
       <c r="A102" s="227" t="s">
         <v>761</v>
       </c>
       <c r="B102" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C102" s="233" t="s">
+      <c r="C102" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D102" s="227" t="s">
@@ -51196,19 +51456,24 @@
         <v>727</v>
       </c>
       <c r="J102" s="226"/>
-      <c r="K102" s="226"/>
-      <c r="L102" s="278">
+      <c r="K102" s="272">
         <v>84.304195554284902</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="15" customHeight="1">
+      <c r="L102" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M102" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" customHeight="1">
       <c r="A103" s="227" t="s">
         <v>763</v>
       </c>
       <c r="B103" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C103" s="233" t="s">
+      <c r="C103" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D103" s="227" t="s">
@@ -51232,19 +51497,24 @@
       <c r="J103" s="226" t="s">
         <v>765</v>
       </c>
-      <c r="K103" s="226"/>
-      <c r="L103" s="278">
+      <c r="K103" s="272">
         <v>40.190122221428098</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1">
+      <c r="L103" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M103" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15" customHeight="1">
       <c r="A104" s="227" t="s">
         <v>768</v>
       </c>
       <c r="B104" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="233" t="s">
+      <c r="C104" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D104" s="227" t="s">
@@ -51266,19 +51536,24 @@
         <v>727</v>
       </c>
       <c r="J104" s="226"/>
-      <c r="K104" s="226"/>
-      <c r="L104" s="278">
+      <c r="K104" s="272">
         <v>87.484811664641597</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="15" customHeight="1">
+      <c r="L104" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M104" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15" customHeight="1">
       <c r="A105" s="227" t="s">
         <v>770</v>
       </c>
       <c r="B105" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C105" s="233" t="s">
+      <c r="C105" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D105" s="227" t="s">
@@ -51300,19 +51575,24 @@
         <v>727</v>
       </c>
       <c r="J105" s="226"/>
-      <c r="K105" s="226"/>
-      <c r="L105" s="278">
+      <c r="K105" s="272">
         <v>74.426416982345799</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1">
+      <c r="L105" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M105" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15" customHeight="1">
       <c r="A106" s="227" t="s">
         <v>778</v>
       </c>
       <c r="B106" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C106" s="233" t="s">
+      <c r="C106" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D106" s="227" t="s">
@@ -51334,19 +51614,24 @@
         <v>278</v>
       </c>
       <c r="J106" s="226"/>
-      <c r="K106" s="226"/>
-      <c r="L106" s="278">
+      <c r="K106" s="272">
         <v>87.835036809377499</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="15" customHeight="1">
+      <c r="L106" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M106" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15" customHeight="1">
       <c r="A107" s="227" t="s">
         <v>780</v>
       </c>
       <c r="B107" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="233" t="s">
+      <c r="C107" s="232" t="s">
         <v>120</v>
       </c>
       <c r="D107" s="227" t="s">
@@ -51368,16 +51653,21 @@
         <v>278</v>
       </c>
       <c r="J107" s="226"/>
-      <c r="K107" s="226"/>
-      <c r="L107" s="278">
+      <c r="K107" s="272">
         <v>70.109356014580797</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="15" customHeight="1">
-      <c r="A108" s="247" t="s">
+      <c r="L107" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M107" s="274" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15" customHeight="1">
+      <c r="A108" s="244" t="s">
         <v>791</v>
       </c>
-      <c r="B108" s="247" t="s">
+      <c r="B108" s="244" t="s">
         <v>120</v>
       </c>
       <c r="C108" s="226" t="s">
@@ -51398,23 +51688,28 @@
       <c r="H108" s="226" t="s">
         <v>792</v>
       </c>
-      <c r="I108" s="226"/>
-      <c r="J108" s="226" t="s">
+      <c r="I108" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K108" s="226"/>
-      <c r="L108" s="278">
+      <c r="J108" s="226"/>
+      <c r="K108" s="272">
         <v>72.889714816667905</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="15" customHeight="1">
-      <c r="A109" s="247" t="s">
+      <c r="L108" s="274" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M108" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15" customHeight="1">
+      <c r="A109" s="244" t="s">
         <v>798</v>
       </c>
-      <c r="B109" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C109" s="240" t="s">
+      <c r="B109" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D109" s="227" t="s">
@@ -51435,22 +51730,25 @@
       <c r="I109" s="226" t="s">
         <v>800</v>
       </c>
-      <c r="J109" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K109" s="240"/>
-      <c r="L109" s="278">
+      <c r="J109" s="237"/>
+      <c r="K109" s="272">
         <v>83.446501322278607</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="15" customHeight="1">
-      <c r="A110" s="247" t="s">
+      <c r="L109" s="274" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M109" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15" customHeight="1">
+      <c r="A110" s="244" t="s">
         <v>802</v>
       </c>
-      <c r="B110" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C110" s="240" t="s">
+      <c r="B110" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D110" s="227" t="s">
@@ -51468,23 +51766,25 @@
       <c r="H110" s="226" t="s">
         <v>803</v>
       </c>
-      <c r="I110" s="239"/>
-      <c r="J110" s="226" t="s">
+      <c r="I110" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="K110" s="240"/>
-      <c r="L110" s="278">
+      <c r="J110" s="237"/>
+      <c r="K110" s="272">
         <v>83.267815023943996</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="15" customHeight="1">
-      <c r="A111" s="247" t="s">
+      <c r="M110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15" customHeight="1">
+      <c r="A111" s="244" t="s">
         <v>805</v>
       </c>
-      <c r="B111" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="240" t="s">
+      <c r="B111" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D111" s="227" t="s">
@@ -51502,23 +51802,25 @@
       <c r="H111" s="226" t="s">
         <v>806</v>
       </c>
-      <c r="I111" s="239"/>
-      <c r="J111" s="226" t="s">
+      <c r="I111" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K111" s="240"/>
-      <c r="L111" s="278">
+      <c r="J111" s="237"/>
+      <c r="K111" s="272">
         <v>82.545922378672003</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="15" customHeight="1">
-      <c r="A112" s="247" t="s">
+      <c r="M111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15" customHeight="1">
+      <c r="A112" s="244" t="s">
         <v>809</v>
       </c>
-      <c r="B112" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="240" t="s">
+      <c r="B112" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D112" s="227" t="s">
@@ -51536,25 +51838,27 @@
       <c r="H112" s="226" t="s">
         <v>810</v>
       </c>
-      <c r="I112" s="239"/>
-      <c r="J112" s="226" t="s">
+      <c r="I112" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="K112" s="240" t="s">
+      <c r="J112" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L112" s="278">
+      <c r="K112" s="272">
         <v>34.993924665856603</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="15" customHeight="1">
-      <c r="A113" s="247" t="s">
+      <c r="M112" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15" customHeight="1">
+      <c r="A113" s="244" t="s">
         <v>811</v>
       </c>
-      <c r="B113" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113" s="240" t="s">
+      <c r="B113" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D113" s="227" t="s">
@@ -51572,25 +51876,30 @@
       <c r="H113" s="226" t="s">
         <v>812</v>
       </c>
-      <c r="I113" s="239"/>
-      <c r="J113" s="226" t="s">
+      <c r="I113" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="K113" s="240" t="s">
+      <c r="J113" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L113" s="278">
+      <c r="K113" s="272">
         <v>38.925023229218802</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="15" customHeight="1">
-      <c r="A114" s="247" t="s">
+      <c r="L113" s="274" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15" customHeight="1">
+      <c r="A114" s="244" t="s">
         <v>813</v>
       </c>
-      <c r="B114" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" s="240" t="s">
+      <c r="B114" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D114" s="227" t="s">
@@ -51608,25 +51917,30 @@
       <c r="H114" s="226" t="s">
         <v>814</v>
       </c>
-      <c r="I114" s="239"/>
-      <c r="J114" s="226" t="s">
+      <c r="I114" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K114" s="240" t="s">
+      <c r="J114" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L114" s="278">
+      <c r="K114" s="272">
         <v>40.861982703166298</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="15" customHeight="1">
-      <c r="A115" s="247" t="s">
+      <c r="L114" s="274" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15" customHeight="1">
+      <c r="A115" s="244" t="s">
         <v>815</v>
       </c>
-      <c r="B115" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C115" s="240" t="s">
+      <c r="B115" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D115" s="227" t="s">
@@ -51644,25 +51958,27 @@
       <c r="H115" s="226" t="s">
         <v>816</v>
       </c>
-      <c r="I115" s="239"/>
+      <c r="I115" s="226" t="s">
+        <v>54</v>
+      </c>
       <c r="J115" s="226" t="s">
-        <v>54</v>
-      </c>
-      <c r="K115" s="226" t="s">
         <v>818</v>
       </c>
-      <c r="L115" s="278">
+      <c r="K115" s="272">
         <v>67.564863126295506</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="15" customHeight="1">
-      <c r="A116" s="247" t="s">
+      <c r="M115" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15" customHeight="1">
+      <c r="A116" s="244" t="s">
         <v>829</v>
       </c>
-      <c r="B116" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C116" s="240" t="s">
+      <c r="B116" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D116" s="227" t="s">
@@ -51680,25 +51996,30 @@
       <c r="H116" s="226" t="s">
         <v>830</v>
       </c>
-      <c r="I116" s="239"/>
+      <c r="I116" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J116" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K116" s="226" t="s">
         <v>818</v>
       </c>
-      <c r="L116" s="278">
+      <c r="K116" s="272">
         <v>65.363447930812697</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="15" customHeight="1">
-      <c r="A117" s="247" t="s">
+      <c r="L116" s="274" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15" customHeight="1">
+      <c r="A117" s="244" t="s">
         <v>832</v>
       </c>
-      <c r="B117" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" s="240" t="s">
+      <c r="B117" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D117" s="227" t="s">
@@ -51716,25 +52037,27 @@
       <c r="H117" s="226" t="s">
         <v>833</v>
       </c>
-      <c r="I117" s="226"/>
+      <c r="I117" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J117" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K117" s="226" t="s">
         <v>818</v>
       </c>
-      <c r="L117" s="278">
+      <c r="K117" s="272">
         <v>67.271817597026697</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="15" customHeight="1">
-      <c r="A118" s="247" t="s">
+      <c r="M117" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15" customHeight="1">
+      <c r="A118" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="B118" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C118" s="240" t="s">
+      <c r="B118" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D118" s="227" t="s">
@@ -51752,25 +52075,27 @@
       <c r="H118" s="226" t="s">
         <v>836</v>
       </c>
-      <c r="I118" s="226"/>
+      <c r="I118" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J118" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K118" s="226" t="s">
         <v>838</v>
       </c>
-      <c r="L118" s="278">
+      <c r="K118" s="272">
         <v>36.687870774068998</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="15" customHeight="1">
-      <c r="A119" s="247" t="s">
+      <c r="M118" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15" customHeight="1">
+      <c r="A119" s="244" t="s">
         <v>839</v>
       </c>
-      <c r="B119" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119" s="240" t="s">
+      <c r="B119" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="227" t="s">
@@ -51788,25 +52113,30 @@
       <c r="H119" s="226" t="s">
         <v>840</v>
       </c>
-      <c r="I119" s="239"/>
+      <c r="I119" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J119" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K119" s="226" t="s">
         <v>818</v>
       </c>
-      <c r="L119" s="278">
+      <c r="K119" s="272">
         <v>99.9499678364663</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="15" customHeight="1">
-      <c r="A120" s="247" t="s">
+      <c r="L119" s="279" t="s">
+        <v>2839</v>
+      </c>
+      <c r="M119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15" customHeight="1">
+      <c r="A120" s="244" t="s">
         <v>842</v>
       </c>
-      <c r="B120" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" s="240" t="s">
+      <c r="B120" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D120" s="227" t="s">
@@ -51824,25 +52154,27 @@
       <c r="H120" s="226" t="s">
         <v>843</v>
       </c>
-      <c r="I120" s="239"/>
+      <c r="I120" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J120" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K120" s="226" t="s">
         <v>845</v>
       </c>
-      <c r="L120" s="278">
+      <c r="K120" s="272">
         <v>98.920734758058799</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="15" customHeight="1">
-      <c r="A121" s="247" t="s">
+      <c r="M120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15" customHeight="1">
+      <c r="A121" s="244" t="s">
         <v>846</v>
       </c>
-      <c r="B121" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" s="240" t="s">
+      <c r="B121" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D121" s="227" t="s">
@@ -51860,25 +52192,27 @@
       <c r="H121" s="226" t="s">
         <v>847</v>
       </c>
-      <c r="I121" s="239"/>
+      <c r="I121" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J121" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K121" s="226" t="s">
         <v>849</v>
       </c>
-      <c r="L121" s="278">
+      <c r="K121" s="272">
         <v>44.3999714101923</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="15" customHeight="1">
-      <c r="A122" s="247" t="s">
+      <c r="M121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1">
+      <c r="A122" s="244" t="s">
         <v>850</v>
       </c>
-      <c r="B122" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C122" s="240" t="s">
+      <c r="B122" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D122" s="227" t="s">
@@ -51896,25 +52230,30 @@
       <c r="H122" s="226" t="s">
         <v>851</v>
       </c>
-      <c r="I122" s="239"/>
+      <c r="I122" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J122" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K122" s="226" t="s">
         <v>720</v>
       </c>
-      <c r="L122" s="278">
+      <c r="K122" s="272">
         <v>52.026302623114901</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="15" customHeight="1">
-      <c r="A123" s="247" t="s">
+      <c r="L122" s="274" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M122" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15" customHeight="1">
+      <c r="A123" s="244" t="s">
         <v>852</v>
       </c>
-      <c r="B123" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C123" s="240" t="s">
+      <c r="B123" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D123" s="227" t="s">
@@ -51932,25 +52271,27 @@
       <c r="H123" s="226" t="s">
         <v>853</v>
       </c>
-      <c r="I123" s="239"/>
+      <c r="I123" s="226" t="s">
+        <v>54</v>
+      </c>
       <c r="J123" s="226" t="s">
-        <v>54</v>
-      </c>
-      <c r="K123" s="226" t="s">
         <v>720</v>
       </c>
-      <c r="L123" s="278">
+      <c r="K123" s="272">
         <v>40.697591308698399</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="15" customHeight="1">
-      <c r="A124" s="247" t="s">
+      <c r="M123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15" customHeight="1">
+      <c r="A124" s="244" t="s">
         <v>854</v>
       </c>
-      <c r="B124" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C124" s="240" t="s">
+      <c r="B124" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D124" s="227" t="s">
@@ -51968,25 +52309,27 @@
       <c r="H124" s="226" t="s">
         <v>855</v>
       </c>
-      <c r="I124" s="239"/>
+      <c r="I124" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J124" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K124" s="226" t="s">
         <v>720</v>
       </c>
-      <c r="L124" s="278">
+      <c r="K124" s="272">
         <v>51.690372382245698</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="15" customHeight="1">
-      <c r="A125" s="247" t="s">
+      <c r="M124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15" customHeight="1">
+      <c r="A125" s="244" t="s">
         <v>856</v>
       </c>
-      <c r="B125" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C125" s="240" t="s">
+      <c r="B125" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D125" s="227" t="s">
@@ -52004,25 +52347,27 @@
       <c r="H125" s="226" t="s">
         <v>857</v>
       </c>
-      <c r="I125" s="239"/>
+      <c r="I125" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J125" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K125" s="226" t="s">
         <v>859</v>
       </c>
-      <c r="L125" s="278">
+      <c r="K125" s="272">
         <v>63.476520620398801</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="15" customHeight="1">
-      <c r="A126" s="247" t="s">
+      <c r="M125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15" customHeight="1">
+      <c r="A126" s="244" t="s">
         <v>860</v>
       </c>
-      <c r="B126" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C126" s="240" t="s">
+      <c r="B126" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C126" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D126" s="227" t="s">
@@ -52040,25 +52385,27 @@
       <c r="H126" s="226" t="s">
         <v>861</v>
       </c>
-      <c r="I126" s="239"/>
+      <c r="I126" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J126" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K126" s="226" t="s">
         <v>863</v>
       </c>
-      <c r="L126" s="278">
+      <c r="K126" s="272">
         <v>40.7976556357658</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="15" customHeight="1">
-      <c r="A127" s="247" t="s">
+      <c r="M126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15" customHeight="1">
+      <c r="A127" s="244" t="s">
         <v>864</v>
       </c>
-      <c r="B127" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C127" s="240" t="s">
+      <c r="B127" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D127" s="227" t="s">
@@ -52076,25 +52423,27 @@
       <c r="H127" s="226" t="s">
         <v>865</v>
       </c>
-      <c r="I127" s="239"/>
+      <c r="I127" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J127" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K127" s="226" t="s">
         <v>867</v>
       </c>
-      <c r="L127" s="278">
+      <c r="K127" s="272">
         <v>38.3675219784147</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="15" customHeight="1">
-      <c r="A128" s="247" t="s">
+      <c r="M127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15" customHeight="1">
+      <c r="A128" s="244" t="s">
         <v>870</v>
       </c>
-      <c r="B128" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C128" s="240" t="s">
+      <c r="B128" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D128" s="227" t="s">
@@ -52112,25 +52461,27 @@
       <c r="H128" s="226" t="s">
         <v>871</v>
       </c>
-      <c r="I128" s="239"/>
+      <c r="I128" s="226" t="s">
+        <v>873</v>
+      </c>
       <c r="J128" s="226" t="s">
-        <v>873</v>
-      </c>
-      <c r="K128" s="226" t="s">
         <v>720</v>
       </c>
-      <c r="L128" s="278">
+      <c r="K128" s="272">
         <v>31.963405046101101</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1">
-      <c r="A129" s="247" t="s">
+      <c r="M128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15" customHeight="1">
+      <c r="A129" s="244" t="s">
         <v>874</v>
       </c>
-      <c r="B129" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C129" s="240" t="s">
+      <c r="B129" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C129" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D129" s="227" t="s">
@@ -52148,25 +52499,27 @@
       <c r="H129" s="226" t="s">
         <v>875</v>
       </c>
-      <c r="I129" s="239"/>
+      <c r="I129" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J129" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K129" s="226" t="s">
         <v>720</v>
       </c>
-      <c r="L129" s="278">
+      <c r="K129" s="272">
         <v>97.405474948180995</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="15" customHeight="1">
-      <c r="A130" s="247" t="s">
+      <c r="M129" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15" customHeight="1">
+      <c r="A130" s="244" t="s">
         <v>879</v>
       </c>
-      <c r="B130" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C130" s="240" t="s">
+      <c r="B130" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D130" s="227" t="s">
@@ -52184,25 +52537,27 @@
       <c r="H130" s="226" t="s">
         <v>880</v>
       </c>
-      <c r="I130" s="239"/>
+      <c r="I130" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J130" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K130" s="226" t="s">
         <v>720</v>
       </c>
-      <c r="L130" s="278">
+      <c r="K130" s="272">
         <v>92.9311700378815</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="15" customHeight="1">
-      <c r="A131" s="247" t="s">
+      <c r="M130" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15" customHeight="1">
+      <c r="A131" s="244" t="s">
         <v>881</v>
       </c>
-      <c r="B131" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C131" s="240" t="s">
+      <c r="B131" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D131" s="227" t="s">
@@ -52220,25 +52575,27 @@
       <c r="H131" s="226" t="s">
         <v>882</v>
       </c>
-      <c r="I131" s="239"/>
+      <c r="I131" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J131" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K131" s="226" t="s">
         <v>884</v>
       </c>
-      <c r="L131" s="278">
+      <c r="K131" s="272">
         <v>100</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1">
-      <c r="A132" s="247" t="s">
+      <c r="M131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15" customHeight="1">
+      <c r="A132" s="244" t="s">
         <v>885</v>
       </c>
-      <c r="B132" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C132" s="240" t="s">
+      <c r="B132" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D132" s="227" t="s">
@@ -52259,22 +52616,24 @@
       <c r="I132" s="226" t="s">
         <v>887</v>
       </c>
-      <c r="J132" s="226"/>
-      <c r="K132" s="226" t="s">
+      <c r="J132" s="226" t="s">
         <v>889</v>
       </c>
-      <c r="L132" s="278">
+      <c r="K132" s="272">
         <v>94.503609463226397</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1">
-      <c r="A133" s="247" t="s">
+      <c r="M132" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15" customHeight="1">
+      <c r="A133" s="244" t="s">
         <v>890</v>
       </c>
-      <c r="B133" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C133" s="240" t="s">
+      <c r="B133" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D133" s="227" t="s">
@@ -52292,25 +52651,27 @@
       <c r="H133" s="226" t="s">
         <v>891</v>
       </c>
-      <c r="I133" s="239"/>
+      <c r="I133" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J133" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K133" s="226" t="s">
         <v>893</v>
       </c>
-      <c r="L133" s="278">
+      <c r="K133" s="272">
         <v>91.673218497605603</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="15" customHeight="1">
-      <c r="A134" s="247" t="s">
+      <c r="M133" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="15" customHeight="1">
+      <c r="A134" s="244" t="s">
         <v>894</v>
       </c>
-      <c r="B134" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C134" s="240" t="s">
+      <c r="B134" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D134" s="227" t="s">
@@ -52328,25 +52689,27 @@
       <c r="H134" s="226" t="s">
         <v>895</v>
       </c>
-      <c r="I134" s="239"/>
+      <c r="I134" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J134" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K134" s="226" t="s">
         <v>897</v>
       </c>
-      <c r="L134" s="278">
+      <c r="K134" s="272">
         <v>98.877850046458406</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1">
-      <c r="A135" s="247" t="s">
+      <c r="M134" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="15" customHeight="1">
+      <c r="A135" s="244" t="s">
         <v>898</v>
       </c>
-      <c r="B135" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C135" s="240" t="s">
+      <c r="B135" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D135" s="227" t="s">
@@ -52364,25 +52727,27 @@
       <c r="H135" s="226" t="s">
         <v>899</v>
       </c>
-      <c r="I135" s="239"/>
+      <c r="I135" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J135" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K135" s="226" t="s">
         <v>884</v>
       </c>
-      <c r="L135" s="278">
+      <c r="K135" s="272">
         <v>100</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1">
-      <c r="A136" s="247" t="s">
+      <c r="M135" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="15" customHeight="1">
+      <c r="A136" s="244" t="s">
         <v>901</v>
       </c>
-      <c r="B136" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C136" s="240" t="s">
+      <c r="B136" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D136" s="227" t="s">
@@ -52400,25 +52765,27 @@
       <c r="H136" s="226" t="s">
         <v>902</v>
       </c>
-      <c r="I136" s="239"/>
+      <c r="I136" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J136" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K136" s="226" t="s">
         <v>904</v>
       </c>
-      <c r="L136" s="278">
+      <c r="K136" s="272">
         <v>97.920091487384795</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1">
-      <c r="A137" s="247" t="s">
+      <c r="M136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="15" customHeight="1">
+      <c r="A137" s="244" t="s">
         <v>905</v>
       </c>
-      <c r="B137" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C137" s="240" t="s">
+      <c r="B137" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C137" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D137" s="227" t="s">
@@ -52436,25 +52803,27 @@
       <c r="H137" s="226" t="s">
         <v>906</v>
       </c>
-      <c r="I137" s="239"/>
+      <c r="I137" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J137" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K137" s="226" t="s">
         <v>908</v>
       </c>
-      <c r="L137" s="278">
+      <c r="K137" s="272">
         <v>96.762204274176298</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="15" customHeight="1">
-      <c r="A138" s="247" t="s">
+      <c r="M137" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="15" customHeight="1">
+      <c r="A138" s="244" t="s">
         <v>909</v>
       </c>
-      <c r="B138" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C138" s="240" t="s">
+      <c r="B138" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C138" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D138" s="227" t="s">
@@ -52472,25 +52841,27 @@
       <c r="H138" s="226" t="s">
         <v>910</v>
       </c>
-      <c r="I138" s="239"/>
+      <c r="I138" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J138" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K138" s="226" t="s">
         <v>912</v>
       </c>
-      <c r="L138" s="278">
+      <c r="K138" s="272">
         <v>96.990922736044595</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="15" customHeight="1">
-      <c r="A139" s="247" t="s">
+      <c r="M138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="15" customHeight="1">
+      <c r="A139" s="244" t="s">
         <v>913</v>
       </c>
-      <c r="B139" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C139" s="240" t="s">
+      <c r="B139" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D139" s="227" t="s">
@@ -52508,23 +52879,28 @@
       <c r="H139" s="226" t="s">
         <v>914</v>
       </c>
-      <c r="I139" s="239"/>
-      <c r="J139" s="226" t="s">
+      <c r="I139" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="K139" s="226"/>
-      <c r="L139" s="278">
+      <c r="J139" s="226"/>
+      <c r="K139" s="272">
         <v>83.782431563147796</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1">
-      <c r="A140" s="247" t="s">
+      <c r="L139" s="274" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="15" customHeight="1">
+      <c r="A140" s="244" t="s">
         <v>916</v>
       </c>
-      <c r="B140" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C140" s="240" t="s">
+      <c r="B140" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C140" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D140" s="227" t="s">
@@ -52542,23 +52918,25 @@
       <c r="H140" s="226" t="s">
         <v>917</v>
       </c>
-      <c r="I140" s="239"/>
-      <c r="J140" s="226" t="s">
+      <c r="I140" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K140" s="226"/>
-      <c r="L140" s="278">
+      <c r="J140" s="226"/>
+      <c r="K140" s="272">
         <v>82.3100564648703</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1">
-      <c r="A141" s="247" t="s">
+      <c r="M140" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="15" customHeight="1">
+      <c r="A141" s="244" t="s">
         <v>918</v>
       </c>
-      <c r="B141" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C141" s="240" t="s">
+      <c r="B141" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D141" s="227" t="s">
@@ -52576,28 +52954,33 @@
       <c r="H141" s="226" t="s">
         <v>919</v>
       </c>
-      <c r="I141" s="239"/>
+      <c r="I141" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J141" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K141" s="226" t="s">
         <v>920</v>
       </c>
-      <c r="L141" s="278">
+      <c r="K141" s="272">
         <v>16.1460939175184</v>
       </c>
-      <c r="M141" s="281" t="s">
+      <c r="L141" s="275" t="s">
         <v>2805</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1">
-      <c r="A142" s="247" t="s">
+      <c r="M141" t="s">
+        <v>124</v>
+      </c>
+      <c r="N141" s="274" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15" customHeight="1">
+      <c r="A142" s="244" t="s">
         <v>921</v>
       </c>
-      <c r="B142" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C142" s="240" t="s">
+      <c r="B142" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D142" s="227" t="s">
@@ -52615,23 +52998,25 @@
       <c r="H142" s="226" t="s">
         <v>922</v>
       </c>
-      <c r="I142" s="239"/>
-      <c r="J142" s="226" t="s">
+      <c r="I142" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K142" s="226"/>
-      <c r="L142" s="278">
+      <c r="J142" s="226"/>
+      <c r="K142" s="272">
         <v>55.814452147809298</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1">
-      <c r="A143" s="247" t="s">
+      <c r="M142" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="15" customHeight="1">
+      <c r="A143" s="244" t="s">
         <v>924</v>
       </c>
-      <c r="B143" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C143" s="240" t="s">
+      <c r="B143" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C143" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D143" s="227" t="s">
@@ -52649,23 +53034,28 @@
       <c r="H143" s="226" t="s">
         <v>925</v>
       </c>
-      <c r="I143" s="239"/>
-      <c r="J143" s="226" t="s">
+      <c r="I143" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K143" s="226"/>
-      <c r="L143" s="278">
+      <c r="J143" s="226"/>
+      <c r="K143" s="272">
         <v>67.521978414695198</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1">
-      <c r="A144" s="247" t="s">
+      <c r="L143" s="274" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M143" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15" customHeight="1">
+      <c r="A144" s="244" t="s">
         <v>931</v>
       </c>
-      <c r="B144" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C144" s="240" t="s">
+      <c r="B144" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C144" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D144" s="227" t="s">
@@ -52683,25 +53073,27 @@
       <c r="H144" s="226" t="s">
         <v>932</v>
       </c>
-      <c r="I144" s="239"/>
+      <c r="I144" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J144" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K144" s="226" t="s">
         <v>930</v>
       </c>
-      <c r="L144" s="278">
+      <c r="K144" s="272">
         <v>69.687656350511006</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="15" customHeight="1">
-      <c r="A145" s="247" t="s">
+      <c r="M144" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15" customHeight="1">
+      <c r="A145" s="244" t="s">
         <v>934</v>
       </c>
-      <c r="B145" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C145" s="240" t="s">
+      <c r="B145" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D145" s="227" t="s">
@@ -52719,25 +53111,27 @@
       <c r="H145" s="226" t="s">
         <v>935</v>
       </c>
-      <c r="I145" s="239"/>
+      <c r="I145" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J145" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K145" s="226" t="s">
         <v>930</v>
       </c>
-      <c r="L145" s="278">
+      <c r="K145" s="272">
         <v>74.476449145879499</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="15" customHeight="1">
-      <c r="A146" s="247" t="s">
+      <c r="M145" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15" customHeight="1">
+      <c r="A146" s="244" t="s">
         <v>938</v>
       </c>
-      <c r="B146" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C146" s="240" t="s">
+      <c r="B146" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C146" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D146" s="227" t="s">
@@ -52755,25 +53149,27 @@
       <c r="H146" s="226" t="s">
         <v>939</v>
       </c>
-      <c r="I146" s="239"/>
+      <c r="I146" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J146" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K146" s="226" t="s">
         <v>930</v>
       </c>
-      <c r="L146" s="278">
+      <c r="K146" s="272">
         <v>69.666213994710901</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="15" customHeight="1">
-      <c r="A147" s="247" t="s">
+      <c r="M146" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15" customHeight="1">
+      <c r="A147" s="244" t="s">
         <v>941</v>
       </c>
-      <c r="B147" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C147" s="240" t="s">
+      <c r="B147" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C147" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D147" s="227" t="s">
@@ -52791,25 +53187,27 @@
       <c r="H147" s="226" t="s">
         <v>942</v>
       </c>
-      <c r="I147" s="239"/>
+      <c r="I147" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J147" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K147" s="226" t="s">
         <v>930</v>
       </c>
-      <c r="L147" s="278">
+      <c r="K147" s="272">
         <v>94.053319991423095</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="15" customHeight="1">
-      <c r="A148" s="247" t="s">
+      <c r="M147" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15" customHeight="1">
+      <c r="A148" s="244" t="s">
         <v>945</v>
       </c>
-      <c r="B148" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C148" s="240" t="s">
+      <c r="B148" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C148" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D148" s="227" t="s">
@@ -52827,25 +53225,27 @@
       <c r="H148" s="226" t="s">
         <v>946</v>
       </c>
-      <c r="I148" s="226"/>
+      <c r="I148" s="226" t="s">
+        <v>74</v>
+      </c>
       <c r="J148" s="226" t="s">
-        <v>74</v>
-      </c>
-      <c r="K148" s="226" t="s">
         <v>930</v>
       </c>
-      <c r="L148" s="278">
+      <c r="K148" s="272">
         <v>99.320992066328401</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="15" customHeight="1">
-      <c r="A149" s="247" t="s">
+      <c r="M148" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15" customHeight="1">
+      <c r="A149" s="244" t="s">
         <v>947</v>
       </c>
-      <c r="B149" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C149" s="240" t="s">
+      <c r="B149" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C149" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D149" s="227" t="s">
@@ -52863,25 +53263,27 @@
       <c r="H149" s="226" t="s">
         <v>948</v>
       </c>
-      <c r="I149" s="239"/>
+      <c r="I149" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J149" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K149" s="226" t="s">
         <v>930</v>
       </c>
-      <c r="L149" s="278">
+      <c r="K149" s="272">
         <v>64.019726967336197</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="15" customHeight="1">
-      <c r="A150" s="247" t="s">
+      <c r="M149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15" customHeight="1">
+      <c r="A150" s="244" t="s">
         <v>949</v>
       </c>
-      <c r="B150" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C150" s="240" t="s">
+      <c r="B150" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C150" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D150" s="227" t="s">
@@ -52899,25 +53301,27 @@
       <c r="H150" s="226" t="s">
         <v>950</v>
       </c>
-      <c r="I150" s="239"/>
+      <c r="I150" s="226" t="s">
+        <v>94</v>
+      </c>
       <c r="J150" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="K150" s="226" t="s">
         <v>930</v>
       </c>
-      <c r="L150" s="278">
+      <c r="K150" s="272">
         <v>99.664069759130896</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="15" customHeight="1">
-      <c r="A151" s="247" t="s">
+      <c r="M150" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15" customHeight="1">
+      <c r="A151" s="244" t="s">
         <v>960</v>
       </c>
-      <c r="B151" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C151" s="240" t="s">
+      <c r="B151" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C151" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D151" s="227" t="s">
@@ -52935,23 +53339,28 @@
       <c r="H151" s="226" t="s">
         <v>961</v>
       </c>
-      <c r="I151" s="239"/>
-      <c r="J151" s="226" t="s">
+      <c r="I151" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K151" s="240"/>
-      <c r="L151" s="278">
+      <c r="J151" s="237"/>
+      <c r="K151" s="272">
         <v>65.220498892145002</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="15" customHeight="1">
-      <c r="A152" s="247" t="s">
+      <c r="L151" s="274" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M151" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15" customHeight="1">
+      <c r="A152" s="244" t="s">
         <v>966</v>
       </c>
-      <c r="B152" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C152" s="240" t="s">
+      <c r="B152" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C152" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D152" s="227" t="s">
@@ -52969,25 +53378,27 @@
       <c r="H152" s="226" t="s">
         <v>967</v>
       </c>
-      <c r="I152" s="239"/>
-      <c r="J152" s="226" t="s">
+      <c r="I152" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="K152" s="240" t="s">
+      <c r="J152" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L152" s="278">
+      <c r="K152" s="272">
         <v>100</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="15" customHeight="1">
-      <c r="A153" s="247" t="s">
+      <c r="M152" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15" customHeight="1">
+      <c r="A153" s="244" t="s">
         <v>969</v>
       </c>
-      <c r="B153" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C153" s="240" t="s">
+      <c r="B153" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D153" s="227" t="s">
@@ -53005,25 +53416,27 @@
       <c r="H153" s="226" t="s">
         <v>970</v>
       </c>
-      <c r="I153" s="239"/>
-      <c r="J153" s="226" t="s">
+      <c r="I153" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K153" s="240" t="s">
+      <c r="J153" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L153" s="278">
+      <c r="K153" s="272">
         <v>88.242441569580507</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="15" customHeight="1">
-      <c r="A154" s="247" t="s">
+      <c r="M153" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15" customHeight="1">
+      <c r="A154" s="244" t="s">
         <v>973</v>
       </c>
-      <c r="B154" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C154" s="240" t="s">
+      <c r="B154" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C154" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D154" s="227" t="s">
@@ -53041,25 +53454,27 @@
       <c r="H154" s="226" t="s">
         <v>974</v>
       </c>
-      <c r="I154" s="239"/>
-      <c r="J154" s="226" t="s">
+      <c r="I154" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="K154" s="240" t="s">
+      <c r="J154" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L154" s="278">
+      <c r="K154" s="272">
         <v>100</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="15" customHeight="1">
-      <c r="A155" s="247" t="s">
+      <c r="M154" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15" customHeight="1">
+      <c r="A155" s="244" t="s">
         <v>976</v>
       </c>
-      <c r="B155" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C155" s="240" t="s">
+      <c r="B155" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C155" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D155" s="227" t="s">
@@ -53077,25 +53492,27 @@
       <c r="H155" s="226" t="s">
         <v>977</v>
       </c>
-      <c r="I155" s="239"/>
-      <c r="J155" s="226" t="s">
+      <c r="I155" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K155" s="240" t="s">
+      <c r="J155" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L155" s="278">
+      <c r="K155" s="272">
         <v>97.841469516117499</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="15" customHeight="1">
-      <c r="A156" s="247" t="s">
+      <c r="M155" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15" customHeight="1">
+      <c r="A156" s="244" t="s">
         <v>980</v>
       </c>
-      <c r="B156" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C156" s="240" t="s">
+      <c r="B156" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C156" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D156" s="227" t="s">
@@ -53113,25 +53530,27 @@
       <c r="H156" s="226" t="s">
         <v>981</v>
       </c>
-      <c r="I156" s="239"/>
-      <c r="J156" s="226" t="s">
+      <c r="I156" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="K156" s="240" t="s">
+      <c r="J156" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L156" s="278">
+      <c r="K156" s="272">
         <v>92.366521335144</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="15" customHeight="1">
-      <c r="A157" s="247" t="s">
+      <c r="M156" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15" customHeight="1">
+      <c r="A157" s="244" t="s">
         <v>983</v>
       </c>
-      <c r="B157" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="C157" s="240" t="s">
+      <c r="B157" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" s="237" t="s">
         <v>120</v>
       </c>
       <c r="D157" s="227" t="s">
@@ -53149,2684 +53568,2911 @@
       <c r="H157" s="226" t="s">
         <v>984</v>
       </c>
-      <c r="I157" s="239"/>
-      <c r="J157" s="226" t="s">
+      <c r="I157" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="K157" s="240" t="s">
+      <c r="J157" s="237" t="s">
         <v>720</v>
       </c>
-      <c r="L157" s="278">
+      <c r="K157" s="272">
         <v>63.812450861267997</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="15" customHeight="1">
-      <c r="A158" s="262" t="s">
+      <c r="M157" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15" customHeight="1">
+      <c r="A158" s="258" t="s">
         <v>1663</v>
       </c>
-      <c r="B158" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C158" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D158" s="248"/>
+      <c r="B158" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C158" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D158" s="245"/>
       <c r="E158" s="227">
         <v>157</v>
       </c>
-      <c r="F158" s="250" t="s">
+      <c r="F158" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G158" s="262" t="s">
+      <c r="G158" s="258" t="s">
         <v>1661</v>
       </c>
-      <c r="H158" s="250" t="s">
+      <c r="H158" s="247" t="s">
         <v>1662</v>
       </c>
-      <c r="I158" s="250" t="s">
+      <c r="I158" s="247" t="s">
         <v>126</v>
       </c>
-      <c r="J158" s="249"/>
-      <c r="K158" s="249"/>
-      <c r="L158" s="278">
+      <c r="J158" s="246"/>
+      <c r="K158" s="272">
         <v>13.4086198270317</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15" customHeight="1">
-      <c r="A159" s="262" t="s">
+    <row r="159" spans="1:13" ht="15" customHeight="1">
+      <c r="A159" s="258" t="s">
         <v>1660</v>
       </c>
-      <c r="B159" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C159" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D159" s="250"/>
+      <c r="B159" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C159" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D159" s="247"/>
       <c r="E159" s="227">
         <v>158</v>
       </c>
-      <c r="F159" s="250" t="s">
+      <c r="F159" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G159" s="262" t="s">
+      <c r="G159" s="258" t="s">
         <v>1661</v>
       </c>
-      <c r="H159" s="250" t="s">
+      <c r="H159" s="247" t="s">
         <v>1659</v>
       </c>
-      <c r="I159" s="250" t="s">
+      <c r="I159" s="247" t="s">
         <v>130</v>
       </c>
-      <c r="J159" s="249"/>
-      <c r="K159" s="249"/>
-      <c r="L159" s="278">
+      <c r="J159" s="246"/>
+      <c r="K159" s="272">
         <v>13.4086198270317</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15" customHeight="1">
-      <c r="A160" s="262" t="s">
+    <row r="160" spans="1:13" ht="15" customHeight="1">
+      <c r="A160" s="258" t="s">
         <v>1658</v>
       </c>
-      <c r="B160" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C160" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D160" s="250"/>
+      <c r="B160" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C160" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D160" s="247"/>
       <c r="E160" s="227">
         <v>159</v>
       </c>
-      <c r="F160" s="250" t="s">
+      <c r="F160" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G160" s="262" t="s">
+      <c r="G160" s="258" t="s">
         <v>1643</v>
       </c>
-      <c r="H160" s="250" t="s">
+      <c r="H160" s="247" t="s">
         <v>1657</v>
       </c>
-      <c r="I160" s="250" t="s">
+      <c r="I160" s="247" t="s">
         <v>1656</v>
       </c>
-      <c r="J160" s="250"/>
-      <c r="K160" s="250"/>
-      <c r="L160" s="278">
+      <c r="J160" s="247"/>
+      <c r="K160" s="272">
         <v>7.3189907797870104</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="15" customHeight="1">
-      <c r="A161" s="257" t="s">
+      <c r="A161" s="254" t="s">
         <v>1649</v>
       </c>
-      <c r="B161" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C161" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D161" s="250"/>
+      <c r="B161" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C161" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D161" s="247"/>
       <c r="E161" s="227">
         <v>160</v>
       </c>
-      <c r="F161" s="250" t="s">
+      <c r="F161" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G161" s="262" t="s">
+      <c r="G161" s="258" t="s">
         <v>1643</v>
       </c>
-      <c r="H161" s="251" t="s">
+      <c r="H161" s="248" t="s">
         <v>1648</v>
       </c>
-      <c r="I161" s="252" t="s">
+      <c r="I161" s="249" t="s">
         <v>1647</v>
       </c>
-      <c r="J161" s="250" t="s">
-        <v>151</v>
-      </c>
-      <c r="K161" s="253"/>
-      <c r="L161" s="278">
+      <c r="J161" s="250"/>
+      <c r="K161" s="272">
         <v>87.191766135372802</v>
       </c>
+      <c r="L161" s="274" t="s">
+        <v>2827</v>
+      </c>
+      <c r="M161" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N161" s="274" t="s">
+        <v>2836</v>
+      </c>
     </row>
     <row r="162" spans="1:14" ht="15" customHeight="1">
-      <c r="A162" s="257" t="s">
+      <c r="A162" s="254" t="s">
         <v>1640</v>
       </c>
-      <c r="B162" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C162" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D162" s="274"/>
+      <c r="B162" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C162" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D162" s="269"/>
       <c r="E162" s="227">
         <v>161</v>
       </c>
-      <c r="F162" s="250" t="s">
+      <c r="F162" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G162" s="254" t="s">
+      <c r="G162" s="251" t="s">
         <v>1629</v>
       </c>
-      <c r="H162" s="256" t="s">
+      <c r="H162" s="253" t="s">
         <v>1639</v>
       </c>
-      <c r="I162" s="256" t="s">
+      <c r="I162" s="253" t="s">
         <v>1638</v>
       </c>
-      <c r="J162" s="250"/>
-      <c r="K162" s="250" t="s">
+      <c r="J162" s="247" t="s">
         <v>1637</v>
       </c>
-      <c r="L162" s="278">
+      <c r="K162" s="272">
         <v>92.681009220212999</v>
       </c>
-      <c r="M162" s="280" t="s">
+      <c r="L162" s="274" t="s">
         <v>2806</v>
       </c>
-      <c r="N162" s="280" t="s">
+      <c r="M162" s="274" t="s">
         <v>124</v>
       </c>
+      <c r="N162" s="274" t="s">
+        <v>2831</v>
+      </c>
     </row>
     <row r="163" spans="1:14" ht="15" customHeight="1">
-      <c r="A163" s="257" t="s">
+      <c r="A163" s="254" t="s">
         <v>1042</v>
       </c>
-      <c r="B163" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C163" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D163" s="250"/>
+      <c r="B163" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C163" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D163" s="247"/>
       <c r="E163" s="227">
         <v>162</v>
       </c>
-      <c r="F163" s="250" t="s">
+      <c r="F163" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G163" s="255" t="s">
+      <c r="G163" s="252" t="s">
         <v>1629</v>
       </c>
-      <c r="H163" s="256" t="s">
+      <c r="H163" s="253" t="s">
         <v>1636</v>
       </c>
-      <c r="I163" s="256" t="s">
+      <c r="I163" s="253" t="s">
         <v>1635</v>
       </c>
-      <c r="J163" s="250"/>
-      <c r="K163" s="250"/>
-      <c r="L163" s="278">
+      <c r="J163" s="247"/>
+      <c r="K163" s="272">
         <v>98.449002930455293</v>
       </c>
+      <c r="L163" s="278" t="s">
+        <v>2806</v>
+      </c>
+      <c r="M163" s="278" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="164" spans="1:14" ht="15" customHeight="1">
-      <c r="A164" s="257" t="s">
+      <c r="A164" s="254" t="s">
         <v>1039</v>
       </c>
-      <c r="B164" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C164" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D164" s="250"/>
+      <c r="B164" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C164" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D164" s="247"/>
       <c r="E164" s="227">
         <v>163</v>
       </c>
-      <c r="F164" s="250" t="s">
+      <c r="F164" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G164" s="255" t="s">
+      <c r="G164" s="252" t="s">
         <v>1629</v>
       </c>
-      <c r="H164" s="256" t="s">
+      <c r="H164" s="253" t="s">
         <v>1634</v>
       </c>
-      <c r="I164" s="256" t="s">
+      <c r="I164" s="253" t="s">
         <v>1633</v>
       </c>
-      <c r="J164" s="250"/>
-      <c r="K164" s="250"/>
-      <c r="L164" s="278">
+      <c r="J164" s="247"/>
+      <c r="K164" s="272">
         <v>99.135158316060298</v>
       </c>
+      <c r="L164" s="278" t="s">
+        <v>2806</v>
+      </c>
+      <c r="M164" s="278" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="165" spans="1:14" ht="15" customHeight="1">
-      <c r="A165" s="262" t="s">
+      <c r="A165" s="258" t="s">
         <v>1632</v>
       </c>
-      <c r="B165" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C165" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D165" s="250"/>
+      <c r="B165" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C165" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D165" s="247"/>
       <c r="E165" s="227">
         <v>164</v>
       </c>
-      <c r="F165" s="250" t="s">
+      <c r="F165" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G165" s="255" t="s">
+      <c r="G165" s="252" t="s">
         <v>1629</v>
       </c>
-      <c r="H165" s="256" t="s">
+      <c r="H165" s="253" t="s">
         <v>1631</v>
       </c>
-      <c r="I165" s="256" t="s">
+      <c r="I165" s="253" t="s">
         <v>1630</v>
       </c>
-      <c r="J165" s="250"/>
-      <c r="K165" s="250"/>
-      <c r="L165" s="278">
+      <c r="J165" s="247"/>
+      <c r="K165" s="272">
         <v>99.749839182331499</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="15" customHeight="1">
-      <c r="A166" s="262" t="s">
+      <c r="A166" s="258" t="s">
         <v>1628</v>
       </c>
-      <c r="B166" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C166" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D166" s="250"/>
+      <c r="B166" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D166" s="247"/>
       <c r="E166" s="227">
         <v>165</v>
       </c>
-      <c r="F166" s="250" t="s">
+      <c r="F166" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G166" s="255" t="s">
+      <c r="G166" s="252" t="s">
         <v>1629</v>
       </c>
-      <c r="H166" s="256" t="s">
+      <c r="H166" s="253" t="s">
         <v>1627</v>
       </c>
-      <c r="I166" s="256" t="s">
+      <c r="I166" s="253" t="s">
         <v>1626</v>
       </c>
-      <c r="J166" s="250"/>
-      <c r="K166" s="250"/>
-      <c r="L166" s="278">
+      <c r="J166" s="247"/>
+      <c r="K166" s="272">
         <v>99.635479951397301</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="15" customHeight="1">
-      <c r="A167" s="262" t="s">
+      <c r="A167" s="258" t="s">
         <v>1625</v>
       </c>
-      <c r="B167" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C167" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D167" s="250"/>
+      <c r="B167" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D167" s="247"/>
       <c r="E167" s="227">
         <v>166</v>
       </c>
-      <c r="F167" s="250" t="s">
+      <c r="F167" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G167" s="262" t="s">
+      <c r="G167" s="258" t="s">
         <v>1613</v>
       </c>
-      <c r="H167" s="256" t="s">
+      <c r="H167" s="253" t="s">
         <v>1624</v>
       </c>
-      <c r="I167" s="256" t="s">
+      <c r="I167" s="253" t="s">
         <v>1623</v>
       </c>
-      <c r="J167" s="250"/>
-      <c r="K167" s="250" t="s">
+      <c r="J167" s="247" t="s">
         <v>1622</v>
       </c>
-      <c r="L167" s="278">
+      <c r="K167" s="272">
         <v>97.920091487384795</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="15" customHeight="1">
-      <c r="A168" s="262" t="s">
+      <c r="A168" s="258" t="s">
         <v>1621</v>
       </c>
-      <c r="B168" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C168" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D168" s="250"/>
+      <c r="B168" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D168" s="247"/>
       <c r="E168" s="227">
         <v>167</v>
       </c>
-      <c r="F168" s="250" t="s">
+      <c r="F168" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G168" s="262" t="s">
+      <c r="G168" s="258" t="s">
         <v>1613</v>
       </c>
-      <c r="H168" s="250" t="s">
+      <c r="H168" s="247" t="s">
         <v>1620</v>
       </c>
-      <c r="I168" s="250" t="s">
+      <c r="I168" s="247" t="s">
         <v>1610</v>
       </c>
-      <c r="J168" s="250"/>
-      <c r="K168" s="250"/>
-      <c r="L168" s="278">
+      <c r="J168" s="247"/>
+      <c r="K168" s="272">
         <v>98.827817882924705</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="15" customHeight="1">
-      <c r="A169" s="262" t="s">
+      <c r="A169" s="258" t="s">
         <v>1619</v>
       </c>
-      <c r="B169" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C169" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D169" s="250"/>
+      <c r="B169" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C169" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D169" s="247"/>
       <c r="E169" s="227">
         <v>168</v>
       </c>
-      <c r="F169" s="250" t="s">
+      <c r="F169" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G169" s="262" t="s">
+      <c r="G169" s="258" t="s">
         <v>1613</v>
       </c>
-      <c r="H169" s="250" t="s">
+      <c r="H169" s="247" t="s">
         <v>1618</v>
       </c>
-      <c r="I169" s="250" t="s">
+      <c r="I169" s="247" t="s">
         <v>1617</v>
       </c>
-      <c r="J169" s="250"/>
-      <c r="K169" s="250"/>
-      <c r="L169" s="278">
+      <c r="J169" s="247"/>
+      <c r="K169" s="272">
         <v>99.849903509398899</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="15" customHeight="1">
-      <c r="A170" s="262" t="s">
+      <c r="A170" s="258" t="s">
         <v>1616</v>
       </c>
-      <c r="B170" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C170" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D170" s="250"/>
+      <c r="B170" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D170" s="247"/>
       <c r="E170" s="227">
         <v>169</v>
       </c>
-      <c r="F170" s="250" t="s">
+      <c r="F170" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G170" s="262" t="s">
+      <c r="G170" s="258" t="s">
         <v>1613</v>
       </c>
-      <c r="H170" s="250" t="s">
+      <c r="H170" s="247" t="s">
         <v>1615</v>
       </c>
-      <c r="I170" s="250" t="s">
+      <c r="I170" s="247" t="s">
         <v>1614</v>
       </c>
-      <c r="J170" s="250"/>
-      <c r="K170" s="250"/>
-      <c r="L170" s="278">
+      <c r="J170" s="247"/>
+      <c r="K170" s="272">
         <v>99.978557644199896</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="15" customHeight="1">
-      <c r="A171" s="262" t="s">
+      <c r="A171" s="258" t="s">
         <v>1612</v>
       </c>
-      <c r="B171" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C171" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D171" s="250"/>
+      <c r="B171" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D171" s="247"/>
       <c r="E171" s="227">
         <v>170</v>
       </c>
-      <c r="F171" s="250" t="s">
+      <c r="F171" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G171" s="262" t="s">
+      <c r="G171" s="258" t="s">
         <v>1613</v>
       </c>
-      <c r="H171" s="250" t="s">
+      <c r="H171" s="247" t="s">
         <v>1611</v>
       </c>
-      <c r="I171" s="250" t="s">
+      <c r="I171" s="247" t="s">
         <v>1610</v>
       </c>
-      <c r="J171" s="250"/>
-      <c r="K171" s="250"/>
-      <c r="L171" s="278">
+      <c r="J171" s="247"/>
+      <c r="K171" s="272">
         <v>98.005860910585398</v>
       </c>
+      <c r="L171" s="274" t="s">
+        <v>2837</v>
+      </c>
+      <c r="M171" s="274" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="172" spans="1:14" ht="15" customHeight="1">
-      <c r="A172" s="257" t="s">
+      <c r="A172" s="254" t="s">
         <v>1522</v>
       </c>
-      <c r="B172" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C172" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="D172" s="256"/>
+      <c r="B172" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" s="253" t="s">
+        <v>120</v>
+      </c>
+      <c r="D172" s="253"/>
       <c r="E172" s="227">
         <v>171</v>
       </c>
-      <c r="F172" s="250" t="s">
+      <c r="F172" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G172" s="262" t="s">
+      <c r="G172" s="258" t="s">
         <v>1515</v>
       </c>
-      <c r="H172" s="256" t="s">
+      <c r="H172" s="253" t="s">
         <v>1521</v>
       </c>
-      <c r="I172" s="250" t="s">
+      <c r="I172" s="282" t="s">
         <v>1520</v>
       </c>
-      <c r="J172" s="250"/>
-      <c r="K172" s="250" t="s">
+      <c r="J172" s="247" t="s">
         <v>1512</v>
       </c>
-      <c r="L172" s="278">
+      <c r="K172" s="272">
         <v>93.560145808019499</v>
       </c>
+      <c r="L172" s="274" t="s">
+        <v>2835</v>
+      </c>
+      <c r="N172" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="173" spans="1:14" ht="15" customHeight="1">
-      <c r="A173" s="275" t="s">
+      <c r="A173" s="270" t="s">
         <v>1517</v>
       </c>
-      <c r="B173" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C173" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D173" s="250"/>
+      <c r="B173" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D173" s="247"/>
       <c r="E173" s="227">
         <v>172</v>
       </c>
-      <c r="F173" s="250" t="s">
+      <c r="F173" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G173" s="262" t="s">
+      <c r="G173" s="258" t="s">
         <v>1515</v>
       </c>
-      <c r="H173" s="250" t="s">
+      <c r="H173" s="247" t="s">
         <v>1516</v>
       </c>
-      <c r="I173" s="250" t="s">
+      <c r="I173" s="247" t="s">
         <v>245</v>
       </c>
-      <c r="J173" s="250"/>
-      <c r="K173" s="250" t="s">
+      <c r="J173" s="247" t="s">
         <v>1512</v>
       </c>
-      <c r="L173" s="278">
+      <c r="K173" s="272">
         <v>98.413265670788405</v>
       </c>
+      <c r="L173" s="280" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M173" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N173" s="274" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="174" spans="1:14" ht="15" customHeight="1">
-      <c r="A174" s="262" t="s">
+      <c r="A174" s="258" t="s">
         <v>1511</v>
       </c>
-      <c r="B174" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C174" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D174" s="250"/>
+      <c r="B174" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D174" s="247"/>
       <c r="E174" s="227">
         <v>173</v>
       </c>
-      <c r="F174" s="250" t="s">
+      <c r="F174" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G174" s="262" t="s">
+      <c r="G174" s="258" t="s">
         <v>1423</v>
       </c>
-      <c r="H174" s="250" t="s">
+      <c r="H174" s="247" t="s">
         <v>1510</v>
       </c>
-      <c r="I174" s="250" t="s">
+      <c r="I174" s="282" t="s">
         <v>1509</v>
       </c>
-      <c r="J174" s="250"/>
-      <c r="K174" s="250" t="s">
+      <c r="J174" s="247" t="s">
         <v>1420</v>
       </c>
-      <c r="L174" s="278">
+      <c r="K174" s="272">
         <v>91.208634121935503</v>
       </c>
+      <c r="L174" s="274" t="s">
+        <v>2835</v>
+      </c>
+      <c r="N174" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="175" spans="1:14" ht="15" customHeight="1">
-      <c r="A175" s="275" t="s">
+      <c r="A175" s="270" t="s">
         <v>1508</v>
       </c>
-      <c r="B175" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C175" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D175" s="250"/>
+      <c r="B175" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D175" s="247"/>
       <c r="E175" s="227">
         <v>174</v>
       </c>
-      <c r="F175" s="250" t="s">
+      <c r="F175" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G175" s="262" t="s">
+      <c r="G175" s="258" t="s">
         <v>1423</v>
       </c>
-      <c r="H175" s="250" t="s">
+      <c r="H175" s="247" t="s">
         <v>1507</v>
       </c>
-      <c r="I175" s="250" t="s">
+      <c r="I175" s="247" t="s">
         <v>249</v>
       </c>
-      <c r="J175" s="250"/>
-      <c r="K175" s="250" t="s">
+      <c r="J175" s="247" t="s">
         <v>1420</v>
       </c>
-      <c r="L175" s="278">
+      <c r="K175" s="272">
         <v>93.631620327353303</v>
       </c>
+      <c r="L175" s="280" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M175" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N175" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="176" spans="1:14" ht="15" customHeight="1">
-      <c r="A176" s="275" t="s">
+      <c r="A176" s="270" t="s">
         <v>1504</v>
       </c>
-      <c r="B176" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C176" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D176" s="250"/>
+      <c r="B176" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D176" s="247"/>
       <c r="E176" s="227">
         <v>175</v>
       </c>
-      <c r="F176" s="250" t="s">
+      <c r="F176" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G176" s="262" t="s">
+      <c r="G176" s="258" t="s">
         <v>1423</v>
       </c>
-      <c r="H176" s="250" t="s">
+      <c r="H176" s="247" t="s">
         <v>1503</v>
       </c>
-      <c r="I176" s="250" t="s">
+      <c r="I176" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J176" s="250"/>
-      <c r="K176" s="250" t="s">
+      <c r="J176" s="247" t="s">
         <v>1420</v>
       </c>
-      <c r="L176" s="278">
+      <c r="K176" s="272">
         <v>92.352226431277302</v>
       </c>
+      <c r="L176" s="280" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M176" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N176" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="177" spans="1:14" ht="15" customHeight="1">
-      <c r="A177" s="275" t="s">
+      <c r="A177" s="270" t="s">
         <v>1490</v>
       </c>
-      <c r="B177" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C177" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D177" s="250"/>
+      <c r="B177" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C177" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D177" s="247"/>
       <c r="E177" s="227">
         <v>176</v>
       </c>
-      <c r="F177" s="250" t="s">
+      <c r="F177" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G177" s="262" t="s">
+      <c r="G177" s="258" t="s">
         <v>1423</v>
       </c>
-      <c r="H177" s="250" t="s">
+      <c r="H177" s="247" t="s">
         <v>1489</v>
       </c>
-      <c r="I177" s="250" t="s">
+      <c r="I177" s="247" t="s">
         <v>249</v>
       </c>
-      <c r="J177" s="250"/>
-      <c r="K177" s="250" t="s">
+      <c r="J177" s="247" t="s">
         <v>1420</v>
       </c>
-      <c r="L177" s="278">
+      <c r="K177" s="272">
         <v>94.232006289757706</v>
       </c>
+      <c r="L177" s="281" t="s">
+        <v>2833</v>
+      </c>
+      <c r="M177" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N177" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="178" spans="1:14" ht="15" customHeight="1">
-      <c r="A178" s="275" t="s">
+      <c r="A178" s="270" t="s">
         <v>1475</v>
       </c>
-      <c r="B178" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C178" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D178" s="250"/>
+      <c r="B178" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D178" s="247"/>
       <c r="E178" s="227">
         <v>177</v>
       </c>
-      <c r="F178" s="250" t="s">
+      <c r="F178" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G178" s="262" t="s">
+      <c r="G178" s="258" t="s">
         <v>1423</v>
       </c>
-      <c r="H178" s="250" t="s">
+      <c r="H178" s="247" t="s">
         <v>1474</v>
       </c>
-      <c r="I178" s="250" t="s">
+      <c r="I178" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J178" s="253"/>
-      <c r="K178" s="250" t="s">
+      <c r="J178" s="247" t="s">
         <v>1420</v>
       </c>
-      <c r="L178" s="278">
+      <c r="K178" s="272">
         <v>93.674505038953598</v>
       </c>
+      <c r="L178" s="281" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M178" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N178" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="179" spans="1:14" ht="15" customHeight="1">
-      <c r="A179" s="275" t="s">
+      <c r="A179" s="270" t="s">
         <v>1459</v>
       </c>
-      <c r="B179" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C179" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D179" s="250"/>
+      <c r="B179" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C179" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D179" s="247"/>
       <c r="E179" s="227">
         <v>178</v>
       </c>
-      <c r="F179" s="250" t="s">
+      <c r="F179" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G179" s="262" t="s">
+      <c r="G179" s="258" t="s">
         <v>1423</v>
       </c>
-      <c r="H179" s="250" t="s">
+      <c r="H179" s="247" t="s">
         <v>1458</v>
       </c>
-      <c r="I179" s="250" t="s">
+      <c r="I179" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J179" s="276"/>
-      <c r="K179" s="250" t="s">
+      <c r="J179" s="247" t="s">
         <v>1420</v>
       </c>
-      <c r="L179" s="278">
+      <c r="K179" s="272">
         <v>94.189121578157398</v>
       </c>
+      <c r="L179" s="281" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M179" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N179" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="180" spans="1:14" ht="15" customHeight="1">
-      <c r="A180" s="275" t="s">
+      <c r="A180" s="270" t="s">
         <v>1445</v>
       </c>
-      <c r="B180" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C180" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D180" s="250"/>
+      <c r="B180" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C180" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D180" s="247"/>
       <c r="E180" s="227">
         <v>179</v>
       </c>
-      <c r="F180" s="250" t="s">
+      <c r="F180" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G180" s="262" t="s">
+      <c r="G180" s="258" t="s">
         <v>1423</v>
       </c>
-      <c r="H180" s="250" t="s">
+      <c r="H180" s="247" t="s">
         <v>1444</v>
       </c>
-      <c r="I180" s="250" t="s">
+      <c r="I180" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J180" s="250"/>
-      <c r="K180" s="250" t="s">
+      <c r="J180" s="247" t="s">
         <v>1420</v>
       </c>
-      <c r="L180" s="278">
+      <c r="K180" s="272">
         <v>94.189121578157398</v>
       </c>
+      <c r="L180" s="281" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M180" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N180" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="181" spans="1:14" ht="15" customHeight="1">
-      <c r="A181" s="275" t="s">
+      <c r="A181" s="270" t="s">
         <v>1441</v>
       </c>
-      <c r="B181" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C181" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D181" s="250"/>
+      <c r="B181" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C181" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D181" s="247"/>
       <c r="E181" s="227">
         <v>180</v>
       </c>
-      <c r="F181" s="250" t="s">
+      <c r="F181" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G181" s="262" t="s">
+      <c r="G181" s="258" t="s">
         <v>1423</v>
       </c>
-      <c r="H181" s="250" t="s">
+      <c r="H181" s="247" t="s">
         <v>1440</v>
       </c>
-      <c r="I181" s="250" t="s">
+      <c r="I181" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J181" s="250"/>
-      <c r="K181" s="250" t="s">
+      <c r="J181" s="247" t="s">
         <v>1420</v>
       </c>
-      <c r="L181" s="278">
+      <c r="K181" s="272">
         <v>94.768065184761696</v>
       </c>
-      <c r="M181" t="s">
-        <v>2823</v>
-      </c>
-      <c r="N181" s="283" t="s">
+      <c r="L181" s="280" t="s">
+        <v>2832</v>
+      </c>
+      <c r="M181" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N181" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="182" spans="1:14" ht="15" customHeight="1">
-      <c r="A182" s="275" t="s">
+      <c r="A182" s="270" t="s">
         <v>1429</v>
       </c>
-      <c r="B182" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C182" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D182" s="250"/>
+      <c r="B182" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C182" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D182" s="247"/>
       <c r="E182" s="227">
         <v>181</v>
       </c>
-      <c r="F182" s="250" t="s">
+      <c r="F182" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G182" s="262" t="s">
+      <c r="G182" s="258" t="s">
         <v>1423</v>
       </c>
-      <c r="H182" s="250" t="s">
+      <c r="H182" s="226" t="s">
         <v>1428</v>
       </c>
-      <c r="I182" s="250" t="s">
+      <c r="I182" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J182" s="276"/>
-      <c r="K182" s="250" t="s">
+      <c r="J182" s="247" t="s">
         <v>1420</v>
       </c>
-      <c r="L182" s="278">
+      <c r="K182" s="272">
         <v>94.217711385890993</v>
       </c>
+      <c r="L182" s="281" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M182" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N182" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="183" spans="1:14" ht="15" customHeight="1">
-      <c r="A183" s="262" t="s">
+      <c r="A183" s="258" t="s">
         <v>1419</v>
       </c>
-      <c r="B183" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C183" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D183" s="250"/>
+      <c r="B183" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C183" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D183" s="247"/>
       <c r="E183" s="227">
         <v>182</v>
       </c>
-      <c r="F183" s="250" t="s">
+      <c r="F183" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G183" s="262" t="s">
+      <c r="G183" s="258" t="s">
         <v>1309</v>
       </c>
-      <c r="H183" s="250" t="s">
+      <c r="H183" s="247" t="s">
         <v>1418</v>
       </c>
-      <c r="I183" s="250" t="s">
+      <c r="I183" s="282" t="s">
         <v>1417</v>
       </c>
-      <c r="J183" s="250"/>
-      <c r="K183" s="250" t="s">
+      <c r="J183" s="247" t="s">
         <v>1306</v>
       </c>
-      <c r="L183" s="278">
+      <c r="K183" s="272">
         <v>91.666071045672197</v>
       </c>
+      <c r="L183" s="274" t="s">
+        <v>2835</v>
+      </c>
+      <c r="N183" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="184" spans="1:14" ht="15" customHeight="1">
-      <c r="A184" s="275" t="s">
+      <c r="A184" s="270" t="s">
         <v>1416</v>
       </c>
-      <c r="B184" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C184" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D184" s="250"/>
+      <c r="B184" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C184" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D184" s="247"/>
       <c r="E184" s="227">
         <v>183</v>
       </c>
-      <c r="F184" s="250" t="s">
+      <c r="F184" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G184" s="262" t="s">
+      <c r="G184" s="258" t="s">
         <v>1309</v>
       </c>
-      <c r="H184" s="250" t="s">
+      <c r="H184" s="247" t="s">
         <v>1415</v>
       </c>
-      <c r="I184" s="250" t="s">
+      <c r="I184" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J184" s="253"/>
-      <c r="K184" s="250" t="s">
+      <c r="J184" s="247" t="s">
         <v>1306</v>
       </c>
-      <c r="L184" s="278">
+      <c r="K184" s="272">
         <v>93.381459509684802</v>
       </c>
+      <c r="L184" s="280" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M184" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N184" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="185" spans="1:14" ht="15" customHeight="1">
-      <c r="A185" s="275" t="s">
+      <c r="A185" s="270" t="s">
         <v>1412</v>
       </c>
-      <c r="B185" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C185" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D185" s="250"/>
+      <c r="B185" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C185" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D185" s="247"/>
       <c r="E185" s="227">
         <v>184</v>
       </c>
-      <c r="F185" s="250" t="s">
+      <c r="F185" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G185" s="262" t="s">
+      <c r="G185" s="258" t="s">
         <v>1309</v>
       </c>
-      <c r="H185" s="250" t="s">
+      <c r="H185" s="247" t="s">
         <v>1411</v>
       </c>
-      <c r="I185" s="250" t="s">
+      <c r="I185" s="247" t="s">
         <v>245</v>
       </c>
-      <c r="J185" s="250"/>
-      <c r="K185" s="250" t="s">
+      <c r="J185" s="247" t="s">
         <v>1306</v>
       </c>
-      <c r="L185" s="278">
+      <c r="K185" s="272">
         <v>92.716746479879902</v>
       </c>
+      <c r="L185" s="280" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M185" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N185" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="186" spans="1:14" ht="15" customHeight="1">
-      <c r="A186" s="275" t="s">
+      <c r="A186" s="270" t="s">
         <v>1396</v>
       </c>
-      <c r="B186" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C186" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D186" s="250"/>
+      <c r="B186" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C186" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D186" s="247"/>
       <c r="E186" s="227">
         <v>185</v>
       </c>
-      <c r="F186" s="250" t="s">
+      <c r="F186" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G186" s="262" t="s">
+      <c r="G186" s="258" t="s">
         <v>1309</v>
       </c>
-      <c r="H186" s="250" t="s">
+      <c r="H186" s="247" t="s">
         <v>1395</v>
       </c>
-      <c r="I186" s="250" t="s">
+      <c r="I186" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J186" s="250"/>
-      <c r="K186" s="250" t="s">
+      <c r="J186" s="247" t="s">
         <v>1306</v>
       </c>
-      <c r="L186" s="278">
+      <c r="K186" s="272">
         <v>93.531556000285903</v>
       </c>
+      <c r="L186" s="281" t="s">
+        <v>2833</v>
+      </c>
+      <c r="M186" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N186" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="187" spans="1:14" ht="15" customHeight="1">
-      <c r="A187" s="275" t="s">
+      <c r="A187" s="270" t="s">
         <v>1380</v>
       </c>
-      <c r="B187" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C187" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D187" s="250"/>
+      <c r="B187" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C187" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D187" s="247"/>
       <c r="E187" s="227">
         <v>186</v>
       </c>
-      <c r="F187" s="250" t="s">
+      <c r="F187" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G187" s="262" t="s">
+      <c r="G187" s="258" t="s">
         <v>1309</v>
       </c>
-      <c r="H187" s="250" t="s">
+      <c r="H187" s="247" t="s">
         <v>1379</v>
       </c>
-      <c r="I187" s="250" t="s">
+      <c r="I187" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J187" s="253"/>
-      <c r="K187" s="250" t="s">
+      <c r="J187" s="247" t="s">
         <v>1306</v>
       </c>
-      <c r="L187" s="278">
+      <c r="K187" s="272">
         <v>93.417196769351705</v>
       </c>
+      <c r="L187" s="281" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M187" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N187" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="188" spans="1:14" ht="15" customHeight="1">
-      <c r="A188" s="275" t="s">
+      <c r="A188" s="270" t="s">
         <v>1362</v>
       </c>
-      <c r="B188" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C188" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D188" s="250"/>
+      <c r="B188" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C188" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D188" s="247"/>
       <c r="E188" s="227">
         <v>187</v>
       </c>
-      <c r="F188" s="250" t="s">
+      <c r="F188" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G188" s="262" t="s">
+      <c r="G188" s="258" t="s">
         <v>1309</v>
       </c>
-      <c r="H188" s="250" t="s">
+      <c r="H188" s="247" t="s">
         <v>1361</v>
       </c>
-      <c r="I188" s="250" t="s">
+      <c r="I188" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J188" s="276"/>
-      <c r="K188" s="250" t="s">
+      <c r="J188" s="247" t="s">
         <v>1306</v>
       </c>
-      <c r="L188" s="278">
+      <c r="K188" s="272">
         <v>93.517261096419105</v>
       </c>
+      <c r="L188" s="281" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M188" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N188" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="189" spans="1:14" ht="15" customHeight="1">
-      <c r="A189" s="275" t="s">
+      <c r="A189" s="270" t="s">
         <v>1345</v>
       </c>
-      <c r="B189" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C189" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D189" s="250"/>
+      <c r="B189" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C189" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D189" s="247"/>
       <c r="E189" s="227">
         <v>188</v>
       </c>
-      <c r="F189" s="250" t="s">
+      <c r="F189" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G189" s="262" t="s">
+      <c r="G189" s="258" t="s">
         <v>1309</v>
       </c>
-      <c r="H189" s="250" t="s">
+      <c r="H189" s="247" t="s">
         <v>1344</v>
       </c>
-      <c r="I189" s="250" t="s">
+      <c r="I189" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J189" s="250"/>
-      <c r="K189" s="250" t="s">
+      <c r="J189" s="247" t="s">
         <v>1306</v>
       </c>
-      <c r="L189" s="278">
+      <c r="K189" s="272">
         <v>93.488671288685595</v>
       </c>
+      <c r="L189" s="281" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M189" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N189" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="190" spans="1:14" ht="15" customHeight="1">
-      <c r="A190" s="275" t="s">
+      <c r="A190" s="270" t="s">
         <v>1335</v>
       </c>
-      <c r="B190" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C190" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D190" s="250"/>
+      <c r="B190" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C190" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D190" s="247"/>
       <c r="E190" s="227">
         <v>189</v>
       </c>
-      <c r="F190" s="250" t="s">
+      <c r="F190" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G190" s="262" t="s">
+      <c r="G190" s="258" t="s">
         <v>1309</v>
       </c>
-      <c r="H190" s="250" t="s">
+      <c r="H190" s="247" t="s">
         <v>1334</v>
       </c>
-      <c r="I190" s="250" t="s">
+      <c r="I190" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J190" s="250"/>
-      <c r="K190" s="250" t="s">
+      <c r="J190" s="247" t="s">
         <v>1306</v>
       </c>
-      <c r="L190" s="278">
+      <c r="K190" s="272">
         <v>94.453577299692697</v>
       </c>
+      <c r="L190" s="280" t="s">
+        <v>2832</v>
+      </c>
+      <c r="M190" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N190" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="191" spans="1:14" ht="15" customHeight="1">
-      <c r="A191" s="275" t="s">
+      <c r="A191" s="270" t="s">
         <v>1320</v>
       </c>
-      <c r="B191" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="C191" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D191" s="250"/>
+      <c r="B191" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="C191" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D191" s="247"/>
       <c r="E191" s="227">
         <v>190</v>
       </c>
-      <c r="F191" s="250" t="s">
+      <c r="F191" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G191" s="262" t="s">
+      <c r="G191" s="258" t="s">
         <v>1309</v>
       </c>
-      <c r="H191" s="250" t="s">
+      <c r="H191" s="247" t="s">
         <v>1319</v>
       </c>
-      <c r="I191" s="250" t="s">
+      <c r="I191" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J191" s="276"/>
-      <c r="K191" s="250" t="s">
+      <c r="J191" s="247" t="s">
         <v>1306</v>
       </c>
-      <c r="L191" s="278">
+      <c r="K191" s="272">
         <v>93.753127010220894</v>
       </c>
+      <c r="L191" s="281" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M191" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N191" s="274" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="192" spans="1:14" ht="15" customHeight="1">
-      <c r="A192" s="257" t="s">
+      <c r="A192" s="254" t="s">
         <v>1191</v>
       </c>
-      <c r="B192" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C192" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D192" s="250"/>
+      <c r="B192" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C192" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D192" s="247"/>
       <c r="E192" s="227">
         <v>191</v>
       </c>
-      <c r="F192" s="250" t="s">
+      <c r="F192" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G192" s="257" t="s">
+      <c r="G192" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H192" s="256" t="s">
+      <c r="H192" s="253" t="s">
         <v>1190</v>
       </c>
-      <c r="I192" s="256" t="s">
+      <c r="I192" s="253" t="s">
         <v>249</v>
       </c>
-      <c r="J192" s="250"/>
-      <c r="K192" s="250"/>
-      <c r="L192" s="278">
+      <c r="J192" s="247"/>
+      <c r="K192" s="272">
         <v>76.091773282824704</v>
       </c>
+      <c r="L192" s="274" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M192" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N192" s="274" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="193" spans="1:14" ht="15" customHeight="1">
-      <c r="A193" s="257" t="s">
+      <c r="A193" s="254" t="s">
         <v>1189</v>
       </c>
-      <c r="B193" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C193" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D193" s="250"/>
+      <c r="B193" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C193" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D193" s="247"/>
       <c r="E193" s="227">
         <v>192</v>
       </c>
-      <c r="F193" s="250" t="s">
+      <c r="F193" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G193" s="257" t="s">
+      <c r="G193" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H193" s="256" t="s">
+      <c r="H193" s="253" t="s">
         <v>1188</v>
       </c>
-      <c r="I193" s="256" t="s">
+      <c r="I193" s="253" t="s">
         <v>1187</v>
       </c>
-      <c r="J193" s="250"/>
-      <c r="K193" s="250"/>
-      <c r="L193" s="278">
+      <c r="J193" s="247"/>
+      <c r="K193" s="272">
         <v>97.741405189050099</v>
       </c>
+      <c r="L193" s="274"/>
+      <c r="N193" s="274"/>
     </row>
     <row r="194" spans="1:14" ht="15" customHeight="1">
-      <c r="A194" s="257" t="s">
+      <c r="A194" s="254" t="s">
         <v>1186</v>
       </c>
-      <c r="B194" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C194" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D194" s="250"/>
+      <c r="B194" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C194" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D194" s="247"/>
       <c r="E194" s="227">
         <v>193</v>
       </c>
-      <c r="F194" s="250" t="s">
+      <c r="F194" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G194" s="257" t="s">
+      <c r="G194" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H194" s="256" t="s">
+      <c r="H194" s="253" t="s">
         <v>1185</v>
       </c>
-      <c r="I194" s="256" t="s">
+      <c r="I194" s="253" t="s">
         <v>1184</v>
       </c>
-      <c r="J194" s="250"/>
-      <c r="K194" s="250"/>
-      <c r="L194" s="278">
+      <c r="J194" s="247"/>
+      <c r="K194" s="272">
         <v>97.148166678579102</v>
       </c>
+      <c r="L194" s="274"/>
+      <c r="N194" s="274"/>
     </row>
     <row r="195" spans="1:14" ht="15" customHeight="1">
-      <c r="A195" s="257" t="s">
+      <c r="A195" s="254" t="s">
         <v>1183</v>
       </c>
-      <c r="B195" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C195" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D195" s="250"/>
+      <c r="B195" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C195" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D195" s="247"/>
       <c r="E195" s="227">
         <v>194</v>
       </c>
-      <c r="F195" s="250" t="s">
+      <c r="F195" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G195" s="257" t="s">
+      <c r="G195" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H195" s="256" t="s">
+      <c r="H195" s="253" t="s">
         <v>1182</v>
       </c>
-      <c r="I195" s="256" t="s">
+      <c r="I195" s="253" t="s">
         <v>371</v>
       </c>
-      <c r="J195" s="250"/>
-      <c r="K195" s="250"/>
-      <c r="L195" s="278">
+      <c r="J195" s="247"/>
+      <c r="K195" s="272">
         <v>19.7769994996784</v>
       </c>
-      <c r="M195" s="280" t="s">
+      <c r="L195" s="274" t="s">
         <v>2814</v>
       </c>
-      <c r="N195" s="280" t="s">
+      <c r="M195" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N195" s="274"/>
     </row>
     <row r="196" spans="1:14" ht="15" customHeight="1">
-      <c r="A196" s="257" t="s">
+      <c r="A196" s="254" t="s">
         <v>1181</v>
       </c>
-      <c r="B196" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C196" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D196" s="250"/>
+      <c r="B196" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C196" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D196" s="247"/>
       <c r="E196" s="227">
         <v>195</v>
       </c>
-      <c r="F196" s="250" t="s">
+      <c r="F196" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G196" s="257" t="s">
+      <c r="G196" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H196" s="256" t="s">
+      <c r="H196" s="253" t="s">
         <v>1180</v>
       </c>
-      <c r="I196" s="256" t="s">
+      <c r="I196" s="253" t="s">
         <v>1179</v>
       </c>
-      <c r="J196" s="250"/>
-      <c r="K196" s="250"/>
-      <c r="L196" s="278">
+      <c r="J196" s="247"/>
+      <c r="K196" s="272">
         <v>94.203416482024195</v>
       </c>
-      <c r="M196" s="280" t="s">
+      <c r="L196" s="274" t="s">
         <v>2814</v>
       </c>
-      <c r="N196" s="280" t="s">
+      <c r="M196" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N196" s="274"/>
     </row>
     <row r="197" spans="1:14" ht="15" customHeight="1">
-      <c r="A197" s="257" t="s">
+      <c r="A197" s="254" t="s">
         <v>1178</v>
       </c>
-      <c r="B197" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C197" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D197" s="250"/>
+      <c r="B197" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C197" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D197" s="247"/>
       <c r="E197" s="227">
         <v>196</v>
       </c>
-      <c r="F197" s="250" t="s">
+      <c r="F197" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G197" s="257" t="s">
+      <c r="G197" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H197" s="256" t="s">
+      <c r="H197" s="253" t="s">
         <v>1177</v>
       </c>
-      <c r="I197" s="256" t="s">
+      <c r="I197" s="253" t="s">
         <v>278</v>
       </c>
-      <c r="J197" s="250"/>
-      <c r="K197" s="250"/>
-      <c r="L197" s="278">
+      <c r="J197" s="247"/>
+      <c r="K197" s="272">
         <v>82.767493388606994</v>
       </c>
-      <c r="M197" s="280" t="s">
+      <c r="L197" s="274" t="s">
         <v>2819</v>
       </c>
-      <c r="N197" s="280" t="s">
+      <c r="M197" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N197" s="274"/>
     </row>
     <row r="198" spans="1:14" ht="15" customHeight="1">
-      <c r="A198" s="257" t="s">
+      <c r="A198" s="254" t="s">
         <v>1176</v>
       </c>
-      <c r="B198" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C198" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D198" s="250"/>
+      <c r="B198" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C198" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D198" s="247"/>
       <c r="E198" s="227">
         <v>197</v>
       </c>
-      <c r="F198" s="250" t="s">
+      <c r="F198" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G198" s="257" t="s">
+      <c r="G198" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H198" s="256" t="s">
+      <c r="H198" s="253" t="s">
         <v>1175</v>
       </c>
-      <c r="I198" s="256" t="s">
+      <c r="I198" s="253" t="s">
         <v>831</v>
       </c>
-      <c r="J198" s="250"/>
-      <c r="K198" s="250"/>
-      <c r="L198" s="278">
+      <c r="J198" s="247"/>
+      <c r="K198" s="272">
         <v>99.764134086198297</v>
       </c>
-      <c r="M198" s="280" t="s">
+      <c r="L198" s="274" t="s">
         <v>2819</v>
       </c>
-      <c r="N198" s="280" t="s">
+      <c r="M198" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N198" s="274"/>
     </row>
     <row r="199" spans="1:14" ht="15" customHeight="1">
-      <c r="A199" s="262" t="s">
+      <c r="A199" s="258" t="s">
         <v>1174</v>
       </c>
-      <c r="B199" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C199" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D199" s="250"/>
+      <c r="B199" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C199" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D199" s="247"/>
       <c r="E199" s="227">
         <v>198</v>
       </c>
-      <c r="F199" s="250" t="s">
+      <c r="F199" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G199" s="257" t="s">
+      <c r="G199" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H199" s="250" t="s">
+      <c r="H199" s="247" t="s">
         <v>1173</v>
       </c>
-      <c r="I199" s="250" t="s">
+      <c r="I199" s="247" t="s">
         <v>245</v>
       </c>
-      <c r="J199" s="250"/>
-      <c r="K199" s="250" t="s">
+      <c r="J199" s="247" t="s">
         <v>1172</v>
       </c>
-      <c r="L199" s="278">
+      <c r="K199" s="272">
         <v>15.6100350225145</v>
       </c>
-      <c r="M199" s="281" t="s">
+      <c r="L199" s="279" t="s">
         <v>2816</v>
       </c>
-      <c r="N199" s="281" t="s">
+      <c r="M199" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N199" s="274"/>
     </row>
     <row r="200" spans="1:14" ht="15" customHeight="1">
-      <c r="A200" s="262" t="s">
+      <c r="A200" s="258" t="s">
         <v>1171</v>
       </c>
-      <c r="B200" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C200" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D200" s="250"/>
+      <c r="B200" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C200" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D200" s="247"/>
       <c r="E200" s="227">
         <v>199</v>
       </c>
-      <c r="F200" s="250" t="s">
+      <c r="F200" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G200" s="257" t="s">
+      <c r="G200" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H200" s="250" t="s">
+      <c r="H200" s="247" t="s">
         <v>1170</v>
       </c>
-      <c r="I200" s="250" t="s">
+      <c r="I200" s="247" t="s">
         <v>1169</v>
       </c>
-      <c r="J200" s="250"/>
-      <c r="K200" s="250" t="s">
+      <c r="J200" s="247" t="s">
         <v>1168</v>
       </c>
-      <c r="L200" s="278">
+      <c r="K200" s="272">
         <v>48.7384747337574</v>
       </c>
-      <c r="M200" s="281" t="s">
+      <c r="L200" s="279" t="s">
         <v>2816</v>
       </c>
-      <c r="N200" s="281" t="s">
+      <c r="M200" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N200" s="274"/>
     </row>
     <row r="201" spans="1:14" ht="15" customHeight="1">
-      <c r="A201" s="262" t="s">
+      <c r="A201" s="258" t="s">
         <v>1165</v>
       </c>
-      <c r="B201" s="262" t="s">
-        <v>120</v>
-      </c>
-      <c r="C201" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D201" s="250"/>
+      <c r="B201" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="C201" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D201" s="247"/>
       <c r="E201" s="227">
         <v>200</v>
       </c>
-      <c r="F201" s="250" t="s">
+      <c r="F201" s="247" t="s">
         <v>1160</v>
       </c>
-      <c r="G201" s="257" t="s">
+      <c r="G201" s="254" t="s">
         <v>1159</v>
       </c>
-      <c r="H201" s="250" t="s">
+      <c r="H201" s="247" t="s">
         <v>1164</v>
       </c>
-      <c r="I201" s="250" t="s">
+      <c r="I201" s="247" t="s">
         <v>1163</v>
       </c>
-      <c r="J201" s="250"/>
-      <c r="K201" s="250"/>
-      <c r="L201" s="278">
+      <c r="J201" s="247"/>
+      <c r="K201" s="272">
         <v>97.369737688514107</v>
       </c>
-      <c r="M201" s="281" t="s">
+      <c r="L201" s="279" t="s">
         <v>2816</v>
       </c>
-      <c r="N201" s="280" t="s">
+      <c r="M201" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N201" s="274"/>
     </row>
     <row r="202" spans="1:14" ht="15" customHeight="1">
-      <c r="A202" s="262" t="s">
+      <c r="A202" s="258" t="s">
         <v>1666</v>
       </c>
-      <c r="B202" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C202" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D202" s="250"/>
+      <c r="B202" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C202" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D202" s="247"/>
       <c r="E202" s="227">
         <v>201</v>
       </c>
-      <c r="F202" s="250" t="s">
+      <c r="F202" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G202" s="262" t="s">
+      <c r="G202" s="258" t="s">
         <v>1665</v>
       </c>
-      <c r="H202" s="250" t="s">
+      <c r="H202" s="247" t="s">
         <v>1668</v>
       </c>
-      <c r="I202" s="250" t="s">
+      <c r="I202" s="247" t="s">
         <v>126</v>
       </c>
-      <c r="J202" s="253"/>
-      <c r="K202" s="250"/>
-      <c r="L202" s="278">
+      <c r="J202" s="247"/>
+      <c r="K202" s="272">
         <v>11.7718533342863</v>
       </c>
+      <c r="N202" s="274"/>
     </row>
     <row r="203" spans="1:14" ht="15" customHeight="1">
-      <c r="A203" s="262" t="s">
+      <c r="A203" s="258" t="s">
         <v>1669</v>
       </c>
-      <c r="B203" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C203" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D203" s="250"/>
+      <c r="B203" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C203" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D203" s="247"/>
       <c r="E203" s="227">
         <v>202</v>
       </c>
-      <c r="F203" s="250" t="s">
+      <c r="F203" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G203" s="262" t="s">
+      <c r="G203" s="258" t="s">
         <v>1665</v>
       </c>
-      <c r="H203" s="250" t="s">
+      <c r="H203" s="247" t="s">
         <v>1670</v>
       </c>
-      <c r="I203" s="250" t="s">
+      <c r="I203" s="247" t="s">
         <v>130</v>
       </c>
-      <c r="J203" s="253"/>
-      <c r="K203" s="250"/>
-      <c r="L203" s="278">
+      <c r="J203" s="247"/>
+      <c r="K203" s="272">
         <v>13.9804159817025</v>
       </c>
+      <c r="N203" s="274"/>
     </row>
     <row r="204" spans="1:14" ht="15" customHeight="1">
-      <c r="A204" s="262" t="s">
+      <c r="A204" s="258" t="s">
         <v>1671</v>
       </c>
-      <c r="B204" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C204" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D204" s="250"/>
+      <c r="B204" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C204" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D204" s="247"/>
       <c r="E204" s="227">
         <v>203</v>
       </c>
-      <c r="F204" s="250" t="s">
+      <c r="F204" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G204" s="262" t="s">
+      <c r="G204" s="258" t="s">
         <v>1665</v>
       </c>
-      <c r="H204" s="250" t="s">
+      <c r="H204" s="247" t="s">
         <v>1672</v>
       </c>
-      <c r="I204" s="250" t="s">
+      <c r="I204" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="J204" s="253"/>
-      <c r="K204" s="250" t="s">
+      <c r="J204" s="247" t="s">
         <v>1673</v>
       </c>
-      <c r="L204" s="278">
+      <c r="K204" s="272">
         <v>80.187263240654701</v>
       </c>
+      <c r="N204" s="274"/>
     </row>
     <row r="205" spans="1:14" ht="15" customHeight="1">
-      <c r="A205" s="262" t="s">
+      <c r="A205" s="258" t="s">
         <v>1674</v>
       </c>
-      <c r="B205" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C205" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D205" s="250"/>
+      <c r="B205" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C205" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D205" s="247"/>
       <c r="E205" s="227">
         <v>204</v>
       </c>
-      <c r="F205" s="250" t="s">
+      <c r="F205" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G205" s="262" t="s">
+      <c r="G205" s="258" t="s">
         <v>1665</v>
       </c>
-      <c r="H205" s="250" t="s">
+      <c r="H205" s="247" t="s">
         <v>1672</v>
       </c>
-      <c r="I205" s="250" t="s">
+      <c r="I205" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="J205" s="253"/>
-      <c r="K205" s="250" t="s">
+      <c r="J205" s="247" t="s">
         <v>1673</v>
       </c>
-      <c r="L205" s="278">
+      <c r="K205" s="272">
         <v>87.734972482310098</v>
       </c>
+      <c r="N205" s="274"/>
     </row>
     <row r="206" spans="1:14" ht="15" customHeight="1">
-      <c r="A206" s="262" t="s">
+      <c r="A206" s="258" t="s">
         <v>1675</v>
       </c>
-      <c r="B206" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C206" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D206" s="250"/>
+      <c r="B206" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C206" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D206" s="247"/>
       <c r="E206" s="227">
         <v>205</v>
       </c>
-      <c r="F206" s="250" t="s">
+      <c r="F206" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G206" s="262" t="s">
+      <c r="G206" s="258" t="s">
         <v>1665</v>
       </c>
-      <c r="H206" s="250" t="s">
+      <c r="H206" s="247" t="s">
         <v>1672</v>
       </c>
-      <c r="I206" s="250" t="s">
+      <c r="I206" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="J206" s="253"/>
-      <c r="K206" s="250" t="s">
+      <c r="J206" s="247" t="s">
         <v>1673</v>
       </c>
-      <c r="L206" s="278">
+      <c r="K206" s="272">
         <v>89.521835465656494</v>
       </c>
+      <c r="N206" s="274"/>
     </row>
     <row r="207" spans="1:14" ht="15" customHeight="1">
-      <c r="A207" s="262" t="s">
+      <c r="A207" s="258" t="s">
         <v>1676</v>
       </c>
-      <c r="B207" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C207" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D207" s="250"/>
+      <c r="B207" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C207" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D207" s="247"/>
       <c r="E207" s="227">
         <v>206</v>
       </c>
-      <c r="F207" s="250" t="s">
+      <c r="F207" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G207" s="262" t="s">
+      <c r="G207" s="258" t="s">
         <v>1665</v>
       </c>
-      <c r="H207" s="250" t="s">
+      <c r="H207" s="247" t="s">
         <v>1672</v>
       </c>
-      <c r="I207" s="250" t="s">
+      <c r="I207" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="J207" s="253"/>
-      <c r="K207" s="250" t="s">
+      <c r="J207" s="247" t="s">
         <v>1673</v>
       </c>
-      <c r="L207" s="278">
+      <c r="K207" s="272">
         <v>93.367164605818004</v>
       </c>
+      <c r="N207" s="274"/>
     </row>
     <row r="208" spans="1:14" ht="15" customHeight="1">
-      <c r="A208" s="262" t="s">
+      <c r="A208" s="258" t="s">
         <v>1677</v>
       </c>
-      <c r="B208" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C208" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D208" s="250"/>
+      <c r="B208" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C208" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D208" s="247"/>
       <c r="E208" s="227">
         <v>207</v>
       </c>
-      <c r="F208" s="250" t="s">
+      <c r="F208" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G208" s="262" t="s">
+      <c r="G208" s="258" t="s">
         <v>1665</v>
       </c>
-      <c r="H208" s="250" t="s">
+      <c r="H208" s="247" t="s">
         <v>1672</v>
       </c>
-      <c r="I208" s="250" t="s">
+      <c r="I208" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="J208" s="253"/>
-      <c r="K208" s="250" t="s">
+      <c r="J208" s="247" t="s">
         <v>1673</v>
       </c>
-      <c r="L208" s="278">
+      <c r="K208" s="272">
         <v>94.339218068758498</v>
       </c>
+      <c r="N208" s="274"/>
     </row>
     <row r="209" spans="1:14" ht="15" customHeight="1">
-      <c r="A209" s="262" t="s">
+      <c r="A209" s="258" t="s">
         <v>1678</v>
       </c>
-      <c r="B209" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C209" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D209" s="250"/>
+      <c r="B209" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C209" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D209" s="247"/>
       <c r="E209" s="227">
         <v>208</v>
       </c>
-      <c r="F209" s="250" t="s">
+      <c r="F209" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G209" s="262" t="s">
+      <c r="G209" s="258" t="s">
         <v>1665</v>
       </c>
-      <c r="H209" s="250" t="s">
+      <c r="H209" s="247" t="s">
         <v>1672</v>
       </c>
-      <c r="I209" s="250" t="s">
+      <c r="I209" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="J209" s="253"/>
-      <c r="K209" s="250" t="s">
+      <c r="J209" s="247" t="s">
         <v>1673</v>
       </c>
-      <c r="L209" s="278">
+      <c r="K209" s="272">
         <v>96.919448216710805</v>
       </c>
+      <c r="N209" s="274"/>
     </row>
     <row r="210" spans="1:14" ht="15" customHeight="1">
-      <c r="A210" s="262" t="s">
+      <c r="A210" s="258" t="s">
         <v>1679</v>
       </c>
-      <c r="B210" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C210" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D210" s="250"/>
+      <c r="B210" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C210" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D210" s="247"/>
       <c r="E210" s="227">
         <v>209</v>
       </c>
-      <c r="F210" s="250" t="s">
+      <c r="F210" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G210" s="262" t="s">
+      <c r="G210" s="258" t="s">
         <v>1665</v>
       </c>
-      <c r="H210" s="250" t="s">
+      <c r="H210" s="247" t="s">
         <v>1672</v>
       </c>
-      <c r="I210" s="250" t="s">
+      <c r="I210" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="J210" s="253"/>
-      <c r="K210" s="250" t="s">
+      <c r="J210" s="247" t="s">
         <v>1673</v>
       </c>
-      <c r="L210" s="278">
+      <c r="K210" s="272">
         <v>98.870702594525099</v>
       </c>
+      <c r="N210" s="274"/>
     </row>
     <row r="211" spans="1:14" ht="15" customHeight="1">
-      <c r="A211" s="262" t="s">
+      <c r="A211" s="258" t="s">
         <v>1683</v>
       </c>
-      <c r="B211" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C211" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D211" s="250"/>
+      <c r="B211" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C211" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D211" s="247"/>
       <c r="E211" s="227">
         <v>210</v>
       </c>
-      <c r="F211" s="250" t="s">
+      <c r="F211" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G211" s="262" t="s">
+      <c r="G211" s="258" t="s">
         <v>1680</v>
       </c>
-      <c r="H211" s="250" t="s">
+      <c r="H211" s="247" t="s">
         <v>1684</v>
       </c>
       <c r="I211" s="226" t="s">
         <v>1685</v>
       </c>
-      <c r="J211" s="253"/>
-      <c r="K211" s="250"/>
-      <c r="L211" s="278">
+      <c r="J211" s="247"/>
+      <c r="K211" s="272">
         <v>14.4307054535058</v>
       </c>
+      <c r="N211" s="274"/>
     </row>
     <row r="212" spans="1:14" ht="15" customHeight="1">
-      <c r="A212" s="257" t="s">
+      <c r="A212" s="254" t="s">
         <v>1690</v>
       </c>
-      <c r="B212" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C212" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D212" s="250"/>
+      <c r="B212" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C212" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D212" s="247"/>
       <c r="E212" s="227">
         <v>211</v>
       </c>
-      <c r="F212" s="250" t="s">
+      <c r="F212" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G212" s="262" t="s">
+      <c r="G212" s="258" t="s">
         <v>1680</v>
       </c>
-      <c r="H212" s="250" t="s">
+      <c r="H212" s="247" t="s">
         <v>1691</v>
       </c>
-      <c r="I212" s="250" t="s">
+      <c r="I212" s="247" t="s">
         <v>1692</v>
       </c>
-      <c r="J212" s="258"/>
-      <c r="K212" s="250" t="s">
+      <c r="J212" s="247" t="s">
         <v>192</v>
       </c>
-      <c r="L212" s="278">
+      <c r="K212" s="272">
         <v>18.1044957472661</v>
       </c>
-      <c r="M212" t="s">
+      <c r="L212" t="s">
         <v>2820</v>
       </c>
-      <c r="N212" s="280" t="s">
+      <c r="M212" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N212" s="274"/>
     </row>
     <row r="213" spans="1:14" ht="15" customHeight="1">
-      <c r="A213" s="262" t="s">
+      <c r="A213" s="258" t="s">
         <v>1693</v>
       </c>
-      <c r="B213" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C213" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D213" s="250"/>
+      <c r="B213" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C213" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D213" s="247"/>
       <c r="E213" s="227">
         <v>212</v>
       </c>
-      <c r="F213" s="250" t="s">
+      <c r="F213" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G213" s="262" t="s">
+      <c r="G213" s="258" t="s">
         <v>1680</v>
       </c>
-      <c r="H213" s="259" t="s">
+      <c r="H213" s="255" t="s">
         <v>1694</v>
       </c>
-      <c r="I213" s="260" t="s">
+      <c r="I213" s="256" t="s">
         <v>1695</v>
       </c>
-      <c r="J213" s="250"/>
-      <c r="K213" s="261"/>
-      <c r="L213" s="278">
+      <c r="J213" s="257"/>
+      <c r="K213" s="272">
         <v>41.862625973840302</v>
       </c>
+      <c r="N213" s="274"/>
     </row>
     <row r="214" spans="1:14" ht="15" customHeight="1">
-      <c r="A214" s="262" t="s">
+      <c r="A214" s="258" t="s">
         <v>1697</v>
       </c>
-      <c r="B214" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C214" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D214" s="250"/>
+      <c r="B214" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C214" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D214" s="247"/>
       <c r="E214" s="227">
         <v>213</v>
       </c>
-      <c r="F214" s="250" t="s">
+      <c r="F214" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G214" s="262" t="s">
+      <c r="G214" s="258" t="s">
         <v>1696</v>
       </c>
-      <c r="H214" s="250" t="s">
+      <c r="H214" s="247" t="s">
         <v>1698</v>
       </c>
-      <c r="I214" s="260" t="s">
+      <c r="I214" s="256" t="s">
         <v>1699</v>
       </c>
-      <c r="J214" s="249"/>
-      <c r="K214" s="253"/>
-      <c r="L214" s="278">
+      <c r="J214" s="250"/>
+      <c r="K214" s="272">
         <v>19.784146951611699</v>
       </c>
+      <c r="N214" s="274"/>
     </row>
     <row r="215" spans="1:14" ht="15" customHeight="1">
-      <c r="A215" s="262" t="s">
+      <c r="A215" s="258" t="s">
         <v>1716</v>
       </c>
-      <c r="B215" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C215" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D215" s="250"/>
+      <c r="B215" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D215" s="247"/>
       <c r="E215" s="227">
         <v>214</v>
       </c>
-      <c r="F215" s="250" t="s">
+      <c r="F215" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G215" s="262" t="s">
+      <c r="G215" s="258" t="s">
         <v>1715</v>
       </c>
-      <c r="H215" s="250" t="s">
+      <c r="H215" s="247" t="s">
         <v>1717</v>
       </c>
-      <c r="I215" s="252" t="s">
+      <c r="I215" s="249" t="s">
         <v>328</v>
       </c>
-      <c r="J215" s="263"/>
-      <c r="K215" s="250" t="s">
+      <c r="J215" s="247" t="s">
         <v>1718</v>
       </c>
-      <c r="L215" s="278">
+      <c r="K215" s="272">
         <v>17.8185976699307</v>
       </c>
-      <c r="M215" s="280" t="s">
+      <c r="L215" s="274" t="s">
         <v>2821</v>
       </c>
-      <c r="N215" s="280" t="s">
+      <c r="M215" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N215" s="274"/>
     </row>
     <row r="216" spans="1:14" ht="15" customHeight="1">
-      <c r="A216" s="262" t="s">
+      <c r="A216" s="258" t="s">
         <v>1719</v>
       </c>
-      <c r="B216" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C216" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D216" s="250"/>
+      <c r="B216" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C216" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D216" s="247"/>
       <c r="E216" s="227">
         <v>215</v>
       </c>
-      <c r="F216" s="250" t="s">
+      <c r="F216" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G216" s="262" t="s">
+      <c r="G216" s="258" t="s">
         <v>1715</v>
       </c>
-      <c r="H216" s="251" t="s">
+      <c r="H216" s="248" t="s">
         <v>1720</v>
       </c>
-      <c r="I216" s="252" t="s">
+      <c r="I216" s="249" t="s">
         <v>328</v>
       </c>
-      <c r="J216" s="253"/>
-      <c r="K216" s="250" t="s">
+      <c r="J216" s="247" t="s">
         <v>1721</v>
       </c>
-      <c r="L216" s="278">
+      <c r="K216" s="272">
         <v>44.128368236723603</v>
       </c>
+      <c r="N216" s="274"/>
     </row>
     <row r="217" spans="1:14" ht="15" customHeight="1">
-      <c r="A217" s="262" t="s">
+      <c r="A217" s="258" t="s">
         <v>1731</v>
       </c>
-      <c r="B217" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C217" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D217" s="250"/>
+      <c r="B217" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C217" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D217" s="247"/>
       <c r="E217" s="227">
         <v>216</v>
       </c>
-      <c r="F217" s="250" t="s">
+      <c r="F217" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G217" s="262" t="s">
+      <c r="G217" s="258" t="s">
         <v>1730</v>
       </c>
-      <c r="H217" s="252" t="s">
+      <c r="H217" s="249" t="s">
         <v>1732</v>
       </c>
-      <c r="I217" s="252" t="s">
+      <c r="I217" s="249" t="s">
         <v>249</v>
       </c>
-      <c r="J217" s="253"/>
-      <c r="K217" s="250"/>
-      <c r="L217" s="278">
+      <c r="J217" s="247"/>
+      <c r="K217" s="272">
         <v>45.886641412336502</v>
       </c>
-      <c r="M217" s="280" t="s">
+      <c r="L217" s="274" t="s">
         <v>2818</v>
       </c>
-      <c r="N217" s="280" t="s">
+      <c r="M217" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N217" s="274"/>
     </row>
     <row r="218" spans="1:14" ht="15" customHeight="1">
-      <c r="A218" s="262" t="s">
+      <c r="A218" s="258" t="s">
         <v>1734</v>
       </c>
-      <c r="B218" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C218" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D218" s="250"/>
+      <c r="B218" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C218" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D218" s="247"/>
       <c r="E218" s="227">
         <v>217</v>
       </c>
-      <c r="F218" s="250" t="s">
+      <c r="F218" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G218" s="262" t="s">
+      <c r="G218" s="258" t="s">
         <v>1733</v>
       </c>
-      <c r="H218" s="252" t="s">
+      <c r="H218" s="249" t="s">
         <v>1735</v>
       </c>
-      <c r="I218" s="252" t="s">
+      <c r="I218" s="249" t="s">
         <v>278</v>
       </c>
-      <c r="J218" s="250"/>
-      <c r="K218" s="250"/>
-      <c r="L218" s="278">
+      <c r="J218" s="247"/>
+      <c r="K218" s="272">
         <v>29.876349081552402</v>
       </c>
-      <c r="M218" s="280" t="s">
+      <c r="L218" s="274" t="s">
         <v>2817</v>
       </c>
-      <c r="N218" s="280" t="s">
+      <c r="M218" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N218" s="274" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="219" spans="1:14" ht="15" customHeight="1">
-      <c r="A219" s="262" t="s">
+      <c r="A219" s="258" t="s">
         <v>1736</v>
       </c>
-      <c r="B219" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C219" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D219" s="250"/>
+      <c r="B219" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C219" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D219" s="247"/>
       <c r="E219" s="227">
         <v>218</v>
       </c>
-      <c r="F219" s="250" t="s">
+      <c r="F219" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G219" s="262" t="s">
+      <c r="G219" s="258" t="s">
         <v>1733</v>
       </c>
-      <c r="H219" s="252" t="s">
+      <c r="H219" s="249" t="s">
         <v>1737</v>
       </c>
-      <c r="I219" s="252" t="s">
+      <c r="I219" s="249" t="s">
         <v>1738</v>
       </c>
-      <c r="J219" s="250"/>
-      <c r="K219" s="264" t="s">
+      <c r="J219" s="259" t="s">
         <v>1739</v>
       </c>
-      <c r="L219" s="278">
+      <c r="K219" s="272">
         <v>44.993209920663297</v>
       </c>
-      <c r="M219" s="280" t="s">
+      <c r="L219" s="274" t="s">
         <v>2817</v>
       </c>
-      <c r="N219" s="280" t="s">
+      <c r="M219" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N219" s="274" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="220" spans="1:14" ht="15" customHeight="1">
-      <c r="A220" s="262" t="s">
+      <c r="A220" s="258" t="s">
         <v>1743</v>
       </c>
-      <c r="B220" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C220" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D220" s="250"/>
+      <c r="B220" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C220" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D220" s="247"/>
       <c r="E220" s="227">
         <v>219</v>
       </c>
-      <c r="F220" s="250" t="s">
+      <c r="F220" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G220" s="262" t="s">
+      <c r="G220" s="258" t="s">
         <v>1733</v>
       </c>
-      <c r="H220" s="252" t="s">
+      <c r="H220" s="249" t="s">
         <v>1744</v>
       </c>
-      <c r="I220" s="252" t="s">
+      <c r="I220" s="249" t="s">
         <v>278</v>
       </c>
-      <c r="J220" s="250"/>
-      <c r="K220" s="250"/>
-      <c r="L220" s="278">
+      <c r="J220" s="247"/>
+      <c r="K220" s="272">
         <v>61.125008934314899</v>
       </c>
+      <c r="L220" s="280" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M220" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N220" s="274"/>
     </row>
     <row r="221" spans="1:14" ht="15" customHeight="1">
-      <c r="A221" s="262" t="s">
+      <c r="A221" s="258" t="s">
         <v>1750</v>
       </c>
-      <c r="B221" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C221" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D221" s="250"/>
+      <c r="B221" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C221" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D221" s="247"/>
       <c r="E221" s="227">
         <v>220</v>
       </c>
-      <c r="F221" s="250" t="s">
+      <c r="F221" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G221" s="262" t="s">
+      <c r="G221" s="258" t="s">
         <v>1733</v>
       </c>
-      <c r="H221" s="252" t="s">
+      <c r="H221" s="249" t="s">
         <v>1751</v>
       </c>
-      <c r="I221" s="252" t="s">
+      <c r="I221" s="249" t="s">
         <v>278</v>
       </c>
-      <c r="J221" s="250"/>
-      <c r="K221" s="250"/>
-      <c r="L221" s="278">
+      <c r="J221" s="247"/>
+      <c r="K221" s="272">
         <v>63.3836037452648</v>
       </c>
+      <c r="L221" s="280" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M221" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N221" s="274"/>
     </row>
     <row r="222" spans="1:14" ht="15" customHeight="1">
-      <c r="A222" s="262" t="s">
+      <c r="A222" s="258" t="s">
         <v>1755</v>
       </c>
-      <c r="B222" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C222" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D222" s="250"/>
+      <c r="B222" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C222" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D222" s="247"/>
       <c r="E222" s="227">
         <v>221</v>
       </c>
-      <c r="F222" s="250" t="s">
+      <c r="F222" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G222" s="262" t="s">
+      <c r="G222" s="258" t="s">
         <v>1733</v>
       </c>
-      <c r="H222" s="252" t="s">
+      <c r="H222" s="249" t="s">
         <v>1756</v>
       </c>
-      <c r="I222" s="252" t="s">
+      <c r="I222" s="249" t="s">
         <v>278</v>
       </c>
-      <c r="J222" s="250"/>
-      <c r="K222" s="250"/>
-      <c r="L222" s="278">
+      <c r="J222" s="247"/>
+      <c r="K222" s="272">
         <v>58.551926238296097</v>
       </c>
+      <c r="L222" s="280" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M222" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N222" s="274"/>
     </row>
     <row r="223" spans="1:14" ht="15" customHeight="1">
-      <c r="A223" s="262" t="s">
+      <c r="A223" s="258" t="s">
         <v>1759</v>
       </c>
-      <c r="B223" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C223" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D223" s="250"/>
+      <c r="B223" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C223" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D223" s="247"/>
       <c r="E223" s="227">
         <v>222</v>
       </c>
-      <c r="F223" s="250" t="s">
+      <c r="F223" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G223" s="262" t="s">
+      <c r="G223" s="258" t="s">
         <v>1733</v>
       </c>
-      <c r="H223" s="252" t="s">
+      <c r="H223" s="249" t="s">
         <v>1760</v>
       </c>
-      <c r="I223" s="252" t="s">
+      <c r="I223" s="249" t="s">
         <v>278</v>
       </c>
-      <c r="J223" s="250"/>
-      <c r="K223" s="250"/>
-      <c r="L223" s="278">
+      <c r="J223" s="247"/>
+      <c r="K223" s="272">
         <v>56.722178543349301</v>
       </c>
+      <c r="L223" s="280" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M223" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N223" s="274"/>
     </row>
     <row r="224" spans="1:14" ht="15" customHeight="1">
-      <c r="A224" s="262" t="s">
+      <c r="A224" s="258" t="s">
         <v>1763</v>
       </c>
-      <c r="B224" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C224" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D224" s="250"/>
+      <c r="B224" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C224" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D224" s="247"/>
       <c r="E224" s="227">
         <v>223</v>
       </c>
-      <c r="F224" s="250" t="s">
+      <c r="F224" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G224" s="262" t="s">
+      <c r="G224" s="258" t="s">
         <v>1733</v>
       </c>
-      <c r="H224" s="252" t="s">
+      <c r="H224" s="249" t="s">
         <v>1764</v>
       </c>
-      <c r="I224" s="252" t="s">
+      <c r="I224" s="249" t="s">
         <v>278</v>
       </c>
-      <c r="J224" s="250"/>
-      <c r="K224" s="250"/>
-      <c r="L224" s="278">
+      <c r="J224" s="247"/>
+      <c r="K224" s="272">
         <v>62.954756629261702</v>
       </c>
+      <c r="L224" s="280" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M224" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N224" s="274"/>
     </row>
     <row r="225" spans="1:14" ht="15" customHeight="1">
-      <c r="A225" s="262" t="s">
+      <c r="A225" s="258" t="s">
         <v>1765</v>
       </c>
-      <c r="B225" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C225" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D225" s="250"/>
+      <c r="B225" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C225" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D225" s="247"/>
       <c r="E225" s="227">
         <v>224</v>
       </c>
-      <c r="F225" s="250" t="s">
+      <c r="F225" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G225" s="262" t="s">
+      <c r="G225" s="258" t="s">
         <v>1733</v>
       </c>
-      <c r="H225" s="252" t="s">
+      <c r="H225" s="249" t="s">
         <v>1766</v>
       </c>
-      <c r="I225" s="252" t="s">
+      <c r="I225" s="249" t="s">
         <v>205</v>
       </c>
-      <c r="J225" s="250"/>
-      <c r="K225" s="250"/>
-      <c r="L225" s="278">
+      <c r="J225" s="247"/>
+      <c r="K225" s="272">
         <v>97.984418554785194</v>
       </c>
+      <c r="L225" s="280" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M225" s="274" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N225" s="274"/>
     </row>
     <row r="226" spans="1:14" ht="15" customHeight="1">
-      <c r="A226" s="262" t="s">
+      <c r="A226" s="258" t="s">
         <v>1770</v>
       </c>
-      <c r="B226" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C226" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D226" s="250"/>
+      <c r="B226" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C226" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D226" s="247"/>
       <c r="E226" s="227">
         <v>225</v>
       </c>
-      <c r="F226" s="250" t="s">
+      <c r="F226" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G226" s="262" t="s">
+      <c r="G226" s="258" t="s">
         <v>1769</v>
       </c>
-      <c r="H226" s="252" t="s">
+      <c r="H226" s="249" t="s">
         <v>1771</v>
       </c>
-      <c r="I226" s="252" t="s">
+      <c r="I226" s="249" t="s">
         <v>1772</v>
       </c>
-      <c r="J226" s="250"/>
-      <c r="K226" s="250"/>
-      <c r="L226" s="278">
+      <c r="J226" s="247"/>
+      <c r="K226" s="272">
         <v>21.442355800157198</v>
       </c>
-      <c r="M226" s="280" t="s">
+      <c r="L226" s="274" t="s">
         <v>2817</v>
       </c>
-      <c r="N226" s="280" t="s">
+      <c r="M226" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N226" s="274" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="227" spans="1:14" ht="15" customHeight="1">
-      <c r="A227" s="262" t="s">
+      <c r="A227" s="258" t="s">
         <v>1777</v>
       </c>
-      <c r="B227" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C227" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D227" s="250"/>
+      <c r="B227" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C227" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D227" s="247"/>
       <c r="E227" s="227">
         <v>226</v>
       </c>
-      <c r="F227" s="250" t="s">
+      <c r="F227" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G227" s="262" t="s">
+      <c r="G227" s="258" t="s">
         <v>1769</v>
       </c>
-      <c r="H227" s="252" t="s">
+      <c r="H227" s="249" t="s">
         <v>1778</v>
       </c>
-      <c r="I227" s="252" t="s">
+      <c r="I227" s="249" t="s">
         <v>1772</v>
       </c>
-      <c r="J227" s="250"/>
-      <c r="K227" s="265" t="s">
+      <c r="J227" s="260" t="s">
         <v>720</v>
       </c>
-      <c r="L227" s="278">
+      <c r="K227" s="272">
         <v>63.104853119862803</v>
       </c>
-      <c r="M227" s="280" t="s">
+      <c r="L227" s="274" t="s">
         <v>2817</v>
       </c>
-      <c r="N227" s="280" t="s">
+      <c r="M227" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N227" s="274" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="228" spans="1:14" ht="15" customHeight="1">
-      <c r="A228" s="262" t="s">
+      <c r="A228" s="258" t="s">
         <v>1779</v>
       </c>
-      <c r="B228" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C228" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D228" s="250"/>
+      <c r="B228" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C228" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D228" s="247"/>
       <c r="E228" s="227">
         <v>227</v>
       </c>
-      <c r="F228" s="250" t="s">
+      <c r="F228" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G228" s="262" t="s">
+      <c r="G228" s="258" t="s">
         <v>1769</v>
       </c>
-      <c r="H228" s="252" t="s">
+      <c r="H228" s="249" t="s">
         <v>1780</v>
       </c>
-      <c r="I228" s="252" t="s">
+      <c r="I228" s="249" t="s">
         <v>1772</v>
       </c>
-      <c r="J228" s="253"/>
-      <c r="K228" s="250"/>
-      <c r="L228" s="278">
+      <c r="J228" s="247"/>
+      <c r="K228" s="272">
         <v>59.774140518905</v>
       </c>
-      <c r="M228" s="280" t="s">
+      <c r="L228" s="274" t="s">
         <v>2817</v>
       </c>
-      <c r="N228" s="280" t="s">
+      <c r="M228" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N228" s="274" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="229" spans="1:14" ht="15" customHeight="1">
-      <c r="A229" s="262" t="s">
+      <c r="A229" s="258" t="s">
         <v>1782</v>
       </c>
-      <c r="B229" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C229" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D229" s="250"/>
+      <c r="B229" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C229" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D229" s="247"/>
       <c r="E229" s="227">
         <v>228</v>
       </c>
-      <c r="F229" s="250" t="s">
+      <c r="F229" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G229" s="262" t="s">
+      <c r="G229" s="258" t="s">
         <v>1781</v>
       </c>
-      <c r="H229" s="250" t="s">
+      <c r="H229" s="247" t="s">
         <v>1783</v>
       </c>
-      <c r="I229" s="250" t="s">
+      <c r="I229" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="J229" s="250"/>
-      <c r="K229" s="250"/>
-      <c r="L229" s="278">
+      <c r="J229" s="247"/>
+      <c r="K229" s="272">
         <v>87.284683010506797</v>
       </c>
-      <c r="M229" s="280" t="s">
+      <c r="L229" s="274" t="s">
         <v>2822</v>
       </c>
-      <c r="N229" s="280" t="s">
+      <c r="M229" s="274" t="s">
         <v>1667</v>
       </c>
+      <c r="N229" s="274"/>
     </row>
     <row r="230" spans="1:14" ht="15" customHeight="1">
-      <c r="A230" s="262" t="s">
+      <c r="A230" s="258" t="s">
         <v>1875</v>
       </c>
-      <c r="B230" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C230" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D230" s="250"/>
+      <c r="B230" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C230" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D230" s="247"/>
       <c r="E230" s="227">
         <v>229</v>
       </c>
-      <c r="F230" s="250" t="s">
+      <c r="F230" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G230" s="262" t="s">
+      <c r="G230" s="258" t="s">
         <v>1872</v>
       </c>
-      <c r="H230" s="250" t="s">
+      <c r="H230" s="247" t="s">
         <v>1876</v>
       </c>
-      <c r="I230" s="250" t="s">
+      <c r="I230" s="247" t="s">
         <v>741</v>
       </c>
-      <c r="J230" s="253"/>
-      <c r="K230" s="250" t="s">
+      <c r="J230" s="247" t="s">
         <v>720</v>
       </c>
-      <c r="L230" s="278">
+      <c r="K230" s="272">
         <v>100</v>
       </c>
+      <c r="L230" s="274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M230" s="274" t="s">
+        <v>2812</v>
+      </c>
+      <c r="N230" s="274"/>
     </row>
     <row r="231" spans="1:14" ht="15" customHeight="1">
-      <c r="A231" s="262" t="s">
+      <c r="A231" s="258" t="s">
         <v>1956</v>
       </c>
-      <c r="B231" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C231" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D231" s="250"/>
+      <c r="B231" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C231" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D231" s="247"/>
       <c r="E231" s="227">
         <v>230</v>
       </c>
-      <c r="F231" s="250" t="s">
+      <c r="F231" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G231" s="262" t="s">
+      <c r="G231" s="258" t="s">
         <v>1955</v>
       </c>
-      <c r="H231" s="250" t="s">
+      <c r="H231" s="247" t="s">
         <v>1957</v>
       </c>
-      <c r="I231" s="250" t="s">
+      <c r="I231" s="247" t="s">
         <v>1610</v>
       </c>
-      <c r="J231" s="263"/>
-      <c r="K231" s="250"/>
-      <c r="L231" s="278">
+      <c r="J231" s="247"/>
+      <c r="K231" s="272">
         <v>91.580301622471595</v>
       </c>
+      <c r="L231" s="274" t="s">
+        <v>2837</v>
+      </c>
+      <c r="M231" s="274" t="s">
+        <v>2812</v>
+      </c>
+      <c r="N231" s="274"/>
     </row>
     <row r="232" spans="1:14" ht="15" customHeight="1">
-      <c r="A232" s="262" t="s">
+      <c r="A232" s="258" t="s">
         <v>1958</v>
       </c>
-      <c r="B232" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C232" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D232" s="250"/>
+      <c r="B232" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C232" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D232" s="247"/>
       <c r="E232" s="227">
         <v>231</v>
       </c>
-      <c r="F232" s="250" t="s">
+      <c r="F232" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G232" s="262" t="s">
+      <c r="G232" s="258" t="s">
         <v>1955</v>
       </c>
-      <c r="H232" s="250" t="s">
+      <c r="H232" s="247" t="s">
         <v>1959</v>
       </c>
-      <c r="I232" s="250" t="s">
+      <c r="I232" s="247" t="s">
         <v>1960</v>
       </c>
-      <c r="J232" s="263"/>
-      <c r="K232" s="250"/>
-      <c r="L232" s="278">
+      <c r="J232" s="247"/>
+      <c r="K232" s="272">
         <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:14" ht="15" customHeight="1">
-      <c r="A233" s="262" t="s">
+      <c r="A233" s="258" t="s">
         <v>1961</v>
       </c>
-      <c r="B233" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="C233" s="250" t="s">
-        <v>120</v>
-      </c>
-      <c r="D233" s="250"/>
+      <c r="B233" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C233" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D233" s="247"/>
       <c r="E233" s="227">
         <v>232</v>
       </c>
-      <c r="F233" s="250" t="s">
+      <c r="F233" s="247" t="s">
         <v>1664</v>
       </c>
-      <c r="G233" s="262" t="s">
+      <c r="G233" s="258" t="s">
         <v>1955</v>
       </c>
-      <c r="H233" s="250" t="s">
+      <c r="H233" s="247" t="s">
         <v>1962</v>
       </c>
-      <c r="I233" s="250" t="s">
+      <c r="I233" s="247" t="s">
         <v>1963</v>
       </c>
-      <c r="J233" s="263"/>
-      <c r="K233" s="250"/>
-      <c r="L233" s="278">
+      <c r="J233" s="247"/>
+      <c r="K233" s="272">
         <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:14" ht="15" customHeight="1">
-      <c r="A234" s="257" t="s">
+      <c r="A234" s="254" t="s">
         <v>2194</v>
       </c>
-      <c r="B234" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="C234" s="250" t="s">
+      <c r="B234" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="C234" s="247" t="s">
         <v>121</v>
       </c>
-      <c r="D234" s="277"/>
+      <c r="D234" s="271"/>
       <c r="E234" s="227">
         <v>233</v>
       </c>
-      <c r="F234" s="277" t="s">
+      <c r="F234" s="271" t="s">
         <v>2192</v>
       </c>
-      <c r="G234" s="257" t="s">
+      <c r="G234" s="254" t="s">
         <v>2193</v>
       </c>
-      <c r="H234" s="256" t="s">
+      <c r="H234" s="253" t="s">
         <v>2195</v>
       </c>
-      <c r="I234" s="256" t="s">
+      <c r="I234" s="253" t="s">
         <v>2196</v>
       </c>
-      <c r="J234" s="256" t="s">
+      <c r="J234" s="253" t="s">
         <v>2197</v>
       </c>
-      <c r="K234" s="250"/>
-      <c r="L234" s="278">
+      <c r="K234" s="272">
         <v>97.012365091844799</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N234" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
   <conditionalFormatting sqref="D2:F4 D5:D81 F5:F81 E5:E234">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D107 F82:F107">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D82))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108:D157 F108:F157">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D108))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L234">
+  <conditionalFormatting sqref="K2:K234">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -55845,7 +56491,7 @@
     <dataValidation type="list" allowBlank="1" sqref="B2:B234" xr:uid="{1DAB8B17-2C58-894B-BCE2-974A5C94530B}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J108:J157" xr:uid="{F6F74C40-E385-AF45-A662-EAF2EB8F12C4}">
+    <dataValidation type="list" allowBlank="1" sqref="I133:I157 I110:I131 I108" xr:uid="{F6F74C40-E385-AF45-A662-EAF2EB8F12C4}">
       <formula1>"Numeric,Categorical - radio,Categorical - checkbox,Date,String,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -55858,11 +56504,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EF46C4-B1B3-2646-89A1-3C14D2CF5B92}">
   <dimension ref="A1:B432"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="F324" sqref="F324"/>
+    <sheetView topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="B353" sqref="B353:B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="54.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="144"/>

--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46C340C-F799-0246-A4AF-05C7768D5FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE17C2B5-E106-304E-B5BA-FBEEDEEE1091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47845,10 +47845,10 @@
   <dimension ref="A1:R235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A117" sqref="A117"/>
+      <selection pane="bottomRight" activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -56190,7 +56190,7 @@
       <c r="H200" s="246" t="s">
         <v>1170</v>
       </c>
-      <c r="I200" s="246" t="s">
+      <c r="I200" s="226" t="s">
         <v>1169</v>
       </c>
       <c r="J200" s="246" t="s">

--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF9128-E21C-194E-8010-2A0B9631DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C9EC89-8183-C54F-9BA7-581F3C875EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -670,7 +670,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12266" uniqueCount="2896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12269" uniqueCount="2897">
   <si>
     <t>Tab</t>
   </si>
@@ -11140,6 +11140,9 @@
   </si>
   <si>
     <t>comorbid_preg</t>
+  </si>
+  <si>
+    <t>drug_tera</t>
   </si>
 </sst>
 </file>
@@ -11808,7 +11811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12451,16 +12454,19 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -47787,14 +47793,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S249"/>
+  <dimension ref="A1:S250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M244" sqref="M244"/>
+      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -47870,7 +47875,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -47907,7 +47912,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -47944,7 +47949,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -47981,7 +47986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -48015,7 +48020,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -48049,7 +48054,7 @@
         <v>77.342577371167195</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -48084,7 +48089,7 @@
       </c>
       <c r="N7" s="223"/>
     </row>
-    <row r="8" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -48119,7 +48124,7 @@
       </c>
       <c r="N8" s="223"/>
     </row>
-    <row r="9" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -48154,7 +48159,7 @@
       </c>
       <c r="N9" s="223"/>
     </row>
-    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -48380,7 +48385,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:19" ht="15" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -48468,7 +48473,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:18" ht="15" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -48506,7 +48511,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:18" ht="15" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -48544,7 +48549,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:18" ht="15" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -48582,7 +48587,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:18" ht="15" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -48665,7 +48670,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:18" ht="15" customHeight="1">
       <c r="A22" s="214" t="s">
         <v>269</v>
       </c>
@@ -48708,7 +48713,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:18" ht="15" customHeight="1">
       <c r="A23" s="193" t="s">
         <v>309</v>
       </c>
@@ -48751,7 +48756,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:18" ht="15" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -48794,7 +48799,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:18" ht="15" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -48837,7 +48842,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:18" ht="15" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -48880,7 +48885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="A27" s="193" t="s">
         <v>365</v>
       </c>
@@ -48923,7 +48928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:18" ht="15" customHeight="1">
       <c r="A28" s="193" t="s">
         <v>369</v>
       </c>
@@ -48961,7 +48966,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:18" ht="15" customHeight="1">
       <c r="A29" s="215" t="s">
         <v>372</v>
       </c>
@@ -48999,7 +49004,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="215" t="s">
         <v>374</v>
       </c>
@@ -49038,7 +49043,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:18" ht="15" customHeight="1">
       <c r="A31" s="215" t="s">
         <v>376</v>
       </c>
@@ -49077,7 +49082,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:18" ht="15" customHeight="1">
       <c r="A32" s="215" t="s">
         <v>378</v>
       </c>
@@ -49115,7 +49120,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="193" t="s">
         <v>380</v>
       </c>
@@ -49152,7 +49157,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:16" ht="15" customHeight="1">
       <c r="A34" s="193" t="s">
         <v>382</v>
       </c>
@@ -49191,7 +49196,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:16" ht="15" customHeight="1">
       <c r="A35" s="193" t="s">
         <v>385</v>
       </c>
@@ -49228,7 +49233,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:16" ht="15" customHeight="1">
       <c r="A36" s="216" t="s">
         <v>395</v>
       </c>
@@ -49271,7 +49276,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:16" ht="15" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -49314,7 +49319,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="215" t="s">
         <v>400</v>
       </c>
@@ -49354,7 +49359,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:16" ht="15" customHeight="1">
       <c r="A39" s="193" t="s">
         <v>403</v>
       </c>
@@ -49391,7 +49396,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="40" spans="1:16" ht="15" customHeight="1">
       <c r="A40" s="193" t="s">
         <v>405</v>
       </c>
@@ -49428,7 +49433,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="193" t="s">
         <v>408</v>
       </c>
@@ -49460,7 +49465,7 @@
         <v>98.499035093988994</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:16" ht="15" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -49503,7 +49508,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:16" ht="15" customHeight="1">
       <c r="A43" s="193" t="s">
         <v>416</v>
       </c>
@@ -49548,7 +49553,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:16" ht="15" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -49591,7 +49596,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:16" ht="15" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -49634,7 +49639,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -49677,7 +49682,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="193" t="s">
         <v>454</v>
       </c>
@@ -49720,7 +49725,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="193" t="s">
         <v>457</v>
       </c>
@@ -49757,7 +49762,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:19" ht="15" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2648</v>
       </c>
@@ -49805,7 +49810,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:19" ht="15" customHeight="1">
       <c r="A50" s="193" t="s">
         <v>465</v>
       </c>
@@ -49859,7 +49864,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:19" ht="15" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -49913,7 +49918,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:19" ht="15" customHeight="1">
       <c r="A52" s="193" t="s">
         <v>469</v>
       </c>
@@ -49958,7 +49963,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:19" ht="15" customHeight="1">
       <c r="A53" s="193" t="s">
         <v>472</v>
       </c>
@@ -50001,7 +50006,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:19" ht="15" customHeight="1">
       <c r="A54" s="215" t="s">
         <v>474</v>
       </c>
@@ -50046,7 +50051,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:19" ht="15" customHeight="1">
       <c r="A55" s="215" t="s">
         <v>478</v>
       </c>
@@ -50085,7 +50090,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:19" ht="15" customHeight="1">
       <c r="A56" s="177" t="s">
         <v>482</v>
       </c>
@@ -50125,7 +50130,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:19" ht="15" customHeight="1">
       <c r="A57" s="215" t="s">
         <v>484</v>
       </c>
@@ -50176,7 +50181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:19" ht="15" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -50219,7 +50224,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:19" ht="15" customHeight="1">
       <c r="A59" s="217" t="s">
         <v>490</v>
       </c>
@@ -50264,7 +50269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:19" ht="15" customHeight="1">
       <c r="A60" s="215" t="s">
         <v>493</v>
       </c>
@@ -50307,7 +50312,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:19" ht="15" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -50350,7 +50355,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:19" ht="15" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -50440,7 +50445,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:19" ht="15" customHeight="1">
       <c r="A64" s="215" t="s">
         <v>530</v>
       </c>
@@ -50483,7 +50488,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:16" ht="15" customHeight="1">
       <c r="A65" s="193" t="s">
         <v>533</v>
       </c>
@@ -50526,7 +50531,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:16" ht="15" customHeight="1">
       <c r="A66" s="215" t="s">
         <v>535</v>
       </c>
@@ -50569,7 +50574,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:16" ht="15" customHeight="1">
       <c r="A67" s="215" t="s">
         <v>537</v>
       </c>
@@ -50612,7 +50617,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:16" ht="15" customHeight="1">
       <c r="A68" s="215" t="s">
         <v>539</v>
       </c>
@@ -50655,7 +50660,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:16" ht="15" customHeight="1">
       <c r="A69" s="215" t="s">
         <v>542</v>
       </c>
@@ -50692,7 +50697,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:16" ht="15" customHeight="1">
       <c r="A70" s="215" t="s">
         <v>544</v>
       </c>
@@ -50735,7 +50740,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:16" ht="15" customHeight="1">
       <c r="A71" s="215" t="s">
         <v>546</v>
       </c>
@@ -50778,7 +50783,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:16" ht="15" customHeight="1">
       <c r="A72" s="215" t="s">
         <v>548</v>
       </c>
@@ -50821,7 +50826,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:16" ht="15" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -50864,7 +50869,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="74" spans="1:16" ht="15" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -50907,7 +50912,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="75" spans="1:16" ht="15" customHeight="1">
       <c r="A75" s="215" t="s">
         <v>554</v>
       </c>
@@ -50950,7 +50955,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="76" spans="1:16" ht="15" customHeight="1">
       <c r="A76" s="215" t="s">
         <v>556</v>
       </c>
@@ -50993,7 +50998,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="77" spans="1:16" ht="15" customHeight="1">
       <c r="A77" s="215" t="s">
         <v>558</v>
       </c>
@@ -51036,7 +51041,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="78" spans="1:16" ht="15" customHeight="1">
       <c r="A78" s="215" t="s">
         <v>560</v>
       </c>
@@ -51259,7 +51264,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:19" ht="15" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -51302,7 +51307,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:19" ht="15" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -51339,7 +51344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:19" ht="15" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -51391,7 +51396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:19" ht="15" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -51434,7 +51439,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:19" ht="15" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -51479,7 +51484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:19" ht="15" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -51569,7 +51574,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:19" ht="15" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -51618,7 +51623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:19" ht="15" customHeight="1">
       <c r="A91" s="193" t="s">
         <v>733</v>
       </c>
@@ -51657,7 +51662,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:19" ht="15" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -51753,7 +51758,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:19" ht="15" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -51802,7 +51807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:19" ht="15" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -51853,7 +51858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:19" ht="15" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -51943,7 +51948,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:19" ht="15" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -52037,7 +52042,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:19" ht="15" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -52403,7 +52408,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:19" ht="15" customHeight="1">
       <c r="A108" s="194" t="s">
         <v>791</v>
       </c>
@@ -52446,7 +52451,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:19" ht="15" customHeight="1">
       <c r="A109" s="194" t="s">
         <v>798</v>
       </c>
@@ -52489,7 +52494,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:19" ht="15" customHeight="1">
       <c r="A110" s="194" t="s">
         <v>802</v>
       </c>
@@ -52538,7 +52543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:19" ht="15" customHeight="1">
       <c r="A111" s="194" t="s">
         <v>805</v>
       </c>
@@ -52578,7 +52583,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:19" ht="15" customHeight="1">
       <c r="A112" s="194" t="s">
         <v>809</v>
       </c>
@@ -52620,7 +52625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="113" spans="1:19" ht="15" customHeight="1">
       <c r="A113" s="194" t="s">
         <v>811</v>
       </c>
@@ -52674,7 +52679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="114" spans="1:19" ht="15" customHeight="1">
       <c r="A114" s="194" t="s">
         <v>813</v>
       </c>
@@ -52719,7 +52724,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:19" ht="15" customHeight="1">
       <c r="A115" s="194" t="s">
         <v>815</v>
       </c>
@@ -52761,7 +52766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:19" ht="15" customHeight="1">
       <c r="A116" s="194" t="s">
         <v>829</v>
       </c>
@@ -52815,7 +52820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:19" ht="15" customHeight="1">
       <c r="A117" s="194" t="s">
         <v>832</v>
       </c>
@@ -52857,7 +52862,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:19" ht="15" customHeight="1">
       <c r="A118" s="194" t="s">
         <v>835</v>
       </c>
@@ -52952,7 +52957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:19" ht="15" customHeight="1">
       <c r="A120" s="194" t="s">
         <v>842</v>
       </c>
@@ -52991,7 +52996,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:19" ht="15" customHeight="1">
       <c r="A121" s="194" t="s">
         <v>846</v>
       </c>
@@ -53033,7 +53038,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:19" ht="15" customHeight="1">
       <c r="A122" s="194" t="s">
         <v>850</v>
       </c>
@@ -53087,7 +53092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:19" ht="15" customHeight="1">
       <c r="A123" s="194" t="s">
         <v>852</v>
       </c>
@@ -53129,7 +53134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:19" ht="15" customHeight="1">
       <c r="A124" s="194" t="s">
         <v>854</v>
       </c>
@@ -53171,7 +53176,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:19" ht="15" customHeight="1">
       <c r="A125" s="194" t="s">
         <v>856</v>
       </c>
@@ -53213,7 +53218,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:19" ht="15" customHeight="1">
       <c r="A126" s="194" t="s">
         <v>860</v>
       </c>
@@ -53255,7 +53260,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:19" ht="15" customHeight="1">
       <c r="A127" s="194" t="s">
         <v>864</v>
       </c>
@@ -53297,7 +53302,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:19" ht="15" customHeight="1">
       <c r="A128" s="194" t="s">
         <v>870</v>
       </c>
@@ -53339,7 +53344,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:19" ht="15" customHeight="1">
       <c r="A129" s="194" t="s">
         <v>874</v>
       </c>
@@ -53387,7 +53392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:19" ht="15" customHeight="1">
       <c r="A130" s="194" t="s">
         <v>879</v>
       </c>
@@ -53429,7 +53434,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:19" ht="15" customHeight="1">
       <c r="A131" s="194" t="s">
         <v>881</v>
       </c>
@@ -53477,7 +53482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:19" ht="15" customHeight="1">
       <c r="A132" s="194" t="s">
         <v>885</v>
       </c>
@@ -53525,7 +53530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:19" ht="15" customHeight="1">
       <c r="A133" s="194" t="s">
         <v>890</v>
       </c>
@@ -53567,7 +53572,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:19" ht="15" customHeight="1">
       <c r="A134" s="194" t="s">
         <v>894</v>
       </c>
@@ -53618,7 +53623,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:19" ht="15" customHeight="1">
       <c r="A135" s="194" t="s">
         <v>898</v>
       </c>
@@ -53666,7 +53671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:19" ht="15" customHeight="1">
       <c r="A136" s="194" t="s">
         <v>901</v>
       </c>
@@ -53714,7 +53719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:19" ht="15" customHeight="1">
       <c r="A137" s="194" t="s">
         <v>905</v>
       </c>
@@ -53759,7 +53764,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:19" ht="15" customHeight="1">
       <c r="A138" s="194" t="s">
         <v>909</v>
       </c>
@@ -53858,7 +53863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="140" spans="1:19" ht="15" customHeight="1">
       <c r="A140" s="194" t="s">
         <v>916</v>
       </c>
@@ -53948,7 +53953,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:19" ht="15" customHeight="1">
       <c r="A142" s="194" t="s">
         <v>921</v>
       </c>
@@ -53988,7 +53993,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:19" ht="15" customHeight="1">
       <c r="A143" s="194" t="s">
         <v>924</v>
       </c>
@@ -54031,7 +54036,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:19" ht="15" customHeight="1">
       <c r="A144" s="194" t="s">
         <v>931</v>
       </c>
@@ -54070,7 +54075,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:18" ht="15" customHeight="1">
       <c r="A145" s="194" t="s">
         <v>934</v>
       </c>
@@ -54118,7 +54123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:18" ht="15" customHeight="1">
       <c r="A146" s="194" t="s">
         <v>938</v>
       </c>
@@ -54157,7 +54162,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:18" ht="15" customHeight="1">
       <c r="A147" s="194" t="s">
         <v>941</v>
       </c>
@@ -54205,7 +54210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:18" ht="15" customHeight="1">
       <c r="A148" s="194" t="s">
         <v>945</v>
       </c>
@@ -54244,7 +54249,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:18" ht="15" customHeight="1">
       <c r="A149" s="194" t="s">
         <v>947</v>
       </c>
@@ -54292,7 +54297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="150" spans="1:18" ht="15" customHeight="1">
       <c r="A150" s="194" t="s">
         <v>949</v>
       </c>
@@ -54340,7 +54345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="151" spans="1:18" ht="15" customHeight="1">
       <c r="A151" s="194" t="s">
         <v>960</v>
       </c>
@@ -54383,7 +54388,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="152" spans="1:18" ht="15" customHeight="1">
       <c r="A152" s="194" t="s">
         <v>966</v>
       </c>
@@ -54422,7 +54427,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="153" spans="1:18" ht="15" customHeight="1">
       <c r="A153" s="194" t="s">
         <v>969</v>
       </c>
@@ -54470,7 +54475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="154" spans="1:18" ht="15" customHeight="1">
       <c r="A154" s="194" t="s">
         <v>973</v>
       </c>
@@ -54509,7 +54514,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="155" spans="1:18" ht="15" customHeight="1">
       <c r="A155" s="194" t="s">
         <v>976</v>
       </c>
@@ -54557,7 +54562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="156" spans="1:18" ht="15" customHeight="1">
       <c r="A156" s="194" t="s">
         <v>980</v>
       </c>
@@ -54596,7 +54601,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="157" spans="1:18" ht="15" customHeight="1">
       <c r="A157" s="194" t="s">
         <v>983</v>
       </c>
@@ -54644,7 +54649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="158" spans="1:18" ht="15" customHeight="1">
       <c r="A158" s="207" t="s">
         <v>1663</v>
       </c>
@@ -54678,7 +54683,7 @@
         <v>13.4086198270317</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:18" ht="15" customHeight="1">
       <c r="A159" s="207" t="s">
         <v>1660</v>
       </c>
@@ -54715,7 +54720,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:18" ht="15" customHeight="1">
       <c r="A160" s="207" t="s">
         <v>1658</v>
       </c>
@@ -54804,7 +54809,7 @@
         <v>120</v>
       </c>
       <c r="D162" s="218"/>
-      <c r="E162" s="238" t="s">
+      <c r="E162" s="237" t="s">
         <v>120</v>
       </c>
       <c r="F162" s="177">
@@ -54839,7 +54844,7 @@
       </c>
       <c r="P162" s="223"/>
     </row>
-    <row r="163" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:19" ht="15" customHeight="1">
       <c r="A163" s="203" t="s">
         <v>1042</v>
       </c>
@@ -54877,7 +54882,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:19" ht="15" customHeight="1">
       <c r="A164" s="203" t="s">
         <v>1039</v>
       </c>
@@ -54924,7 +54929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:19" ht="15" customHeight="1">
       <c r="A165" s="207" t="s">
         <v>1632</v>
       </c>
@@ -54956,7 +54961,7 @@
         <v>99.749839182331499</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:19" ht="15" customHeight="1">
       <c r="A166" s="207" t="s">
         <v>1628</v>
       </c>
@@ -54988,7 +54993,7 @@
         <v>99.635479951397301</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:19" ht="15" customHeight="1">
       <c r="A167" s="207" t="s">
         <v>1625</v>
       </c>
@@ -55022,7 +55027,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:19" ht="15" customHeight="1">
       <c r="A168" s="207" t="s">
         <v>1621</v>
       </c>
@@ -55054,7 +55059,7 @@
         <v>98.827817882924705</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:19" ht="15" customHeight="1">
       <c r="A169" s="207" t="s">
         <v>1619</v>
       </c>
@@ -55086,7 +55091,7 @@
         <v>99.849903509398899</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:19" ht="15" customHeight="1">
       <c r="A170" s="207" t="s">
         <v>1616</v>
       </c>
@@ -55118,7 +55123,7 @@
         <v>99.978557644199896</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:19" ht="15" customHeight="1">
       <c r="A171" s="207" t="s">
         <v>1612</v>
       </c>
@@ -55156,7 +55161,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:19" ht="15" customHeight="1">
       <c r="A172" s="203" t="s">
         <v>1522</v>
       </c>
@@ -55197,7 +55202,7 @@
       </c>
       <c r="P172" s="223"/>
     </row>
-    <row r="173" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:19" ht="15" customHeight="1">
       <c r="A173" s="219" t="s">
         <v>1517</v>
       </c>
@@ -55241,7 +55246,7 @@
       </c>
       <c r="P173" s="223"/>
     </row>
-    <row r="174" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:19" ht="15" customHeight="1">
       <c r="A174" s="207" t="s">
         <v>1511</v>
       </c>
@@ -55282,7 +55287,7 @@
       </c>
       <c r="P174" s="223"/>
     </row>
-    <row r="175" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:19" ht="15" customHeight="1">
       <c r="A175" s="219" t="s">
         <v>1508</v>
       </c>
@@ -55326,7 +55331,7 @@
       </c>
       <c r="P175" s="223"/>
     </row>
-    <row r="176" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:19" ht="15" customHeight="1">
       <c r="A176" s="219" t="s">
         <v>1504</v>
       </c>
@@ -55370,7 +55375,7 @@
       </c>
       <c r="P176" s="223"/>
     </row>
-    <row r="177" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="177" spans="1:16" ht="15" customHeight="1">
       <c r="A177" s="219" t="s">
         <v>1490</v>
       </c>
@@ -55414,7 +55419,7 @@
       </c>
       <c r="P177" s="223"/>
     </row>
-    <row r="178" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="178" spans="1:16" ht="15" customHeight="1">
       <c r="A178" s="219" t="s">
         <v>1475</v>
       </c>
@@ -55458,7 +55463,7 @@
       </c>
       <c r="P178" s="223"/>
     </row>
-    <row r="179" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="179" spans="1:16" ht="15" customHeight="1">
       <c r="A179" s="219" t="s">
         <v>1459</v>
       </c>
@@ -55502,7 +55507,7 @@
       </c>
       <c r="P179" s="223"/>
     </row>
-    <row r="180" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="180" spans="1:16" ht="15" customHeight="1">
       <c r="A180" s="219" t="s">
         <v>1445</v>
       </c>
@@ -55546,7 +55551,7 @@
       </c>
       <c r="P180" s="223"/>
     </row>
-    <row r="181" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="181" spans="1:16" ht="15" customHeight="1">
       <c r="A181" s="219" t="s">
         <v>1441</v>
       </c>
@@ -55590,7 +55595,7 @@
       </c>
       <c r="P181" s="223"/>
     </row>
-    <row r="182" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:16" ht="15" customHeight="1">
       <c r="A182" s="219" t="s">
         <v>1429</v>
       </c>
@@ -55634,7 +55639,7 @@
       </c>
       <c r="P182" s="223"/>
     </row>
-    <row r="183" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="183" spans="1:16" ht="15" customHeight="1">
       <c r="A183" s="207" t="s">
         <v>1419</v>
       </c>
@@ -55675,7 +55680,7 @@
       </c>
       <c r="P183" s="223"/>
     </row>
-    <row r="184" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="184" spans="1:16" ht="15" customHeight="1">
       <c r="A184" s="219" t="s">
         <v>1416</v>
       </c>
@@ -55719,7 +55724,7 @@
       </c>
       <c r="P184" s="223"/>
     </row>
-    <row r="185" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="185" spans="1:16" ht="15" customHeight="1">
       <c r="A185" s="219" t="s">
         <v>1412</v>
       </c>
@@ -55763,7 +55768,7 @@
       </c>
       <c r="P185" s="223"/>
     </row>
-    <row r="186" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="186" spans="1:16" ht="15" customHeight="1">
       <c r="A186" s="219" t="s">
         <v>1396</v>
       </c>
@@ -55807,7 +55812,7 @@
       </c>
       <c r="P186" s="223"/>
     </row>
-    <row r="187" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="187" spans="1:16" ht="15" customHeight="1">
       <c r="A187" s="219" t="s">
         <v>1380</v>
       </c>
@@ -55851,7 +55856,7 @@
       </c>
       <c r="P187" s="223"/>
     </row>
-    <row r="188" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="188" spans="1:16" ht="15" customHeight="1">
       <c r="A188" s="219" t="s">
         <v>1362</v>
       </c>
@@ -55895,7 +55900,7 @@
       </c>
       <c r="P188" s="223"/>
     </row>
-    <row r="189" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="189" spans="1:16" ht="15" customHeight="1">
       <c r="A189" s="219" t="s">
         <v>1345</v>
       </c>
@@ -55939,7 +55944,7 @@
       </c>
       <c r="P189" s="223"/>
     </row>
-    <row r="190" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="190" spans="1:16" ht="15" customHeight="1">
       <c r="A190" s="219" t="s">
         <v>1335</v>
       </c>
@@ -55983,7 +55988,7 @@
       </c>
       <c r="P190" s="223"/>
     </row>
-    <row r="191" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="191" spans="1:16" ht="15" customHeight="1">
       <c r="A191" s="219" t="s">
         <v>1320</v>
       </c>
@@ -56071,7 +56076,7 @@
       </c>
       <c r="P192" s="223"/>
     </row>
-    <row r="193" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="193" spans="1:19" ht="15" customHeight="1">
       <c r="A193" s="203" t="s">
         <v>1189</v>
       </c>
@@ -56115,7 +56120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="194" spans="1:19" ht="15" customHeight="1">
       <c r="A194" s="203" t="s">
         <v>1186</v>
       </c>
@@ -56150,7 +56155,7 @@
       <c r="O194" s="223"/>
       <c r="P194" s="223"/>
     </row>
-    <row r="195" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="195" spans="1:19" ht="15" customHeight="1">
       <c r="A195" s="203" t="s">
         <v>1183</v>
       </c>
@@ -56190,7 +56195,7 @@
       <c r="O195" s="223"/>
       <c r="P195" s="223"/>
     </row>
-    <row r="196" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="196" spans="1:19" ht="15" customHeight="1">
       <c r="A196" s="203" t="s">
         <v>1181</v>
       </c>
@@ -56239,7 +56244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="197" spans="1:19" ht="15" customHeight="1">
       <c r="A197" s="203" t="s">
         <v>1178</v>
       </c>
@@ -56279,7 +56284,7 @@
       <c r="O197" s="223"/>
       <c r="P197" s="223"/>
     </row>
-    <row r="198" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="198" spans="1:19" ht="15" customHeight="1">
       <c r="A198" s="203" t="s">
         <v>1176</v>
       </c>
@@ -56328,7 +56333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="199" spans="1:19" ht="15" customHeight="1">
       <c r="A199" s="207" t="s">
         <v>1174</v>
       </c>
@@ -56370,7 +56375,7 @@
       <c r="O199" s="223"/>
       <c r="P199" s="223"/>
     </row>
-    <row r="200" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="200" spans="1:19" ht="15" customHeight="1">
       <c r="A200" s="207" t="s">
         <v>1171</v>
       </c>
@@ -56412,7 +56417,7 @@
       <c r="O200" s="223"/>
       <c r="P200" s="223"/>
     </row>
-    <row r="201" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="201" spans="1:19" ht="15" customHeight="1">
       <c r="A201" s="207" t="s">
         <v>1165</v>
       </c>
@@ -56461,7 +56466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="202" spans="1:19" ht="15" customHeight="1">
       <c r="A202" s="207" t="s">
         <v>1666</v>
       </c>
@@ -56497,7 +56502,7 @@
       <c r="O202" s="223"/>
       <c r="P202" s="223"/>
     </row>
-    <row r="203" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="203" spans="1:19" ht="15" customHeight="1">
       <c r="A203" s="207" t="s">
         <v>1669</v>
       </c>
@@ -56535,7 +56540,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="204" spans="1:19" ht="15" customHeight="1">
       <c r="A204" s="207" t="s">
         <v>1671</v>
       </c>
@@ -56571,7 +56576,7 @@
       <c r="O204" s="223"/>
       <c r="P204" s="223"/>
     </row>
-    <row r="205" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="205" spans="1:19" ht="15" customHeight="1">
       <c r="A205" s="207" t="s">
         <v>1674</v>
       </c>
@@ -56607,7 +56612,7 @@
       <c r="O205" s="223"/>
       <c r="P205" s="223"/>
     </row>
-    <row r="206" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="206" spans="1:19" ht="15" customHeight="1">
       <c r="A206" s="207" t="s">
         <v>1675</v>
       </c>
@@ -56643,7 +56648,7 @@
       <c r="O206" s="223"/>
       <c r="P206" s="223"/>
     </row>
-    <row r="207" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="207" spans="1:19" ht="15" customHeight="1">
       <c r="A207" s="207" t="s">
         <v>1676</v>
       </c>
@@ -56679,7 +56684,7 @@
       <c r="O207" s="223"/>
       <c r="P207" s="223"/>
     </row>
-    <row r="208" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="208" spans="1:19" ht="15" customHeight="1">
       <c r="A208" s="207" t="s">
         <v>1677</v>
       </c>
@@ -56715,7 +56720,7 @@
       <c r="O208" s="223"/>
       <c r="P208" s="223"/>
     </row>
-    <row r="209" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="209" spans="1:19" ht="15" customHeight="1">
       <c r="A209" s="207" t="s">
         <v>1678</v>
       </c>
@@ -56751,7 +56756,7 @@
       <c r="O209" s="223"/>
       <c r="P209" s="223"/>
     </row>
-    <row r="210" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="210" spans="1:19" ht="15" customHeight="1">
       <c r="A210" s="207" t="s">
         <v>1679</v>
       </c>
@@ -56787,7 +56792,7 @@
       <c r="O210" s="223"/>
       <c r="P210" s="223"/>
     </row>
-    <row r="211" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="211" spans="1:19" ht="15" customHeight="1">
       <c r="A211" s="207" t="s">
         <v>1683</v>
       </c>
@@ -56821,7 +56826,7 @@
       <c r="O211" s="223"/>
       <c r="P211" s="223"/>
     </row>
-    <row r="212" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="212" spans="1:19" ht="15" customHeight="1">
       <c r="A212" s="203" t="s">
         <v>1690</v>
       </c>
@@ -56872,7 +56877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="213" spans="1:19" ht="15" customHeight="1">
       <c r="A213" s="207" t="s">
         <v>1693</v>
       </c>
@@ -56906,7 +56911,7 @@
       <c r="O213" s="223"/>
       <c r="P213" s="223"/>
     </row>
-    <row r="214" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="214" spans="1:19" ht="15" customHeight="1">
       <c r="A214" s="207" t="s">
         <v>1697</v>
       </c>
@@ -56993,7 +56998,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="216" spans="1:19" ht="15" customHeight="1">
       <c r="A216" s="207" t="s">
         <v>1719</v>
       </c>
@@ -57091,9 +57096,7 @@
         <v>120</v>
       </c>
       <c r="D218" s="196"/>
-      <c r="E218" s="176" t="s">
-        <v>120</v>
-      </c>
+      <c r="E218" s="176"/>
       <c r="F218" s="177">
         <v>217</v>
       </c>
@@ -57124,7 +57127,7 @@
       </c>
       <c r="P218" s="223"/>
     </row>
-    <row r="219" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="219" spans="1:19" ht="15" customHeight="1">
       <c r="A219" s="207" t="s">
         <v>1736</v>
       </c>
@@ -57135,7 +57138,9 @@
         <v>120</v>
       </c>
       <c r="D219" s="196"/>
-      <c r="E219" s="196"/>
+      <c r="E219" s="176" t="s">
+        <v>120</v>
+      </c>
       <c r="F219" s="177">
         <v>218</v>
       </c>
@@ -57168,7 +57173,7 @@
       </c>
       <c r="P219" s="223"/>
     </row>
-    <row r="220" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="220" spans="1:19" ht="15" customHeight="1">
       <c r="A220" s="207" t="s">
         <v>1743</v>
       </c>
@@ -57208,7 +57213,7 @@
       <c r="O220" s="223"/>
       <c r="P220" s="223"/>
     </row>
-    <row r="221" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="221" spans="1:19" ht="15" customHeight="1">
       <c r="A221" s="207" t="s">
         <v>1750</v>
       </c>
@@ -57248,7 +57253,7 @@
       <c r="O221" s="223"/>
       <c r="P221" s="223"/>
     </row>
-    <row r="222" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="222" spans="1:19" ht="15" customHeight="1">
       <c r="A222" s="207" t="s">
         <v>1755</v>
       </c>
@@ -57288,7 +57293,7 @@
       <c r="O222" s="223"/>
       <c r="P222" s="223"/>
     </row>
-    <row r="223" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="223" spans="1:19" ht="15" customHeight="1">
       <c r="A223" s="207" t="s">
         <v>1759</v>
       </c>
@@ -57328,7 +57333,7 @@
       <c r="O223" s="223"/>
       <c r="P223" s="223"/>
     </row>
-    <row r="224" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="224" spans="1:19" ht="15" customHeight="1">
       <c r="A224" s="207" t="s">
         <v>1763</v>
       </c>
@@ -57368,7 +57373,7 @@
       <c r="O224" s="223"/>
       <c r="P224" s="223"/>
     </row>
-    <row r="225" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="225" spans="1:18" ht="15" customHeight="1">
       <c r="A225" s="207" t="s">
         <v>1765</v>
       </c>
@@ -57408,7 +57413,7 @@
       <c r="O225" s="223"/>
       <c r="P225" s="223"/>
     </row>
-    <row r="226" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="226" spans="1:18" ht="15" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -57460,7 +57465,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="227" spans="1:18" ht="15" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -57514,7 +57519,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="228" spans="1:18" ht="15" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -57608,7 +57613,7 @@
       <c r="O229" s="223"/>
       <c r="P229" s="223"/>
     </row>
-    <row r="230" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="230" spans="1:18" ht="15" customHeight="1">
       <c r="A230" s="207" t="s">
         <v>1875</v>
       </c>
@@ -57650,7 +57655,7 @@
       <c r="O230" s="223"/>
       <c r="P230" s="223"/>
     </row>
-    <row r="231" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="231" spans="1:18" ht="15" customHeight="1">
       <c r="A231" s="207" t="s">
         <v>1956</v>
       </c>
@@ -57690,7 +57695,7 @@
       <c r="O231" s="223"/>
       <c r="P231" s="223"/>
     </row>
-    <row r="232" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="232" spans="1:18" ht="15" customHeight="1">
       <c r="A232" s="207" t="s">
         <v>1958</v>
       </c>
@@ -57722,7 +57727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="233" spans="1:18" ht="15" customHeight="1">
       <c r="A233" s="207" t="s">
         <v>1961</v>
       </c>
@@ -57754,7 +57759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="234" spans="1:18" ht="15" customHeight="1">
       <c r="A234" s="203" t="s">
         <v>2194</v>
       </c>
@@ -57788,7 +57793,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="235" spans="1:18" ht="15" customHeight="1">
       <c r="A235" s="223" t="s">
         <v>2606</v>
       </c>
@@ -57808,10 +57813,10 @@
       </c>
     </row>
     <row r="236" spans="1:18" ht="15" customHeight="1">
-      <c r="A236" s="237" t="s">
+      <c r="A236" s="236" t="s">
         <v>2880</v>
       </c>
-      <c r="C236" s="236" t="s">
+      <c r="C236" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E236" t="s">
@@ -57819,7 +57824,7 @@
       </c>
     </row>
     <row r="237" spans="1:18" ht="15" customHeight="1">
-      <c r="A237" s="237" t="s">
+      <c r="A237" s="236" t="s">
         <v>2881</v>
       </c>
       <c r="C237" s="232" t="s">
@@ -57836,10 +57841,10 @@
       </c>
     </row>
     <row r="238" spans="1:18" ht="15" customHeight="1">
-      <c r="A238" s="237" t="s">
+      <c r="A238" s="236" t="s">
         <v>2884</v>
       </c>
-      <c r="C238" s="236" t="s">
+      <c r="C238" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E238" t="s">
@@ -57847,7 +57852,7 @@
       </c>
     </row>
     <row r="239" spans="1:18" ht="15" customHeight="1">
-      <c r="A239" s="237" t="s">
+      <c r="A239" s="236" t="s">
         <v>2885</v>
       </c>
       <c r="C239" s="232" t="s">
@@ -57858,10 +57863,10 @@
       </c>
     </row>
     <row r="240" spans="1:18" ht="15" customHeight="1">
-      <c r="A240" s="237" t="s">
+      <c r="A240" s="236" t="s">
         <v>2887</v>
       </c>
-      <c r="C240" s="236" t="s">
+      <c r="C240" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E240" t="s">
@@ -57872,7 +57877,7 @@
       </c>
     </row>
     <row r="241" spans="1:12" ht="15" customHeight="1">
-      <c r="A241" s="237" t="s">
+      <c r="A241" s="236" t="s">
         <v>2888</v>
       </c>
       <c r="C241" s="232" t="s">
@@ -57886,10 +57891,10 @@
       </c>
     </row>
     <row r="242" spans="1:12" ht="15" customHeight="1">
-      <c r="A242" s="237" t="s">
+      <c r="A242" s="236" t="s">
         <v>2889</v>
       </c>
-      <c r="C242" s="236" t="s">
+      <c r="C242" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E242" t="s">
@@ -57900,7 +57905,7 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="15" customHeight="1">
-      <c r="A243" s="237" t="s">
+      <c r="A243" s="236" t="s">
         <v>2890</v>
       </c>
       <c r="C243" s="232" t="s">
@@ -57914,10 +57919,10 @@
       </c>
     </row>
     <row r="244" spans="1:12" ht="15" customHeight="1">
-      <c r="A244" s="237" t="s">
+      <c r="A244" s="236" t="s">
         <v>2823</v>
       </c>
-      <c r="C244" s="236" t="s">
+      <c r="C244" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E244" t="s">
@@ -57928,7 +57933,7 @@
       </c>
     </row>
     <row r="245" spans="1:12" ht="15" customHeight="1">
-      <c r="A245" s="237" t="s">
+      <c r="A245" s="236" t="s">
         <v>2891</v>
       </c>
       <c r="C245" s="232" t="s">
@@ -57942,10 +57947,10 @@
       </c>
     </row>
     <row r="246" spans="1:12" ht="15" customHeight="1">
-      <c r="A246" s="237" t="s">
+      <c r="A246" s="236" t="s">
         <v>2892</v>
       </c>
-      <c r="C246" s="236" t="s">
+      <c r="C246" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E246" t="s">
@@ -57956,10 +57961,10 @@
       </c>
     </row>
     <row r="247" spans="1:12" ht="15" customHeight="1">
-      <c r="A247" s="237" t="s">
+      <c r="A247" s="236" t="s">
         <v>2893</v>
       </c>
-      <c r="C247" s="236" t="s">
+      <c r="C247" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E247" t="s">
@@ -57973,7 +57978,7 @@
       <c r="A248" t="s">
         <v>2894</v>
       </c>
-      <c r="C248" s="236" t="s">
+      <c r="C248" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E248" t="s">
@@ -57984,10 +57989,10 @@
       </c>
     </row>
     <row r="249" spans="1:12" ht="15" customHeight="1">
-      <c r="A249" s="239" t="s">
+      <c r="A249" s="238" t="s">
         <v>2895</v>
       </c>
-      <c r="C249" s="236" t="s">
+      <c r="C249" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E249" t="s">
@@ -57997,14 +58002,19 @@
         <v>33.897942</v>
       </c>
     </row>
+    <row r="250" spans="1:12" ht="15" customHeight="1">
+      <c r="A250" s="239" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C250" s="240" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E250" s="223" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S249" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S249" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
   <conditionalFormatting sqref="D2:G4 D5:E81 G5:G81 F5:F234">
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D2))))</formula>

--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C9EC89-8183-C54F-9BA7-581F3C875EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40C1EA-9B3D-1444-B325-B2D893288DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -670,7 +670,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12269" uniqueCount="2897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12269" uniqueCount="2898">
   <si>
     <t>Tab</t>
   </si>
@@ -11143,6 +11143,24 @@
   </si>
   <si>
     <t>drug_tera</t>
+  </si>
+  <si>
+    <t>0=none
+1= painkiller
+2=anticonvulsivant = teratogenic
+3= anti-nausea
+4=diuretic
+5=anti-hypertensive
+6= sleep medication
+7=antiretrovirals or protease inhibitors (ARV/IP)
+8= antibiotic
+9= anti-depressive
+10=immunosuppressants
+11= inotropes
+777=Other
+555=Unknown
+888=Not measured by the study
+999=Missing</t>
   </si>
 </sst>
 </file>
@@ -11811,7 +11829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12461,12 +12479,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -47796,10 +47808,10 @@
   <dimension ref="A1:S250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49303,7 +49315,7 @@
         <v>398</v>
       </c>
       <c r="J37" s="180" t="s">
-        <v>399</v>
+        <v>2897</v>
       </c>
       <c r="K37" s="176"/>
       <c r="L37" s="221">
@@ -58003,10 +58015,10 @@
       </c>
     </row>
     <row r="250" spans="1:12" ht="15" customHeight="1">
-      <c r="A250" s="239" t="s">
+      <c r="A250" s="238" t="s">
         <v>2896</v>
       </c>
-      <c r="C250" s="240" t="s">
+      <c r="C250" s="232" t="s">
         <v>2879</v>
       </c>
       <c r="E250" s="223" t="s">

--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC012C1-CB73-274E-958A-2EEF6B4E3D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1577F60-6999-9D40-9DA3-3F784AF9D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$T$249</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$T$255</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -591,14 +591,58 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>we need to keep only one
-	-Mabel Carabali
-@mabel.carabali@mail.mcgill.ca Which one do you prefer?
-	-Helen Cerigo
-ch_preterm
-	-Mabel Carabali</t>
+          <t xml:space="preserve">we need to keep only one
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Mabel Carabali
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">@mabel.carabali@mail.mcgill.ca Which one do you prefer?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Helen Cerigo
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ch_preterm
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Mabel Carabali</t>
         </r>
       </text>
     </comment>
@@ -670,7 +714,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12316" uniqueCount="2898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12331" uniqueCount="2903">
   <si>
     <t>Tab</t>
   </si>
@@ -11161,6 +11205,21 @@
 555=Unknown
 888=Not measured by the study
 999=Missing</t>
+  </si>
+  <si>
+    <t>fet_death</t>
+  </si>
+  <si>
+    <t>fet_death_ga</t>
+  </si>
+  <si>
+    <t>czs</t>
+  </si>
+  <si>
+    <t>microcephaly_bin_birth</t>
+  </si>
+  <si>
+    <t>microcephaly_bin_postnatal</t>
   </si>
 </sst>
 </file>
@@ -11829,7 +11888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12481,7 +12540,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -47806,13 +47873,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-  <dimension ref="A1:T250"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B231" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomRight" activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -47889,7 +47957,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1">
+    <row r="2" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -47927,7 +47995,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
+    <row r="3" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -47965,7 +48033,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1">
+    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -48003,7 +48071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1">
+    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -48038,7 +48106,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1">
+    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -48073,7 +48141,7 @@
         <v>77.342577371167195</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1">
+    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -48109,7 +48177,7 @@
       </c>
       <c r="O7" s="223"/>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1">
+    <row r="8" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -48145,7 +48213,7 @@
       </c>
       <c r="O8" s="223"/>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1">
+    <row r="9" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -48181,7 +48249,7 @@
       </c>
       <c r="O9" s="223"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1">
+    <row r="10" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -48420,7 +48488,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1">
+    <row r="15" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -48512,7 +48580,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1">
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -48551,7 +48619,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1">
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -48590,7 +48658,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1">
+    <row r="19" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -48629,7 +48697,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1">
+    <row r="20" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -48716,7 +48784,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1">
+    <row r="22" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="214" t="s">
         <v>269</v>
       </c>
@@ -48760,7 +48828,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1">
+    <row r="23" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="193" t="s">
         <v>309</v>
       </c>
@@ -48804,7 +48872,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1">
+    <row r="24" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -48848,7 +48916,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1">
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -48892,7 +48960,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1">
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -48936,7 +49004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1">
+    <row r="27" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="193" t="s">
         <v>365</v>
       </c>
@@ -48980,7 +49048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1">
+    <row r="28" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="193" t="s">
         <v>369</v>
       </c>
@@ -49019,7 +49087,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1">
+    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="215" t="s">
         <v>372</v>
       </c>
@@ -49058,7 +49126,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1">
+    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="215" t="s">
         <v>374</v>
       </c>
@@ -49098,7 +49166,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1">
+    <row r="31" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="215" t="s">
         <v>376</v>
       </c>
@@ -49138,7 +49206,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1">
+    <row r="32" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="215" t="s">
         <v>378</v>
       </c>
@@ -49177,7 +49245,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1">
+    <row r="33" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="193" t="s">
         <v>380</v>
       </c>
@@ -49215,7 +49283,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1">
+    <row r="34" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="193" t="s">
         <v>382</v>
       </c>
@@ -49255,7 +49323,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1">
+    <row r="35" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="193" t="s">
         <v>385</v>
       </c>
@@ -49293,7 +49361,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1">
+    <row r="36" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="216" t="s">
         <v>395</v>
       </c>
@@ -49337,7 +49405,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1">
+    <row r="37" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -49381,7 +49449,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1">
+    <row r="38" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="215" t="s">
         <v>400</v>
       </c>
@@ -49422,7 +49490,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1">
+    <row r="39" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="193" t="s">
         <v>403</v>
       </c>
@@ -49460,7 +49528,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1">
+    <row r="40" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="193" t="s">
         <v>405</v>
       </c>
@@ -49498,7 +49566,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1">
+    <row r="41" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="193" t="s">
         <v>408</v>
       </c>
@@ -49531,7 +49599,7 @@
         <v>98.499035093988994</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1">
+    <row r="42" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -49575,7 +49643,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1">
+    <row r="43" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="193" t="s">
         <v>416</v>
       </c>
@@ -49621,7 +49689,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1">
+    <row r="44" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -49665,7 +49733,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1">
+    <row r="45" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -49709,7 +49777,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1">
+    <row r="46" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -49753,7 +49821,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1">
+    <row r="47" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="193" t="s">
         <v>454</v>
       </c>
@@ -49797,7 +49865,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1">
+    <row r="48" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="193" t="s">
         <v>457</v>
       </c>
@@ -49835,7 +49903,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" customHeight="1">
+    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2648</v>
       </c>
@@ -49884,7 +49952,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" customHeight="1">
+    <row r="50" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="193" t="s">
         <v>465</v>
       </c>
@@ -49939,7 +50007,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" customHeight="1">
+    <row r="51" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -49994,7 +50062,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" customHeight="1">
+    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="193" t="s">
         <v>469</v>
       </c>
@@ -50040,7 +50108,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" customHeight="1">
+    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="193" t="s">
         <v>472</v>
       </c>
@@ -50084,7 +50152,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15" customHeight="1">
+    <row r="54" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="215" t="s">
         <v>474</v>
       </c>
@@ -50130,7 +50198,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15" customHeight="1">
+    <row r="55" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="215" t="s">
         <v>478</v>
       </c>
@@ -50170,7 +50238,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" customHeight="1">
+    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="177" t="s">
         <v>482</v>
       </c>
@@ -50211,7 +50279,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" customHeight="1">
+    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="215" t="s">
         <v>484</v>
       </c>
@@ -50263,7 +50331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" customHeight="1">
+    <row r="58" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -50307,7 +50375,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" customHeight="1">
+    <row r="59" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="217" t="s">
         <v>490</v>
       </c>
@@ -50353,7 +50421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15" customHeight="1">
+    <row r="60" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="215" t="s">
         <v>493</v>
       </c>
@@ -50397,7 +50465,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15" customHeight="1">
+    <row r="61" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -50441,7 +50509,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15" customHeight="1">
+    <row r="62" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -50535,7 +50603,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15" customHeight="1">
+    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="215" t="s">
         <v>530</v>
       </c>
@@ -50579,7 +50647,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15" customHeight="1">
+    <row r="65" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="193" t="s">
         <v>533</v>
       </c>
@@ -50623,7 +50691,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15" customHeight="1">
+    <row r="66" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="215" t="s">
         <v>535</v>
       </c>
@@ -50667,7 +50735,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15" customHeight="1">
+    <row r="67" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="215" t="s">
         <v>537</v>
       </c>
@@ -50711,7 +50779,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15" customHeight="1">
+    <row r="68" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="215" t="s">
         <v>539</v>
       </c>
@@ -50755,7 +50823,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15" customHeight="1">
+    <row r="69" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="215" t="s">
         <v>542</v>
       </c>
@@ -50793,7 +50861,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15" customHeight="1">
+    <row r="70" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="215" t="s">
         <v>544</v>
       </c>
@@ -50837,7 +50905,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15" customHeight="1">
+    <row r="71" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="215" t="s">
         <v>546</v>
       </c>
@@ -50881,7 +50949,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15" customHeight="1">
+    <row r="72" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="215" t="s">
         <v>548</v>
       </c>
@@ -50925,7 +50993,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15" customHeight="1">
+    <row r="73" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -50969,7 +51037,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15" customHeight="1">
+    <row r="74" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -51013,7 +51081,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" customHeight="1">
+    <row r="75" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="215" t="s">
         <v>554</v>
       </c>
@@ -51057,7 +51125,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15" customHeight="1">
+    <row r="76" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="215" t="s">
         <v>556</v>
       </c>
@@ -51101,7 +51169,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15" customHeight="1">
+    <row r="77" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="215" t="s">
         <v>558</v>
       </c>
@@ -51145,7 +51213,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15" customHeight="1">
+    <row r="78" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="215" t="s">
         <v>560</v>
       </c>
@@ -51381,7 +51449,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15" customHeight="1">
+    <row r="83" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -51425,7 +51493,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15" customHeight="1">
+    <row r="84" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -51463,7 +51531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15" customHeight="1">
+    <row r="85" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -51516,7 +51584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15" customHeight="1">
+    <row r="86" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -51560,7 +51628,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15" customHeight="1">
+    <row r="87" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -51606,7 +51674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15" customHeight="1">
+    <row r="88" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -51700,7 +51768,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15" customHeight="1">
+    <row r="90" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -51750,7 +51818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15" customHeight="1">
+    <row r="91" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="193" t="s">
         <v>733</v>
       </c>
@@ -51790,7 +51858,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15" customHeight="1">
+    <row r="92" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -51890,7 +51958,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15" customHeight="1">
+    <row r="94" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -51940,7 +52008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15" customHeight="1">
+    <row r="95" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -51992,7 +52060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15" customHeight="1">
+    <row r="96" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -52086,7 +52154,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15" customHeight="1">
+    <row r="98" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -52184,7 +52252,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15" customHeight="1">
+    <row r="100" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -52572,7 +52640,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15" customHeight="1">
+    <row r="108" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="194" t="s">
         <v>791</v>
       </c>
@@ -52616,7 +52684,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15" customHeight="1">
+    <row r="109" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="194" t="s">
         <v>798</v>
       </c>
@@ -52660,7 +52728,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15" customHeight="1">
+    <row r="110" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="194" t="s">
         <v>802</v>
       </c>
@@ -52710,7 +52778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15" customHeight="1">
+    <row r="111" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="194" t="s">
         <v>805</v>
       </c>
@@ -52751,7 +52819,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15" customHeight="1">
+    <row r="112" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="194" t="s">
         <v>809</v>
       </c>
@@ -52794,7 +52862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15" customHeight="1">
+    <row r="113" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="194" t="s">
         <v>811</v>
       </c>
@@ -52849,7 +52917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15" customHeight="1">
+    <row r="114" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="194" t="s">
         <v>813</v>
       </c>
@@ -52895,7 +52963,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15" customHeight="1">
+    <row r="115" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="194" t="s">
         <v>815</v>
       </c>
@@ -52938,7 +53006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15" customHeight="1">
+    <row r="116" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="194" t="s">
         <v>829</v>
       </c>
@@ -52993,7 +53061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15" customHeight="1">
+    <row r="117" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="194" t="s">
         <v>832</v>
       </c>
@@ -53036,7 +53104,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15" customHeight="1">
+    <row r="118" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="194" t="s">
         <v>835</v>
       </c>
@@ -53135,7 +53203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15" customHeight="1">
+    <row r="120" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="194" t="s">
         <v>842</v>
       </c>
@@ -53175,7 +53243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15" customHeight="1">
+    <row r="121" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="194" t="s">
         <v>846</v>
       </c>
@@ -53218,7 +53286,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15" customHeight="1">
+    <row r="122" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="194" t="s">
         <v>850</v>
       </c>
@@ -53273,7 +53341,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15" customHeight="1">
+    <row r="123" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="194" t="s">
         <v>852</v>
       </c>
@@ -53316,7 +53384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15" customHeight="1">
+    <row r="124" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="194" t="s">
         <v>854</v>
       </c>
@@ -53359,7 +53427,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15" customHeight="1">
+    <row r="125" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="194" t="s">
         <v>856</v>
       </c>
@@ -53402,7 +53470,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15" customHeight="1">
+    <row r="126" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="194" t="s">
         <v>860</v>
       </c>
@@ -53445,7 +53513,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15" customHeight="1">
+    <row r="127" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="194" t="s">
         <v>864</v>
       </c>
@@ -53488,7 +53556,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15" customHeight="1">
+    <row r="128" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="194" t="s">
         <v>870</v>
       </c>
@@ -53531,7 +53599,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15" customHeight="1">
+    <row r="129" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="194" t="s">
         <v>874</v>
       </c>
@@ -53580,7 +53648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15" customHeight="1">
+    <row r="130" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="194" t="s">
         <v>879</v>
       </c>
@@ -53623,7 +53691,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15" customHeight="1">
+    <row r="131" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="194" t="s">
         <v>881</v>
       </c>
@@ -53672,7 +53740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15" customHeight="1">
+    <row r="132" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="194" t="s">
         <v>885</v>
       </c>
@@ -53721,7 +53789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15" customHeight="1">
+    <row r="133" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="194" t="s">
         <v>890</v>
       </c>
@@ -53764,7 +53832,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15" customHeight="1">
+    <row r="134" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="194" t="s">
         <v>894</v>
       </c>
@@ -53816,7 +53884,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15" customHeight="1">
+    <row r="135" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="194" t="s">
         <v>898</v>
       </c>
@@ -53865,7 +53933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15" customHeight="1">
+    <row r="136" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="194" t="s">
         <v>901</v>
       </c>
@@ -53914,7 +53982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15" customHeight="1">
+    <row r="137" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="194" t="s">
         <v>905</v>
       </c>
@@ -53960,7 +54028,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15" customHeight="1">
+    <row r="138" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="194" t="s">
         <v>909</v>
       </c>
@@ -54063,7 +54131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15" customHeight="1">
+    <row r="140" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="194" t="s">
         <v>916</v>
       </c>
@@ -54157,7 +54225,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15" customHeight="1">
+    <row r="142" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="194" t="s">
         <v>921</v>
       </c>
@@ -54198,7 +54266,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15" customHeight="1">
+    <row r="143" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="194" t="s">
         <v>924</v>
       </c>
@@ -54242,7 +54310,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15" customHeight="1">
+    <row r="144" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="194" t="s">
         <v>931</v>
       </c>
@@ -54282,7 +54350,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="15" customHeight="1">
+    <row r="145" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="194" t="s">
         <v>934</v>
       </c>
@@ -54331,7 +54399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="15" customHeight="1">
+    <row r="146" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="194" t="s">
         <v>938</v>
       </c>
@@ -54371,7 +54439,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="15" customHeight="1">
+    <row r="147" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="194" t="s">
         <v>941</v>
       </c>
@@ -54420,7 +54488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="15" customHeight="1">
+    <row r="148" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="194" t="s">
         <v>945</v>
       </c>
@@ -54460,7 +54528,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15" customHeight="1">
+    <row r="149" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="194" t="s">
         <v>947</v>
       </c>
@@ -54509,7 +54577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="15" customHeight="1">
+    <row r="150" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="194" t="s">
         <v>949</v>
       </c>
@@ -54558,7 +54626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="15" customHeight="1">
+    <row r="151" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="194" t="s">
         <v>960</v>
       </c>
@@ -54602,7 +54670,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="15" customHeight="1">
+    <row r="152" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="194" t="s">
         <v>966</v>
       </c>
@@ -54642,7 +54710,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="15" customHeight="1">
+    <row r="153" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="194" t="s">
         <v>969</v>
       </c>
@@ -54691,7 +54759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="15" customHeight="1">
+    <row r="154" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="194" t="s">
         <v>973</v>
       </c>
@@ -54731,7 +54799,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="15" customHeight="1">
+    <row r="155" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="194" t="s">
         <v>976</v>
       </c>
@@ -54780,7 +54848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="15" customHeight="1">
+    <row r="156" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="194" t="s">
         <v>980</v>
       </c>
@@ -54820,7 +54888,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15" customHeight="1">
+    <row r="157" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="194" t="s">
         <v>983</v>
       </c>
@@ -54869,7 +54937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="15" customHeight="1">
+    <row r="158" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A158" s="207" t="s">
         <v>1663</v>
       </c>
@@ -54904,7 +54972,7 @@
         <v>13.4086198270317</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="15" customHeight="1">
+    <row r="159" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="207" t="s">
         <v>1660</v>
       </c>
@@ -54942,7 +55010,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="15" customHeight="1">
+    <row r="160" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="207" t="s">
         <v>1658</v>
       </c>
@@ -55073,7 +55141,7 @@
       </c>
       <c r="Q162" s="223"/>
     </row>
-    <row r="163" spans="1:20" ht="15" customHeight="1">
+    <row r="163" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="203" t="s">
         <v>1042</v>
       </c>
@@ -55112,7 +55180,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15" customHeight="1">
+    <row r="164" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="203" t="s">
         <v>1039</v>
       </c>
@@ -55160,7 +55228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15" customHeight="1">
+    <row r="165" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="207" t="s">
         <v>1632</v>
       </c>
@@ -55193,7 +55261,7 @@
         <v>99.749839182331499</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="15" customHeight="1">
+    <row r="166" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="207" t="s">
         <v>1628</v>
       </c>
@@ -55226,7 +55294,7 @@
         <v>99.635479951397301</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="15" customHeight="1">
+    <row r="167" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="207" t="s">
         <v>1625</v>
       </c>
@@ -55261,7 +55329,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15" customHeight="1">
+    <row r="168" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="207" t="s">
         <v>1621</v>
       </c>
@@ -55294,7 +55362,7 @@
         <v>98.827817882924705</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15" customHeight="1">
+    <row r="169" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="207" t="s">
         <v>1619</v>
       </c>
@@ -55327,7 +55395,7 @@
         <v>99.849903509398899</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15" customHeight="1">
+    <row r="170" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="207" t="s">
         <v>1616</v>
       </c>
@@ -55360,7 +55428,7 @@
         <v>99.978557644199896</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15" customHeight="1">
+    <row r="171" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="207" t="s">
         <v>1612</v>
       </c>
@@ -55399,7 +55467,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15" customHeight="1">
+    <row r="172" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="203" t="s">
         <v>1522</v>
       </c>
@@ -55441,7 +55509,7 @@
       </c>
       <c r="Q172" s="223"/>
     </row>
-    <row r="173" spans="1:20" ht="15" customHeight="1">
+    <row r="173" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="219" t="s">
         <v>1517</v>
       </c>
@@ -55486,7 +55554,7 @@
       </c>
       <c r="Q173" s="223"/>
     </row>
-    <row r="174" spans="1:20" ht="15" customHeight="1">
+    <row r="174" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="207" t="s">
         <v>1511</v>
       </c>
@@ -55528,7 +55596,7 @@
       </c>
       <c r="Q174" s="223"/>
     </row>
-    <row r="175" spans="1:20" ht="15" customHeight="1">
+    <row r="175" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="219" t="s">
         <v>1508</v>
       </c>
@@ -55573,7 +55641,7 @@
       </c>
       <c r="Q175" s="223"/>
     </row>
-    <row r="176" spans="1:20" ht="15" customHeight="1">
+    <row r="176" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="219" t="s">
         <v>1504</v>
       </c>
@@ -55618,7 +55686,7 @@
       </c>
       <c r="Q176" s="223"/>
     </row>
-    <row r="177" spans="1:17" ht="15" customHeight="1">
+    <row r="177" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A177" s="219" t="s">
         <v>1490</v>
       </c>
@@ -55663,7 +55731,7 @@
       </c>
       <c r="Q177" s="223"/>
     </row>
-    <row r="178" spans="1:17" ht="15" customHeight="1">
+    <row r="178" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="219" t="s">
         <v>1475</v>
       </c>
@@ -55708,7 +55776,7 @@
       </c>
       <c r="Q178" s="223"/>
     </row>
-    <row r="179" spans="1:17" ht="15" customHeight="1">
+    <row r="179" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="219" t="s">
         <v>1459</v>
       </c>
@@ -55753,7 +55821,7 @@
       </c>
       <c r="Q179" s="223"/>
     </row>
-    <row r="180" spans="1:17" ht="15" customHeight="1">
+    <row r="180" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="219" t="s">
         <v>1445</v>
       </c>
@@ -55798,7 +55866,7 @@
       </c>
       <c r="Q180" s="223"/>
     </row>
-    <row r="181" spans="1:17" ht="15" customHeight="1">
+    <row r="181" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="219" t="s">
         <v>1441</v>
       </c>
@@ -55843,7 +55911,7 @@
       </c>
       <c r="Q181" s="223"/>
     </row>
-    <row r="182" spans="1:17" ht="15" customHeight="1">
+    <row r="182" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="219" t="s">
         <v>1429</v>
       </c>
@@ -55888,7 +55956,7 @@
       </c>
       <c r="Q182" s="223"/>
     </row>
-    <row r="183" spans="1:17" ht="15" customHeight="1">
+    <row r="183" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="207" t="s">
         <v>1419</v>
       </c>
@@ -55930,7 +55998,7 @@
       </c>
       <c r="Q183" s="223"/>
     </row>
-    <row r="184" spans="1:17" ht="15" customHeight="1">
+    <row r="184" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="219" t="s">
         <v>1416</v>
       </c>
@@ -55975,7 +56043,7 @@
       </c>
       <c r="Q184" s="223"/>
     </row>
-    <row r="185" spans="1:17" ht="15" customHeight="1">
+    <row r="185" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A185" s="219" t="s">
         <v>1412</v>
       </c>
@@ -56020,7 +56088,7 @@
       </c>
       <c r="Q185" s="223"/>
     </row>
-    <row r="186" spans="1:17" ht="15" customHeight="1">
+    <row r="186" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A186" s="219" t="s">
         <v>1396</v>
       </c>
@@ -56065,7 +56133,7 @@
       </c>
       <c r="Q186" s="223"/>
     </row>
-    <row r="187" spans="1:17" ht="15" customHeight="1">
+    <row r="187" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A187" s="219" t="s">
         <v>1380</v>
       </c>
@@ -56110,7 +56178,7 @@
       </c>
       <c r="Q187" s="223"/>
     </row>
-    <row r="188" spans="1:17" ht="15" customHeight="1">
+    <row r="188" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A188" s="219" t="s">
         <v>1362</v>
       </c>
@@ -56155,7 +56223,7 @@
       </c>
       <c r="Q188" s="223"/>
     </row>
-    <row r="189" spans="1:17" ht="15" customHeight="1">
+    <row r="189" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A189" s="219" t="s">
         <v>1345</v>
       </c>
@@ -56200,7 +56268,7 @@
       </c>
       <c r="Q189" s="223"/>
     </row>
-    <row r="190" spans="1:17" ht="15" customHeight="1">
+    <row r="190" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A190" s="219" t="s">
         <v>1335</v>
       </c>
@@ -56245,7 +56313,7 @@
       </c>
       <c r="Q190" s="223"/>
     </row>
-    <row r="191" spans="1:17" ht="15" customHeight="1">
+    <row r="191" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A191" s="219" t="s">
         <v>1320</v>
       </c>
@@ -56337,7 +56405,7 @@
       </c>
       <c r="Q192" s="223"/>
     </row>
-    <row r="193" spans="1:20" ht="15" customHeight="1">
+    <row r="193" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A193" s="203" t="s">
         <v>1189</v>
       </c>
@@ -56382,7 +56450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15" customHeight="1">
+    <row r="194" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A194" s="203" t="s">
         <v>1186</v>
       </c>
@@ -56418,7 +56486,7 @@
       <c r="P194" s="223"/>
       <c r="Q194" s="223"/>
     </row>
-    <row r="195" spans="1:20" ht="15" customHeight="1">
+    <row r="195" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A195" s="203" t="s">
         <v>1183</v>
       </c>
@@ -56459,7 +56527,7 @@
       <c r="P195" s="223"/>
       <c r="Q195" s="223"/>
     </row>
-    <row r="196" spans="1:20" ht="15" customHeight="1">
+    <row r="196" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A196" s="203" t="s">
         <v>1181</v>
       </c>
@@ -56509,7 +56577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="15" customHeight="1">
+    <row r="197" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="203" t="s">
         <v>1178</v>
       </c>
@@ -56550,7 +56618,7 @@
       <c r="P197" s="223"/>
       <c r="Q197" s="223"/>
     </row>
-    <row r="198" spans="1:20" ht="15" customHeight="1">
+    <row r="198" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A198" s="203" t="s">
         <v>1176</v>
       </c>
@@ -56600,7 +56668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="15" customHeight="1">
+    <row r="199" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A199" s="207" t="s">
         <v>1174</v>
       </c>
@@ -56643,7 +56711,7 @@
       <c r="P199" s="223"/>
       <c r="Q199" s="223"/>
     </row>
-    <row r="200" spans="1:20" ht="15" customHeight="1">
+    <row r="200" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A200" s="207" t="s">
         <v>1171</v>
       </c>
@@ -56686,7 +56754,7 @@
       <c r="P200" s="223"/>
       <c r="Q200" s="223"/>
     </row>
-    <row r="201" spans="1:20" ht="15" customHeight="1">
+    <row r="201" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A201" s="207" t="s">
         <v>1165</v>
       </c>
@@ -56736,7 +56804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="15" customHeight="1">
+    <row r="202" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A202" s="207" t="s">
         <v>1666</v>
       </c>
@@ -56773,7 +56841,7 @@
       <c r="P202" s="223"/>
       <c r="Q202" s="223"/>
     </row>
-    <row r="203" spans="1:20" ht="15" customHeight="1">
+    <row r="203" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A203" s="207" t="s">
         <v>1669</v>
       </c>
@@ -56812,7 +56880,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="15" customHeight="1">
+    <row r="204" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A204" s="207" t="s">
         <v>1671</v>
       </c>
@@ -56849,7 +56917,7 @@
       <c r="P204" s="223"/>
       <c r="Q204" s="223"/>
     </row>
-    <row r="205" spans="1:20" ht="15" customHeight="1">
+    <row r="205" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="207" t="s">
         <v>1674</v>
       </c>
@@ -56886,7 +56954,7 @@
       <c r="P205" s="223"/>
       <c r="Q205" s="223"/>
     </row>
-    <row r="206" spans="1:20" ht="15" customHeight="1">
+    <row r="206" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="207" t="s">
         <v>1675</v>
       </c>
@@ -56923,7 +56991,7 @@
       <c r="P206" s="223"/>
       <c r="Q206" s="223"/>
     </row>
-    <row r="207" spans="1:20" ht="15" customHeight="1">
+    <row r="207" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A207" s="207" t="s">
         <v>1676</v>
       </c>
@@ -56960,7 +57028,7 @@
       <c r="P207" s="223"/>
       <c r="Q207" s="223"/>
     </row>
-    <row r="208" spans="1:20" ht="15" customHeight="1">
+    <row r="208" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A208" s="207" t="s">
         <v>1677</v>
       </c>
@@ -56997,7 +57065,7 @@
       <c r="P208" s="223"/>
       <c r="Q208" s="223"/>
     </row>
-    <row r="209" spans="1:20" ht="15" customHeight="1">
+    <row r="209" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="207" t="s">
         <v>1678</v>
       </c>
@@ -57034,7 +57102,7 @@
       <c r="P209" s="223"/>
       <c r="Q209" s="223"/>
     </row>
-    <row r="210" spans="1:20" ht="15" customHeight="1">
+    <row r="210" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="207" t="s">
         <v>1679</v>
       </c>
@@ -57071,7 +57139,7 @@
       <c r="P210" s="223"/>
       <c r="Q210" s="223"/>
     </row>
-    <row r="211" spans="1:20" ht="15" customHeight="1">
+    <row r="211" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="207" t="s">
         <v>1683</v>
       </c>
@@ -57106,7 +57174,7 @@
       <c r="P211" s="223"/>
       <c r="Q211" s="223"/>
     </row>
-    <row r="212" spans="1:20" ht="15" customHeight="1">
+    <row r="212" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="203" t="s">
         <v>1690</v>
       </c>
@@ -57158,7 +57226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="15" customHeight="1">
+    <row r="213" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A213" s="207" t="s">
         <v>1693</v>
       </c>
@@ -57193,7 +57261,7 @@
       <c r="P213" s="223"/>
       <c r="Q213" s="223"/>
     </row>
-    <row r="214" spans="1:20" ht="15" customHeight="1">
+    <row r="214" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A214" s="207" t="s">
         <v>1697</v>
       </c>
@@ -57284,7 +57352,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="15" customHeight="1">
+    <row r="216" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A216" s="207" t="s">
         <v>1719</v>
       </c>
@@ -57375,7 +57443,7 @@
       <c r="P217" s="223"/>
       <c r="Q217" s="223"/>
     </row>
-    <row r="218" spans="1:20" ht="15" customHeight="1">
+    <row r="218" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A218" s="207" t="s">
         <v>1734</v>
       </c>
@@ -57467,7 +57535,7 @@
       </c>
       <c r="Q219" s="223"/>
     </row>
-    <row r="220" spans="1:20" ht="15" customHeight="1">
+    <row r="220" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A220" s="207" t="s">
         <v>1743</v>
       </c>
@@ -57508,7 +57576,7 @@
       <c r="P220" s="223"/>
       <c r="Q220" s="223"/>
     </row>
-    <row r="221" spans="1:20" ht="15" customHeight="1">
+    <row r="221" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A221" s="207" t="s">
         <v>1750</v>
       </c>
@@ -57549,7 +57617,7 @@
       <c r="P221" s="223"/>
       <c r="Q221" s="223"/>
     </row>
-    <row r="222" spans="1:20" ht="15" customHeight="1">
+    <row r="222" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="207" t="s">
         <v>1755</v>
       </c>
@@ -57590,7 +57658,7 @@
       <c r="P222" s="223"/>
       <c r="Q222" s="223"/>
     </row>
-    <row r="223" spans="1:20" ht="15" customHeight="1">
+    <row r="223" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A223" s="207" t="s">
         <v>1759</v>
       </c>
@@ -57631,7 +57699,7 @@
       <c r="P223" s="223"/>
       <c r="Q223" s="223"/>
     </row>
-    <row r="224" spans="1:20" ht="15" customHeight="1">
+    <row r="224" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A224" s="207" t="s">
         <v>1763</v>
       </c>
@@ -57672,7 +57740,7 @@
       <c r="P224" s="223"/>
       <c r="Q224" s="223"/>
     </row>
-    <row r="225" spans="1:19" ht="15" customHeight="1">
+    <row r="225" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="207" t="s">
         <v>1765</v>
       </c>
@@ -57713,7 +57781,7 @@
       <c r="P225" s="223"/>
       <c r="Q225" s="223"/>
     </row>
-    <row r="226" spans="1:19" ht="15" customHeight="1">
+    <row r="226" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -57766,7 +57834,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="15" customHeight="1">
+    <row r="227" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -57821,7 +57889,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="15" customHeight="1">
+    <row r="228" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -57919,7 +57987,7 @@
       <c r="P229" s="223"/>
       <c r="Q229" s="223"/>
     </row>
-    <row r="230" spans="1:19" ht="15" customHeight="1">
+    <row r="230" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="207" t="s">
         <v>1875</v>
       </c>
@@ -57962,7 +58030,7 @@
       <c r="P230" s="223"/>
       <c r="Q230" s="223"/>
     </row>
-    <row r="231" spans="1:19" ht="15" customHeight="1">
+    <row r="231" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A231" s="207" t="s">
         <v>1956</v>
       </c>
@@ -58003,7 +58071,7 @@
       <c r="P231" s="223"/>
       <c r="Q231" s="223"/>
     </row>
-    <row r="232" spans="1:19" ht="15" customHeight="1">
+    <row r="232" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A232" s="207" t="s">
         <v>1958</v>
       </c>
@@ -58036,7 +58104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="15" customHeight="1">
+    <row r="233" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A233" s="207" t="s">
         <v>1961</v>
       </c>
@@ -58069,7 +58137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="15" customHeight="1">
+    <row r="234" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A234" s="203" t="s">
         <v>2194</v>
       </c>
@@ -58104,7 +58172,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15" customHeight="1">
+    <row r="235" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="223" t="s">
         <v>2606</v>
       </c>
@@ -58366,12 +58434,73 @@
       <c r="E250" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="F250" s="239" t="s">
+      <c r="F250" s="225" t="s">
         <v>322</v>
       </c>
     </row>
+    <row r="251" spans="1:13" ht="15" customHeight="1">
+      <c r="A251" s="239" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C251" s="240" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E251" s="223" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="15" customHeight="1">
+      <c r="A252" s="239" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C252" s="240" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E252" s="223" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="15" customHeight="1">
+      <c r="A253" s="239" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C253" s="241" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E253" s="223" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="15" customHeight="1">
+      <c r="A254" s="239" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C254" s="241" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E254" s="223" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="15" customHeight="1">
+      <c r="A255" s="239" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C255" s="241" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E255" s="223" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T249" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
+  <autoFilter ref="A1:T255" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="D2:H4 D5:F81 H5:H81 G5:G234">
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D2))))</formula>

--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1577F60-6999-9D40-9DA3-3F784AF9D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E102E4A-4E37-6143-AE04-F00D4340DD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$T$255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$T$280</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12331" uniqueCount="2903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12327" uniqueCount="2919">
   <si>
     <t>Tab</t>
   </si>
@@ -11150,31 +11150,13 @@
     <t>Robust, moderate, negative</t>
   </si>
   <si>
-    <t>bdeath</t>
-  </si>
-  <si>
-    <t>bdeath_ga</t>
-  </si>
-  <si>
     <t>Imputation considered</t>
   </si>
   <si>
-    <t>neuroabnormality</t>
-  </si>
-  <si>
-    <t>ocularabnormality</t>
-  </si>
-  <si>
     <t>contractures</t>
   </si>
   <si>
-    <t>nonneurologic</t>
-  </si>
-  <si>
     <t>vaccination</t>
-  </si>
-  <si>
-    <t>gen_anomalies</t>
   </si>
   <si>
     <t>denv_preg_ever</t>
@@ -11220,6 +11202,72 @@
   </si>
   <si>
     <t>microcephaly_bin_postnatal</t>
+  </si>
+  <si>
+    <t>maxbirth_ga</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>end_ga</t>
+  </si>
+  <si>
+    <t>hcircm2zscore</t>
+  </si>
+  <si>
+    <t>microcephaly_hc</t>
+  </si>
+  <si>
+    <t>microcephaly</t>
+  </si>
+  <si>
+    <t>microcephaly_ga</t>
+  </si>
+  <si>
+    <t>neuro_abnormality</t>
+  </si>
+  <si>
+    <t>cardio_abnormality</t>
+  </si>
+  <si>
+    <t>gastro_abnormality</t>
+  </si>
+  <si>
+    <t>oro_abnormality</t>
+  </si>
+  <si>
+    <t>ocular_abnormality</t>
+  </si>
+  <si>
+    <t>genur_abnormality</t>
+  </si>
+  <si>
+    <t>nonneuro_abnormality</t>
+  </si>
+  <si>
+    <t>any_abnormality_czs</t>
+  </si>
+  <si>
+    <t>gen_abnormality</t>
+  </si>
+  <si>
+    <t>flavi_alpha_virus</t>
+  </si>
+  <si>
+    <t>storch_patho</t>
+  </si>
+  <si>
+    <t>arb_ever</t>
+  </si>
+  <si>
+    <t>arb_preg</t>
+  </si>
+  <si>
+    <t>arb_preg_nz</t>
+  </si>
+  <si>
+    <t>drug_prescr</t>
   </si>
 </sst>
 </file>
@@ -11888,7 +11936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12540,13 +12588,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -47873,14 +47916,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T255"/>
+  <dimension ref="A1:T280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C256" sqref="C256"/>
+      <selection pane="bottomRight" activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -47911,7 +47953,7 @@
         <v>113</v>
       </c>
       <c r="E1" s="210" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="F1" s="210"/>
       <c r="G1" s="210" t="s">
@@ -47957,7 +47999,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="2" spans="1:20" ht="15" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -47995,7 +48037,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -48033,7 +48075,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:20" ht="15" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -48071,7 +48113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -48106,7 +48148,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -48141,7 +48183,7 @@
         <v>77.342577371167195</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -48177,7 +48219,7 @@
       </c>
       <c r="O7" s="223"/>
     </row>
-    <row r="8" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -48213,7 +48255,7 @@
       </c>
       <c r="O8" s="223"/>
     </row>
-    <row r="9" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:20" ht="15" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -48249,7 +48291,7 @@
       </c>
       <c r="O9" s="223"/>
     </row>
-    <row r="10" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:20" ht="15" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -48488,7 +48530,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -48580,7 +48622,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:19" ht="15" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -48619,7 +48661,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:19" ht="15" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -48658,7 +48700,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:19" ht="15" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -48697,7 +48739,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:19" ht="15" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -48784,7 +48826,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:19" ht="15" customHeight="1">
       <c r="A22" s="214" t="s">
         <v>269</v>
       </c>
@@ -48828,7 +48870,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:19" ht="15" customHeight="1">
       <c r="A23" s="193" t="s">
         <v>309</v>
       </c>
@@ -48872,7 +48914,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:19" ht="15" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -48916,7 +48958,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:19" ht="15" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -48960,7 +49002,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:19" ht="15" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -49004,7 +49046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:19" ht="15" customHeight="1">
       <c r="A27" s="193" t="s">
         <v>365</v>
       </c>
@@ -49048,7 +49090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:19" ht="15" customHeight="1">
       <c r="A28" s="193" t="s">
         <v>369</v>
       </c>
@@ -49087,7 +49129,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:19" ht="15" customHeight="1">
       <c r="A29" s="215" t="s">
         <v>372</v>
       </c>
@@ -49126,7 +49168,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:19" ht="15" customHeight="1">
       <c r="A30" s="215" t="s">
         <v>374</v>
       </c>
@@ -49166,7 +49208,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:19" ht="15" customHeight="1">
       <c r="A31" s="215" t="s">
         <v>376</v>
       </c>
@@ -49206,7 +49248,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:19" ht="15" customHeight="1">
       <c r="A32" s="215" t="s">
         <v>378</v>
       </c>
@@ -49245,7 +49287,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="193" t="s">
         <v>380</v>
       </c>
@@ -49283,7 +49325,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="193" t="s">
         <v>382</v>
       </c>
@@ -49323,7 +49365,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="193" t="s">
         <v>385</v>
       </c>
@@ -49361,7 +49403,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="216" t="s">
         <v>395</v>
       </c>
@@ -49405,7 +49447,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -49433,7 +49475,7 @@
         <v>398</v>
       </c>
       <c r="K37" s="180" t="s">
-        <v>2897</v>
+        <v>2891</v>
       </c>
       <c r="L37" s="176"/>
       <c r="M37" s="221">
@@ -49449,7 +49491,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="215" t="s">
         <v>400</v>
       </c>
@@ -49490,7 +49532,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="193" t="s">
         <v>403</v>
       </c>
@@ -49528,7 +49570,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="193" t="s">
         <v>405</v>
       </c>
@@ -49566,7 +49608,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="193" t="s">
         <v>408</v>
       </c>
@@ -49599,7 +49641,7 @@
         <v>98.499035093988994</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -49643,7 +49685,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="193" t="s">
         <v>416</v>
       </c>
@@ -49689,7 +49731,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -49733,7 +49775,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -49777,7 +49819,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -49821,7 +49863,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:17" ht="15" customHeight="1">
       <c r="A47" s="193" t="s">
         <v>454</v>
       </c>
@@ -49865,7 +49907,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="A48" s="193" t="s">
         <v>457</v>
       </c>
@@ -49903,7 +49945,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:20" ht="15" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2648</v>
       </c>
@@ -49952,7 +49994,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:20" ht="15" customHeight="1">
       <c r="A50" s="193" t="s">
         <v>465</v>
       </c>
@@ -50007,7 +50049,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:20" ht="15" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -50062,7 +50104,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:20" ht="15" customHeight="1">
       <c r="A52" s="193" t="s">
         <v>469</v>
       </c>
@@ -50108,7 +50150,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:20" ht="15" customHeight="1">
       <c r="A53" s="193" t="s">
         <v>472</v>
       </c>
@@ -50152,7 +50194,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:20" ht="15" customHeight="1">
       <c r="A54" s="215" t="s">
         <v>474</v>
       </c>
@@ -50198,7 +50240,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:20" ht="15" customHeight="1">
       <c r="A55" s="215" t="s">
         <v>478</v>
       </c>
@@ -50238,7 +50280,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:20" ht="15" customHeight="1">
       <c r="A56" s="177" t="s">
         <v>482</v>
       </c>
@@ -50279,7 +50321,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:20" ht="15" customHeight="1">
       <c r="A57" s="215" t="s">
         <v>484</v>
       </c>
@@ -50331,7 +50373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:20" ht="15" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -50375,7 +50417,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:20" ht="15" customHeight="1">
       <c r="A59" s="217" t="s">
         <v>490</v>
       </c>
@@ -50421,7 +50463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:20" ht="15" customHeight="1">
       <c r="A60" s="215" t="s">
         <v>493</v>
       </c>
@@ -50465,7 +50507,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:20" ht="15" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -50509,7 +50551,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:20" ht="15" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -50603,7 +50645,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:20" ht="15" customHeight="1">
       <c r="A64" s="215" t="s">
         <v>530</v>
       </c>
@@ -50647,7 +50689,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:17" ht="15" customHeight="1">
       <c r="A65" s="193" t="s">
         <v>533</v>
       </c>
@@ -50691,7 +50733,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:17" ht="15" customHeight="1">
       <c r="A66" s="215" t="s">
         <v>535</v>
       </c>
@@ -50735,7 +50777,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:17" ht="15" customHeight="1">
       <c r="A67" s="215" t="s">
         <v>537</v>
       </c>
@@ -50779,7 +50821,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:17" ht="15" customHeight="1">
       <c r="A68" s="215" t="s">
         <v>539</v>
       </c>
@@ -50823,7 +50865,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:17" ht="15" customHeight="1">
       <c r="A69" s="215" t="s">
         <v>542</v>
       </c>
@@ -50861,7 +50903,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:17" ht="15" customHeight="1">
       <c r="A70" s="215" t="s">
         <v>544</v>
       </c>
@@ -50905,7 +50947,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:17" ht="15" customHeight="1">
       <c r="A71" s="215" t="s">
         <v>546</v>
       </c>
@@ -50949,7 +50991,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:17" ht="15" customHeight="1">
       <c r="A72" s="215" t="s">
         <v>548</v>
       </c>
@@ -50993,7 +51035,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:17" ht="15" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -51037,7 +51079,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="74" spans="1:17" ht="15" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -51081,7 +51123,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="75" spans="1:17" ht="15" customHeight="1">
       <c r="A75" s="215" t="s">
         <v>554</v>
       </c>
@@ -51125,7 +51167,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="76" spans="1:17" ht="15" customHeight="1">
       <c r="A76" s="215" t="s">
         <v>556</v>
       </c>
@@ -51169,7 +51211,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="77" spans="1:17" ht="15" customHeight="1">
       <c r="A77" s="215" t="s">
         <v>558</v>
       </c>
@@ -51213,7 +51255,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="78" spans="1:17" ht="15" customHeight="1">
       <c r="A78" s="215" t="s">
         <v>560</v>
       </c>
@@ -51449,7 +51491,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:20" ht="15" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -51493,7 +51535,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:20" ht="15" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -51531,7 +51573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:20" ht="15" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -51584,7 +51626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:20" ht="15" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -51628,7 +51670,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:20" ht="15" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -51674,7 +51716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:20" ht="15" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -51768,7 +51810,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:20" ht="15" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -51818,7 +51860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:20" ht="15" customHeight="1">
       <c r="A91" s="193" t="s">
         <v>733</v>
       </c>
@@ -51858,7 +51900,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:20" ht="15" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -51958,7 +52000,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:20" ht="15" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -52008,7 +52050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:20" ht="15" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -52060,7 +52102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:20" ht="15" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -52154,7 +52196,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:20" ht="15" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -52252,7 +52294,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:20" ht="15" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -52640,7 +52682,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:20" ht="15" customHeight="1">
       <c r="A108" s="194" t="s">
         <v>791</v>
       </c>
@@ -52684,7 +52726,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:20" ht="15" customHeight="1">
       <c r="A109" s="194" t="s">
         <v>798</v>
       </c>
@@ -52728,7 +52770,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:20" ht="15" customHeight="1">
       <c r="A110" s="194" t="s">
         <v>802</v>
       </c>
@@ -52778,7 +52820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:20" ht="15" customHeight="1">
       <c r="A111" s="194" t="s">
         <v>805</v>
       </c>
@@ -52819,7 +52861,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:20" ht="15" customHeight="1">
       <c r="A112" s="194" t="s">
         <v>809</v>
       </c>
@@ -52862,7 +52904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="113" spans="1:20" ht="15" customHeight="1">
       <c r="A113" s="194" t="s">
         <v>811</v>
       </c>
@@ -52917,7 +52959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="114" spans="1:20" ht="15" customHeight="1">
       <c r="A114" s="194" t="s">
         <v>813</v>
       </c>
@@ -52963,7 +53005,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:20" ht="15" customHeight="1">
       <c r="A115" s="194" t="s">
         <v>815</v>
       </c>
@@ -53006,7 +53048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:20" ht="15" customHeight="1">
       <c r="A116" s="194" t="s">
         <v>829</v>
       </c>
@@ -53061,7 +53103,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:20" ht="15" customHeight="1">
       <c r="A117" s="194" t="s">
         <v>832</v>
       </c>
@@ -53104,7 +53146,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:20" ht="15" customHeight="1">
       <c r="A118" s="194" t="s">
         <v>835</v>
       </c>
@@ -53203,7 +53245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:20" ht="15" customHeight="1">
       <c r="A120" s="194" t="s">
         <v>842</v>
       </c>
@@ -53243,7 +53285,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:20" ht="15" customHeight="1">
       <c r="A121" s="194" t="s">
         <v>846</v>
       </c>
@@ -53286,7 +53328,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:20" ht="15" customHeight="1">
       <c r="A122" s="194" t="s">
         <v>850</v>
       </c>
@@ -53341,7 +53383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:20" ht="15" customHeight="1">
       <c r="A123" s="194" t="s">
         <v>852</v>
       </c>
@@ -53384,7 +53426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:20" ht="15" customHeight="1">
       <c r="A124" s="194" t="s">
         <v>854</v>
       </c>
@@ -53427,7 +53469,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:20" ht="15" customHeight="1">
       <c r="A125" s="194" t="s">
         <v>856</v>
       </c>
@@ -53470,7 +53512,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:20" ht="15" customHeight="1">
       <c r="A126" s="194" t="s">
         <v>860</v>
       </c>
@@ -53513,7 +53555,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:20" ht="15" customHeight="1">
       <c r="A127" s="194" t="s">
         <v>864</v>
       </c>
@@ -53556,7 +53598,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:20" ht="15" customHeight="1">
       <c r="A128" s="194" t="s">
         <v>870</v>
       </c>
@@ -53599,7 +53641,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:20" ht="15" customHeight="1">
       <c r="A129" s="194" t="s">
         <v>874</v>
       </c>
@@ -53648,7 +53690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:20" ht="15" customHeight="1">
       <c r="A130" s="194" t="s">
         <v>879</v>
       </c>
@@ -53691,7 +53733,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:20" ht="15" customHeight="1">
       <c r="A131" s="194" t="s">
         <v>881</v>
       </c>
@@ -53740,7 +53782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:20" ht="15" customHeight="1">
       <c r="A132" s="194" t="s">
         <v>885</v>
       </c>
@@ -53789,7 +53831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:20" ht="15" customHeight="1">
       <c r="A133" s="194" t="s">
         <v>890</v>
       </c>
@@ -53832,7 +53874,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:20" ht="15" customHeight="1">
       <c r="A134" s="194" t="s">
         <v>894</v>
       </c>
@@ -53884,7 +53926,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:20" ht="15" customHeight="1">
       <c r="A135" s="194" t="s">
         <v>898</v>
       </c>
@@ -53933,7 +53975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:20" ht="15" customHeight="1">
       <c r="A136" s="194" t="s">
         <v>901</v>
       </c>
@@ -53982,7 +54024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:20" ht="15" customHeight="1">
       <c r="A137" s="194" t="s">
         <v>905</v>
       </c>
@@ -54028,7 +54070,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:20" ht="15" customHeight="1">
       <c r="A138" s="194" t="s">
         <v>909</v>
       </c>
@@ -54131,7 +54173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="140" spans="1:20" ht="15" customHeight="1">
       <c r="A140" s="194" t="s">
         <v>916</v>
       </c>
@@ -54225,7 +54267,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:20" ht="15" customHeight="1">
       <c r="A142" s="194" t="s">
         <v>921</v>
       </c>
@@ -54266,7 +54308,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:20" ht="15" customHeight="1">
       <c r="A143" s="194" t="s">
         <v>924</v>
       </c>
@@ -54310,7 +54352,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:20" ht="15" customHeight="1">
       <c r="A144" s="194" t="s">
         <v>931</v>
       </c>
@@ -54350,7 +54392,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:19" ht="15" customHeight="1">
       <c r="A145" s="194" t="s">
         <v>934</v>
       </c>
@@ -54399,7 +54441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:19" ht="15" customHeight="1">
       <c r="A146" s="194" t="s">
         <v>938</v>
       </c>
@@ -54439,7 +54481,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:19" ht="15" customHeight="1">
       <c r="A147" s="194" t="s">
         <v>941</v>
       </c>
@@ -54488,7 +54530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:19" ht="15" customHeight="1">
       <c r="A148" s="194" t="s">
         <v>945</v>
       </c>
@@ -54528,7 +54570,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:19" ht="15" customHeight="1">
       <c r="A149" s="194" t="s">
         <v>947</v>
       </c>
@@ -54577,7 +54619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="150" spans="1:19" ht="15" customHeight="1">
       <c r="A150" s="194" t="s">
         <v>949</v>
       </c>
@@ -54626,7 +54668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="151" spans="1:19" ht="15" customHeight="1">
       <c r="A151" s="194" t="s">
         <v>960</v>
       </c>
@@ -54670,7 +54712,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="152" spans="1:19" ht="15" customHeight="1">
       <c r="A152" s="194" t="s">
         <v>966</v>
       </c>
@@ -54710,7 +54752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="153" spans="1:19" ht="15" customHeight="1">
       <c r="A153" s="194" t="s">
         <v>969</v>
       </c>
@@ -54759,7 +54801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="154" spans="1:19" ht="15" customHeight="1">
       <c r="A154" s="194" t="s">
         <v>973</v>
       </c>
@@ -54799,7 +54841,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="155" spans="1:19" ht="15" customHeight="1">
       <c r="A155" s="194" t="s">
         <v>976</v>
       </c>
@@ -54848,7 +54890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="156" spans="1:19" ht="15" customHeight="1">
       <c r="A156" s="194" t="s">
         <v>980</v>
       </c>
@@ -54888,7 +54930,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="157" spans="1:19" ht="15" customHeight="1">
       <c r="A157" s="194" t="s">
         <v>983</v>
       </c>
@@ -54937,7 +54979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="158" spans="1:19" ht="15" customHeight="1">
       <c r="A158" s="207" t="s">
         <v>1663</v>
       </c>
@@ -54972,7 +55014,7 @@
         <v>13.4086198270317</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:19" ht="15" customHeight="1">
       <c r="A159" s="207" t="s">
         <v>1660</v>
       </c>
@@ -55010,7 +55052,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:19" ht="15" customHeight="1">
       <c r="A160" s="207" t="s">
         <v>1658</v>
       </c>
@@ -55141,7 +55183,7 @@
       </c>
       <c r="Q162" s="223"/>
     </row>
-    <row r="163" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:20" ht="15" customHeight="1">
       <c r="A163" s="203" t="s">
         <v>1042</v>
       </c>
@@ -55180,7 +55222,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:20" ht="15" customHeight="1">
       <c r="A164" s="203" t="s">
         <v>1039</v>
       </c>
@@ -55228,7 +55270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:20" ht="15" customHeight="1">
       <c r="A165" s="207" t="s">
         <v>1632</v>
       </c>
@@ -55261,7 +55303,7 @@
         <v>99.749839182331499</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:20" ht="15" customHeight="1">
       <c r="A166" s="207" t="s">
         <v>1628</v>
       </c>
@@ -55294,7 +55336,7 @@
         <v>99.635479951397301</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:20" ht="15" customHeight="1">
       <c r="A167" s="207" t="s">
         <v>1625</v>
       </c>
@@ -55329,7 +55371,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:20" ht="15" customHeight="1">
       <c r="A168" s="207" t="s">
         <v>1621</v>
       </c>
@@ -55362,7 +55404,7 @@
         <v>98.827817882924705</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:20" ht="15" customHeight="1">
       <c r="A169" s="207" t="s">
         <v>1619</v>
       </c>
@@ -55395,7 +55437,7 @@
         <v>99.849903509398899</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:20" ht="15" customHeight="1">
       <c r="A170" s="207" t="s">
         <v>1616</v>
       </c>
@@ -55428,7 +55470,7 @@
         <v>99.978557644199896</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:20" ht="15" customHeight="1">
       <c r="A171" s="207" t="s">
         <v>1612</v>
       </c>
@@ -55467,7 +55509,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:20" ht="15" customHeight="1">
       <c r="A172" s="203" t="s">
         <v>1522</v>
       </c>
@@ -55509,7 +55551,7 @@
       </c>
       <c r="Q172" s="223"/>
     </row>
-    <row r="173" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:20" ht="15" customHeight="1">
       <c r="A173" s="219" t="s">
         <v>1517</v>
       </c>
@@ -55554,7 +55596,7 @@
       </c>
       <c r="Q173" s="223"/>
     </row>
-    <row r="174" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:20" ht="15" customHeight="1">
       <c r="A174" s="207" t="s">
         <v>1511</v>
       </c>
@@ -55596,7 +55638,7 @@
       </c>
       <c r="Q174" s="223"/>
     </row>
-    <row r="175" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:20" ht="15" customHeight="1">
       <c r="A175" s="219" t="s">
         <v>1508</v>
       </c>
@@ -55641,7 +55683,7 @@
       </c>
       <c r="Q175" s="223"/>
     </row>
-    <row r="176" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:20" ht="15" customHeight="1">
       <c r="A176" s="219" t="s">
         <v>1504</v>
       </c>
@@ -55686,7 +55728,7 @@
       </c>
       <c r="Q176" s="223"/>
     </row>
-    <row r="177" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="177" spans="1:17" ht="15" customHeight="1">
       <c r="A177" s="219" t="s">
         <v>1490</v>
       </c>
@@ -55731,7 +55773,7 @@
       </c>
       <c r="Q177" s="223"/>
     </row>
-    <row r="178" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="178" spans="1:17" ht="15" customHeight="1">
       <c r="A178" s="219" t="s">
         <v>1475</v>
       </c>
@@ -55776,7 +55818,7 @@
       </c>
       <c r="Q178" s="223"/>
     </row>
-    <row r="179" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="179" spans="1:17" ht="15" customHeight="1">
       <c r="A179" s="219" t="s">
         <v>1459</v>
       </c>
@@ -55821,7 +55863,7 @@
       </c>
       <c r="Q179" s="223"/>
     </row>
-    <row r="180" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="180" spans="1:17" ht="15" customHeight="1">
       <c r="A180" s="219" t="s">
         <v>1445</v>
       </c>
@@ -55866,7 +55908,7 @@
       </c>
       <c r="Q180" s="223"/>
     </row>
-    <row r="181" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="181" spans="1:17" ht="15" customHeight="1">
       <c r="A181" s="219" t="s">
         <v>1441</v>
       </c>
@@ -55911,7 +55953,7 @@
       </c>
       <c r="Q181" s="223"/>
     </row>
-    <row r="182" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:17" ht="15" customHeight="1">
       <c r="A182" s="219" t="s">
         <v>1429</v>
       </c>
@@ -55956,7 +55998,7 @@
       </c>
       <c r="Q182" s="223"/>
     </row>
-    <row r="183" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="183" spans="1:17" ht="15" customHeight="1">
       <c r="A183" s="207" t="s">
         <v>1419</v>
       </c>
@@ -55998,7 +56040,7 @@
       </c>
       <c r="Q183" s="223"/>
     </row>
-    <row r="184" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="184" spans="1:17" ht="15" customHeight="1">
       <c r="A184" s="219" t="s">
         <v>1416</v>
       </c>
@@ -56043,7 +56085,7 @@
       </c>
       <c r="Q184" s="223"/>
     </row>
-    <row r="185" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="185" spans="1:17" ht="15" customHeight="1">
       <c r="A185" s="219" t="s">
         <v>1412</v>
       </c>
@@ -56088,7 +56130,7 @@
       </c>
       <c r="Q185" s="223"/>
     </row>
-    <row r="186" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="186" spans="1:17" ht="15" customHeight="1">
       <c r="A186" s="219" t="s">
         <v>1396</v>
       </c>
@@ -56133,7 +56175,7 @@
       </c>
       <c r="Q186" s="223"/>
     </row>
-    <row r="187" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="187" spans="1:17" ht="15" customHeight="1">
       <c r="A187" s="219" t="s">
         <v>1380</v>
       </c>
@@ -56178,7 +56220,7 @@
       </c>
       <c r="Q187" s="223"/>
     </row>
-    <row r="188" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="188" spans="1:17" ht="15" customHeight="1">
       <c r="A188" s="219" t="s">
         <v>1362</v>
       </c>
@@ -56223,7 +56265,7 @@
       </c>
       <c r="Q188" s="223"/>
     </row>
-    <row r="189" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="189" spans="1:17" ht="15" customHeight="1">
       <c r="A189" s="219" t="s">
         <v>1345</v>
       </c>
@@ -56268,7 +56310,7 @@
       </c>
       <c r="Q189" s="223"/>
     </row>
-    <row r="190" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="190" spans="1:17" ht="15" customHeight="1">
       <c r="A190" s="219" t="s">
         <v>1335</v>
       </c>
@@ -56313,7 +56355,7 @@
       </c>
       <c r="Q190" s="223"/>
     </row>
-    <row r="191" spans="1:17" ht="15" hidden="1" customHeight="1">
+    <row r="191" spans="1:17" ht="15" customHeight="1">
       <c r="A191" s="219" t="s">
         <v>1320</v>
       </c>
@@ -56405,7 +56447,7 @@
       </c>
       <c r="Q192" s="223"/>
     </row>
-    <row r="193" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="193" spans="1:20" ht="15" customHeight="1">
       <c r="A193" s="203" t="s">
         <v>1189</v>
       </c>
@@ -56450,7 +56492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="194" spans="1:20" ht="15" customHeight="1">
       <c r="A194" s="203" t="s">
         <v>1186</v>
       </c>
@@ -56486,7 +56528,7 @@
       <c r="P194" s="223"/>
       <c r="Q194" s="223"/>
     </row>
-    <row r="195" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="195" spans="1:20" ht="15" customHeight="1">
       <c r="A195" s="203" t="s">
         <v>1183</v>
       </c>
@@ -56527,7 +56569,7 @@
       <c r="P195" s="223"/>
       <c r="Q195" s="223"/>
     </row>
-    <row r="196" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="196" spans="1:20" ht="15" customHeight="1">
       <c r="A196" s="203" t="s">
         <v>1181</v>
       </c>
@@ -56577,7 +56619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="197" spans="1:20" ht="15" customHeight="1">
       <c r="A197" s="203" t="s">
         <v>1178</v>
       </c>
@@ -56618,7 +56660,7 @@
       <c r="P197" s="223"/>
       <c r="Q197" s="223"/>
     </row>
-    <row r="198" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="198" spans="1:20" ht="15" customHeight="1">
       <c r="A198" s="203" t="s">
         <v>1176</v>
       </c>
@@ -56668,7 +56710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="199" spans="1:20" ht="15" customHeight="1">
       <c r="A199" s="207" t="s">
         <v>1174</v>
       </c>
@@ -56711,7 +56753,7 @@
       <c r="P199" s="223"/>
       <c r="Q199" s="223"/>
     </row>
-    <row r="200" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="200" spans="1:20" ht="15" customHeight="1">
       <c r="A200" s="207" t="s">
         <v>1171</v>
       </c>
@@ -56754,7 +56796,7 @@
       <c r="P200" s="223"/>
       <c r="Q200" s="223"/>
     </row>
-    <row r="201" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="201" spans="1:20" ht="15" customHeight="1">
       <c r="A201" s="207" t="s">
         <v>1165</v>
       </c>
@@ -56804,7 +56846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="202" spans="1:20" ht="15" customHeight="1">
       <c r="A202" s="207" t="s">
         <v>1666</v>
       </c>
@@ -56841,7 +56883,7 @@
       <c r="P202" s="223"/>
       <c r="Q202" s="223"/>
     </row>
-    <row r="203" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="203" spans="1:20" ht="15" customHeight="1">
       <c r="A203" s="207" t="s">
         <v>1669</v>
       </c>
@@ -56880,7 +56922,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="204" spans="1:20" ht="15" customHeight="1">
       <c r="A204" s="207" t="s">
         <v>1671</v>
       </c>
@@ -56917,7 +56959,7 @@
       <c r="P204" s="223"/>
       <c r="Q204" s="223"/>
     </row>
-    <row r="205" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="205" spans="1:20" ht="15" customHeight="1">
       <c r="A205" s="207" t="s">
         <v>1674</v>
       </c>
@@ -56954,7 +56996,7 @@
       <c r="P205" s="223"/>
       <c r="Q205" s="223"/>
     </row>
-    <row r="206" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="206" spans="1:20" ht="15" customHeight="1">
       <c r="A206" s="207" t="s">
         <v>1675</v>
       </c>
@@ -56991,7 +57033,7 @@
       <c r="P206" s="223"/>
       <c r="Q206" s="223"/>
     </row>
-    <row r="207" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="207" spans="1:20" ht="15" customHeight="1">
       <c r="A207" s="207" t="s">
         <v>1676</v>
       </c>
@@ -57028,7 +57070,7 @@
       <c r="P207" s="223"/>
       <c r="Q207" s="223"/>
     </row>
-    <row r="208" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="208" spans="1:20" ht="15" customHeight="1">
       <c r="A208" s="207" t="s">
         <v>1677</v>
       </c>
@@ -57065,7 +57107,7 @@
       <c r="P208" s="223"/>
       <c r="Q208" s="223"/>
     </row>
-    <row r="209" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="209" spans="1:20" ht="15" customHeight="1">
       <c r="A209" s="207" t="s">
         <v>1678</v>
       </c>
@@ -57102,7 +57144,7 @@
       <c r="P209" s="223"/>
       <c r="Q209" s="223"/>
     </row>
-    <row r="210" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="210" spans="1:20" ht="15" customHeight="1">
       <c r="A210" s="207" t="s">
         <v>1679</v>
       </c>
@@ -57139,7 +57181,7 @@
       <c r="P210" s="223"/>
       <c r="Q210" s="223"/>
     </row>
-    <row r="211" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="211" spans="1:20" ht="15" customHeight="1">
       <c r="A211" s="207" t="s">
         <v>1683</v>
       </c>
@@ -57174,7 +57216,7 @@
       <c r="P211" s="223"/>
       <c r="Q211" s="223"/>
     </row>
-    <row r="212" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="212" spans="1:20" ht="15" customHeight="1">
       <c r="A212" s="203" t="s">
         <v>1690</v>
       </c>
@@ -57226,7 +57268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="213" spans="1:20" ht="15" customHeight="1">
       <c r="A213" s="207" t="s">
         <v>1693</v>
       </c>
@@ -57261,7 +57303,7 @@
       <c r="P213" s="223"/>
       <c r="Q213" s="223"/>
     </row>
-    <row r="214" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="214" spans="1:20" ht="15" customHeight="1">
       <c r="A214" s="207" t="s">
         <v>1697</v>
       </c>
@@ -57352,7 +57394,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="216" spans="1:20" ht="15" customHeight="1">
       <c r="A216" s="207" t="s">
         <v>1719</v>
       </c>
@@ -57443,7 +57485,7 @@
       <c r="P217" s="223"/>
       <c r="Q217" s="223"/>
     </row>
-    <row r="218" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="218" spans="1:20" ht="15" customHeight="1">
       <c r="A218" s="207" t="s">
         <v>1734</v>
       </c>
@@ -57535,7 +57577,7 @@
       </c>
       <c r="Q219" s="223"/>
     </row>
-    <row r="220" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="220" spans="1:20" ht="15" customHeight="1">
       <c r="A220" s="207" t="s">
         <v>1743</v>
       </c>
@@ -57576,7 +57618,7 @@
       <c r="P220" s="223"/>
       <c r="Q220" s="223"/>
     </row>
-    <row r="221" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="221" spans="1:20" ht="15" customHeight="1">
       <c r="A221" s="207" t="s">
         <v>1750</v>
       </c>
@@ -57617,7 +57659,7 @@
       <c r="P221" s="223"/>
       <c r="Q221" s="223"/>
     </row>
-    <row r="222" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="222" spans="1:20" ht="15" customHeight="1">
       <c r="A222" s="207" t="s">
         <v>1755</v>
       </c>
@@ -57658,7 +57700,7 @@
       <c r="P222" s="223"/>
       <c r="Q222" s="223"/>
     </row>
-    <row r="223" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="223" spans="1:20" ht="15" customHeight="1">
       <c r="A223" s="207" t="s">
         <v>1759</v>
       </c>
@@ -57699,7 +57741,7 @@
       <c r="P223" s="223"/>
       <c r="Q223" s="223"/>
     </row>
-    <row r="224" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="224" spans="1:20" ht="15" customHeight="1">
       <c r="A224" s="207" t="s">
         <v>1763</v>
       </c>
@@ -57740,7 +57782,7 @@
       <c r="P224" s="223"/>
       <c r="Q224" s="223"/>
     </row>
-    <row r="225" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="225" spans="1:19" ht="15" customHeight="1">
       <c r="A225" s="207" t="s">
         <v>1765</v>
       </c>
@@ -57781,7 +57823,7 @@
       <c r="P225" s="223"/>
       <c r="Q225" s="223"/>
     </row>
-    <row r="226" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="226" spans="1:19" ht="15" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -57834,7 +57876,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="227" spans="1:19" ht="15" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -57889,7 +57931,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="228" spans="1:19" ht="15" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -57987,7 +58029,7 @@
       <c r="P229" s="223"/>
       <c r="Q229" s="223"/>
     </row>
-    <row r="230" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="230" spans="1:19" ht="15" customHeight="1">
       <c r="A230" s="207" t="s">
         <v>1875</v>
       </c>
@@ -58030,7 +58072,7 @@
       <c r="P230" s="223"/>
       <c r="Q230" s="223"/>
     </row>
-    <row r="231" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="231" spans="1:19" ht="15" customHeight="1">
       <c r="A231" s="207" t="s">
         <v>1956</v>
       </c>
@@ -58071,7 +58113,7 @@
       <c r="P231" s="223"/>
       <c r="Q231" s="223"/>
     </row>
-    <row r="232" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="232" spans="1:19" ht="15" customHeight="1">
       <c r="A232" s="207" t="s">
         <v>1958</v>
       </c>
@@ -58104,7 +58146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="233" spans="1:19" ht="15" customHeight="1">
       <c r="A233" s="207" t="s">
         <v>1961</v>
       </c>
@@ -58137,7 +58179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="234" spans="1:19" ht="15" customHeight="1">
       <c r="A234" s="203" t="s">
         <v>2194</v>
       </c>
@@ -58172,7 +58214,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15" hidden="1" customHeight="1">
+    <row r="235" spans="1:19" ht="15" customHeight="1">
       <c r="A235" s="223" t="s">
         <v>2606</v>
       </c>
@@ -58208,191 +58250,72 @@
     </row>
     <row r="237" spans="1:19" ht="15" customHeight="1">
       <c r="A237" s="236" t="s">
-        <v>2881</v>
-      </c>
-      <c r="C237" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E237" t="s">
-        <v>120</v>
-      </c>
-      <c r="F237" t="s">
-        <v>322</v>
-      </c>
-      <c r="J237" t="s">
-        <v>2882</v>
-      </c>
-      <c r="K237" t="s">
-        <v>2883</v>
-      </c>
+        <v>2897</v>
+      </c>
+      <c r="C237" s="232"/>
     </row>
     <row r="238" spans="1:19" ht="15" customHeight="1">
       <c r="A238" s="236" t="s">
-        <v>2884</v>
-      </c>
-      <c r="C238" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E238" t="s">
-        <v>120</v>
-      </c>
-      <c r="F238" t="s">
-        <v>2871</v>
-      </c>
+        <v>2898</v>
+      </c>
+      <c r="C238" s="232"/>
     </row>
     <row r="239" spans="1:19" ht="15" customHeight="1">
       <c r="A239" s="236" t="s">
-        <v>2885</v>
-      </c>
-      <c r="C239" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E239" t="s">
-        <v>120</v>
-      </c>
-      <c r="F239" t="s">
-        <v>328</v>
-      </c>
+        <v>2892</v>
+      </c>
+      <c r="C239" s="232"/>
     </row>
     <row r="240" spans="1:19" ht="15" customHeight="1">
       <c r="A240" s="236" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C240" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E240" t="s">
-        <v>120</v>
-      </c>
-      <c r="F240" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M240" s="221">
-        <v>54.638365</v>
-      </c>
+        <v>2893</v>
+      </c>
+      <c r="C240" s="232"/>
     </row>
     <row r="241" spans="1:13" ht="15" customHeight="1">
       <c r="A241" s="236" t="s">
-        <v>2888</v>
-      </c>
-      <c r="C241" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E241" t="s">
-        <v>120</v>
-      </c>
-      <c r="F241" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M241" s="221">
-        <v>94.711264</v>
-      </c>
+        <v>2899</v>
+      </c>
+      <c r="C241" s="232"/>
     </row>
     <row r="242" spans="1:13" ht="15" customHeight="1">
       <c r="A242" s="236" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C242" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E242" t="s">
-        <v>120</v>
-      </c>
-      <c r="F242" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M242" s="221">
-        <v>93.696398000000002</v>
-      </c>
+        <v>2900</v>
+      </c>
+      <c r="C242" s="232"/>
     </row>
     <row r="243" spans="1:13" ht="15" customHeight="1">
       <c r="A243" s="236" t="s">
-        <v>2890</v>
-      </c>
-      <c r="C243" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E243" t="s">
-        <v>120</v>
-      </c>
-      <c r="F243" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M243" s="221">
-        <v>93.532017999999994</v>
-      </c>
+        <v>2901</v>
+      </c>
+      <c r="C243" s="232"/>
     </row>
     <row r="244" spans="1:13" ht="15" customHeight="1">
       <c r="A244" s="236" t="s">
-        <v>2823</v>
-      </c>
-      <c r="C244" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E244" t="s">
-        <v>120</v>
-      </c>
-      <c r="F244" t="s">
-        <v>328</v>
-      </c>
-      <c r="M244" s="221">
-        <v>78.930818000000002</v>
-      </c>
+        <v>2902</v>
+      </c>
+      <c r="C244" s="232"/>
     </row>
     <row r="245" spans="1:13" ht="15" customHeight="1">
       <c r="A245" s="236" t="s">
-        <v>2891</v>
-      </c>
-      <c r="C245" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E245" t="s">
-        <v>120</v>
-      </c>
-      <c r="F245" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M245" s="221">
-        <v>89.865638000000004</v>
-      </c>
+        <v>2895</v>
+      </c>
+      <c r="C245" s="232"/>
     </row>
     <row r="246" spans="1:13" ht="15" customHeight="1">
-      <c r="A246" s="236" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C246" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E246" t="s">
-        <v>120</v>
-      </c>
-      <c r="F246" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M246" s="221">
-        <v>91.552316000000005</v>
+      <c r="A246" s="240" t="s">
+        <v>2903</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="15" customHeight="1">
       <c r="A247" s="236" t="s">
-        <v>2893</v>
-      </c>
-      <c r="C247" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E247" t="s">
-        <v>120</v>
-      </c>
-      <c r="F247" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M247" s="221">
-        <v>60.513150000000003</v>
-      </c>
+        <v>2896</v>
+      </c>
+      <c r="C247" s="232"/>
     </row>
     <row r="248" spans="1:13" ht="15" customHeight="1">
-      <c r="A248" t="s">
-        <v>2894</v>
+      <c r="A248" s="236" t="s">
+        <v>2904</v>
       </c>
       <c r="C248" s="232" t="s">
         <v>2879</v>
@@ -58404,12 +58327,12 @@
         <v>2871</v>
       </c>
       <c r="M248" s="221">
-        <v>62.056890000000003</v>
+        <v>54.638365</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="15" customHeight="1">
-      <c r="A249" s="238" t="s">
-        <v>2895</v>
+      <c r="A249" s="236" t="s">
+        <v>2885</v>
       </c>
       <c r="C249" s="232" t="s">
         <v>2879</v>
@@ -58421,86 +58344,282 @@
         <v>2871</v>
       </c>
       <c r="M249" s="221">
+        <v>93.696398000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="15" customHeight="1">
+      <c r="A250" s="236" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C250" s="232"/>
+    </row>
+    <row r="251" spans="1:13" ht="15" customHeight="1">
+      <c r="A251" s="236" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C251" s="232"/>
+    </row>
+    <row r="252" spans="1:13" ht="15" customHeight="1">
+      <c r="A252" s="236" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C252" s="232"/>
+    </row>
+    <row r="253" spans="1:13" ht="15" customHeight="1">
+      <c r="A253" s="236" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C253" s="232"/>
+    </row>
+    <row r="254" spans="1:13" ht="15" customHeight="1">
+      <c r="A254" s="240" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C254" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E254" t="s">
+        <v>120</v>
+      </c>
+      <c r="F254" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M254" s="221">
+        <v>94.711264</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="15" customHeight="1">
+      <c r="A255" s="240" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="15" customHeight="1">
+      <c r="A256" s="236" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C256" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E256" t="s">
+        <v>120</v>
+      </c>
+      <c r="F256" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M256" s="221">
+        <v>93.532017999999994</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="15" customHeight="1">
+      <c r="A257" s="236" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C257" s="232"/>
+    </row>
+    <row r="258" spans="1:13" ht="15" customHeight="1">
+      <c r="A258" s="236" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C258" s="232"/>
+    </row>
+    <row r="259" spans="1:13" ht="15" customHeight="1">
+      <c r="A259" s="236" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C259" s="232"/>
+    </row>
+    <row r="260" spans="1:13" ht="15" customHeight="1">
+      <c r="A260" s="236" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C260" s="232"/>
+    </row>
+    <row r="261" spans="1:13" ht="15" customHeight="1">
+      <c r="A261" s="236" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C261" s="232"/>
+    </row>
+    <row r="262" spans="1:13" ht="15" customHeight="1">
+      <c r="A262" s="236" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C262" s="232"/>
+    </row>
+    <row r="263" spans="1:13" ht="15" customHeight="1">
+      <c r="A263" s="236" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C263" s="232"/>
+    </row>
+    <row r="264" spans="1:13" ht="15" customHeight="1">
+      <c r="A264" s="236" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C264" s="232"/>
+    </row>
+    <row r="265" spans="1:13" ht="15" customHeight="1">
+      <c r="A265" s="236" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C265" s="232"/>
+    </row>
+    <row r="266" spans="1:13" ht="15" customHeight="1">
+      <c r="A266" s="236" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C266" s="232"/>
+    </row>
+    <row r="267" spans="1:13" ht="15" customHeight="1">
+      <c r="A267" s="236" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C267" s="232"/>
+    </row>
+    <row r="268" spans="1:13" ht="15" customHeight="1">
+      <c r="A268" s="236" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C268" s="232"/>
+    </row>
+    <row r="269" spans="1:13" ht="15" customHeight="1">
+      <c r="A269" s="236" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C269" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E269" t="s">
+        <v>120</v>
+      </c>
+      <c r="F269" t="s">
+        <v>328</v>
+      </c>
+      <c r="M269" s="221">
+        <v>78.930818000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="15" customHeight="1">
+      <c r="A270" s="236"/>
+      <c r="C270" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E270" t="s">
+        <v>120</v>
+      </c>
+      <c r="F270" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M270" s="221">
+        <v>89.865638000000004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="15" customHeight="1">
+      <c r="A271" s="236"/>
+      <c r="C271" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E271" t="s">
+        <v>120</v>
+      </c>
+      <c r="F271" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M271" s="221">
+        <v>91.552316000000005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="15" customHeight="1">
+      <c r="A272" s="236"/>
+      <c r="C272" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E272" t="s">
+        <v>120</v>
+      </c>
+      <c r="F272" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M272" s="221">
+        <v>60.513150000000003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="15" customHeight="1">
+      <c r="C273" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E273" t="s">
+        <v>120</v>
+      </c>
+      <c r="F273" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M273" s="221">
+        <v>62.056890000000003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="15" customHeight="1">
+      <c r="A274" s="238"/>
+      <c r="C274" s="232"/>
+      <c r="M274" s="221">
         <v>33.897942</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15" customHeight="1">
-      <c r="A250" s="238" t="s">
-        <v>2896</v>
-      </c>
-      <c r="C250" s="232" t="s">
+    <row r="275" spans="1:13" ht="15" customHeight="1">
+      <c r="A275" s="238"/>
+      <c r="C275" s="232"/>
+      <c r="E275" s="223"/>
+      <c r="F275" s="225"/>
+    </row>
+    <row r="276" spans="1:13" ht="15" customHeight="1">
+      <c r="A276" s="236" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C276" s="232" t="s">
         <v>2879</v>
       </c>
-      <c r="E250" s="223" t="s">
-        <v>120</v>
-      </c>
-      <c r="F250" s="225" t="s">
+      <c r="E276" t="s">
+        <v>120</v>
+      </c>
+      <c r="F276" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" ht="15" customHeight="1">
-      <c r="A251" s="239" t="s">
-        <v>2898</v>
-      </c>
-      <c r="C251" s="240" t="s">
+      <c r="J276" t="s">
+        <v>2882</v>
+      </c>
+      <c r="K276" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="15" customHeight="1">
+      <c r="A277" s="238"/>
+      <c r="C277" s="232"/>
+      <c r="E277" s="223"/>
+      <c r="F277" s="239"/>
+    </row>
+    <row r="278" spans="1:13" ht="15" customHeight="1">
+      <c r="A278" s="238" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C278" s="237" t="s">
         <v>2879</v>
       </c>
-      <c r="E251" s="223" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" ht="15" customHeight="1">
-      <c r="A252" s="239" t="s">
-        <v>2899</v>
-      </c>
-      <c r="C252" s="240" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E252" s="223" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" ht="15" customHeight="1">
-      <c r="A253" s="239" t="s">
-        <v>2900</v>
-      </c>
-      <c r="C253" s="241" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E253" s="223" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" ht="15" customHeight="1">
-      <c r="A254" s="239" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C254" s="241" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E254" s="223" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" ht="15" customHeight="1">
-      <c r="A255" s="239" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C255" s="241" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E255" s="223" t="s">
-        <v>120</v>
-      </c>
+      <c r="E278" s="223" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="15" customHeight="1">
+      <c r="A279" s="238"/>
+      <c r="C279" s="237"/>
+      <c r="E279" s="223"/>
+    </row>
+    <row r="280" spans="1:13" ht="15" customHeight="1">
+      <c r="A280" s="238"/>
+      <c r="C280" s="237"/>
+      <c r="E280" s="223"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T255" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T280" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
   <conditionalFormatting sqref="D2:H4 D5:F81 H5:H81 G5:G234">
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D2))))</formula>
@@ -58528,7 +58647,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M236:M249">
+  <conditionalFormatting sqref="M236:M245 M256:M274 M247:M254 M276">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E102E4A-4E37-6143-AE04-F00D4340DD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA27C0-6D85-EC47-AB16-7D410C659BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="3200" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$T$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$T$282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12327" uniqueCount="2919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12381" uniqueCount="2928">
   <si>
     <t>Tab</t>
   </si>
@@ -11225,33 +11225,9 @@
     <t>microcephaly_ga</t>
   </si>
   <si>
-    <t>neuro_abnormality</t>
-  </si>
-  <si>
-    <t>cardio_abnormality</t>
-  </si>
-  <si>
-    <t>gastro_abnormality</t>
-  </si>
-  <si>
-    <t>oro_abnormality</t>
-  </si>
-  <si>
-    <t>ocular_abnormality</t>
-  </si>
-  <si>
-    <t>genur_abnormality</t>
-  </si>
-  <si>
-    <t>nonneuro_abnormality</t>
-  </si>
-  <si>
     <t>any_abnormality_czs</t>
   </si>
   <si>
-    <t>gen_abnormality</t>
-  </si>
-  <si>
     <t>flavi_alpha_virus</t>
   </si>
   <si>
@@ -11267,7 +11243,58 @@
     <t>arb_preg_nz</t>
   </si>
   <si>
-    <t>drug_prescr</t>
+    <t>CZS according to WHO definition</t>
+  </si>
+  <si>
+    <t>neuroabnormality</t>
+  </si>
+  <si>
+    <t>cardioabnormality</t>
+  </si>
+  <si>
+    <t>gastroabnormality</t>
+  </si>
+  <si>
+    <t>oroabnormality</t>
+  </si>
+  <si>
+    <t>ocularabnormality</t>
+  </si>
+  <si>
+    <t>genurabnormality</t>
+  </si>
+  <si>
+    <t>nonneurologic</t>
+  </si>
+  <si>
+    <t>gen_anomalies</t>
+  </si>
+  <si>
+    <t>drugs_prescr</t>
+  </si>
+  <si>
+    <t>Presence of microcephaly at birth</t>
+  </si>
+  <si>
+    <t>Presence of microcephaly after birth</t>
+  </si>
+  <si>
+    <t>Presence of microcephaly based on head circumference</t>
+  </si>
+  <si>
+    <t>Studycode</t>
+  </si>
+  <si>
+    <t>GA of fetal microcephaly</t>
+  </si>
+  <si>
+    <t>Neurological abnormalities</t>
+  </si>
+  <si>
+    <t>Contractures</t>
+  </si>
+  <si>
+    <t>Cardiovascular abnormalities</t>
   </si>
 </sst>
 </file>
@@ -12588,8 +12615,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -47916,13 +47943,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-  <dimension ref="A1:T280"/>
+  <dimension ref="A1:T282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B250" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B233" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A278" sqref="A278"/>
+      <selection pane="bottomRight" activeCell="J251" sqref="J251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -50612,7 +50639,7 @@
         <v>120</v>
       </c>
       <c r="F63" s="188" t="s">
-        <v>2871</v>
+        <v>322</v>
       </c>
       <c r="G63" s="177">
         <v>62</v>
@@ -51412,7 +51439,7 @@
         <v>120</v>
       </c>
       <c r="F81" s="188" t="s">
-        <v>2871</v>
+        <v>322</v>
       </c>
       <c r="G81" s="177">
         <v>80</v>
@@ -53244,6 +53271,9 @@
       <c r="S119">
         <v>0</v>
       </c>
+      <c r="T119">
+        <v>100000</v>
+      </c>
     </row>
     <row r="120" spans="1:20" ht="15" customHeight="1">
       <c r="A120" s="194" t="s">
@@ -54166,8 +54196,8 @@
       <c r="R139" t="s">
         <v>2849</v>
       </c>
-      <c r="S139" s="223" t="s">
-        <v>2875</v>
+      <c r="S139" s="239">
+        <v>1E-3</v>
       </c>
       <c r="T139">
         <v>46</v>
@@ -57782,7 +57812,7 @@
       <c r="P224" s="223"/>
       <c r="Q224" s="223"/>
     </row>
-    <row r="225" spans="1:19" ht="15" customHeight="1">
+    <row r="225" spans="1:20" ht="15" customHeight="1">
       <c r="A225" s="207" t="s">
         <v>1765</v>
       </c>
@@ -57823,7 +57853,7 @@
       <c r="P225" s="223"/>
       <c r="Q225" s="223"/>
     </row>
-    <row r="226" spans="1:19" ht="15" customHeight="1">
+    <row r="226" spans="1:20" ht="15" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -57876,7 +57906,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="15" customHeight="1">
+    <row r="227" spans="1:20" ht="15" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -57931,7 +57961,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="15" customHeight="1">
+    <row r="228" spans="1:20" ht="15" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -57984,7 +58014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="15" customHeight="1">
+    <row r="229" spans="1:20" ht="15" customHeight="1">
       <c r="A229" s="207" t="s">
         <v>1782</v>
       </c>
@@ -58029,7 +58059,7 @@
       <c r="P229" s="223"/>
       <c r="Q229" s="223"/>
     </row>
-    <row r="230" spans="1:19" ht="15" customHeight="1">
+    <row r="230" spans="1:20" ht="15" customHeight="1">
       <c r="A230" s="207" t="s">
         <v>1875</v>
       </c>
@@ -58072,7 +58102,7 @@
       <c r="P230" s="223"/>
       <c r="Q230" s="223"/>
     </row>
-    <row r="231" spans="1:19" ht="15" customHeight="1">
+    <row r="231" spans="1:20" ht="15" customHeight="1">
       <c r="A231" s="207" t="s">
         <v>1956</v>
       </c>
@@ -58113,7 +58143,7 @@
       <c r="P231" s="223"/>
       <c r="Q231" s="223"/>
     </row>
-    <row r="232" spans="1:19" ht="15" customHeight="1">
+    <row r="232" spans="1:20" ht="15" customHeight="1">
       <c r="A232" s="207" t="s">
         <v>1958</v>
       </c>
@@ -58146,7 +58176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="15" customHeight="1">
+    <row r="233" spans="1:20" ht="15" customHeight="1">
       <c r="A233" s="207" t="s">
         <v>1961</v>
       </c>
@@ -58179,7 +58209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="15" customHeight="1">
+    <row r="234" spans="1:20" ht="15" customHeight="1">
       <c r="A234" s="203" t="s">
         <v>2194</v>
       </c>
@@ -58214,7 +58244,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15" customHeight="1">
+    <row r="235" spans="1:20" ht="15" customHeight="1">
       <c r="A235" s="223" t="s">
         <v>2606</v>
       </c>
@@ -58225,7 +58255,9 @@
       <c r="D235" s="223" t="s">
         <v>121</v>
       </c>
-      <c r="E235" s="223"/>
+      <c r="E235" s="223" t="s">
+        <v>153</v>
+      </c>
       <c r="F235" s="223"/>
       <c r="H235" s="232" t="s">
         <v>2857</v>
@@ -58234,7 +58266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="15" customHeight="1">
+    <row r="236" spans="1:20" ht="15" customHeight="1">
       <c r="A236" s="236" t="s">
         <v>2880</v>
       </c>
@@ -58247,75 +58279,170 @@
       <c r="F236" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" ht="15" customHeight="1">
+      <c r="J236" s="240" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" ht="15" customHeight="1">
       <c r="A237" s="236" t="s">
         <v>2897</v>
       </c>
-      <c r="C237" s="232"/>
-    </row>
-    <row r="238" spans="1:19" ht="15" customHeight="1">
+      <c r="C237" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F237" t="s">
+        <v>328</v>
+      </c>
+      <c r="S237">
+        <v>1E-3</v>
+      </c>
+      <c r="T237">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" ht="15" customHeight="1">
       <c r="A238" s="236" t="s">
         <v>2898</v>
       </c>
-      <c r="C238" s="232"/>
-    </row>
-    <row r="239" spans="1:19" ht="15" customHeight="1">
+      <c r="C238" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F238" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" ht="15" customHeight="1">
       <c r="A239" s="236" t="s">
         <v>2892</v>
       </c>
-      <c r="C239" s="232"/>
-    </row>
-    <row r="240" spans="1:19" ht="15" customHeight="1">
+      <c r="C239" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F239" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" ht="15" customHeight="1">
       <c r="A240" s="236" t="s">
         <v>2893</v>
       </c>
-      <c r="C240" s="232"/>
-    </row>
-    <row r="241" spans="1:13" ht="15" customHeight="1">
+      <c r="C240" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F240" t="s">
+        <v>328</v>
+      </c>
+      <c r="S240">
+        <v>1E-3</v>
+      </c>
+      <c r="T240">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" ht="15" customHeight="1">
       <c r="A241" s="236" t="s">
         <v>2899</v>
       </c>
-      <c r="C241" s="232"/>
-    </row>
-    <row r="242" spans="1:13" ht="15" customHeight="1">
+      <c r="C241" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F241" t="s">
+        <v>328</v>
+      </c>
+      <c r="S241">
+        <v>1E-3</v>
+      </c>
+      <c r="T241">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" ht="15" customHeight="1">
       <c r="A242" s="236" t="s">
         <v>2900</v>
       </c>
-      <c r="C242" s="232"/>
-    </row>
-    <row r="243" spans="1:13" ht="15" customHeight="1">
+      <c r="C242" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F242" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" ht="15" customHeight="1">
       <c r="A243" s="236" t="s">
         <v>2901</v>
       </c>
-      <c r="C243" s="232"/>
-    </row>
-    <row r="244" spans="1:13" ht="15" customHeight="1">
+      <c r="C243" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F243" t="s">
+        <v>322</v>
+      </c>
+      <c r="J243" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" ht="15" customHeight="1">
       <c r="A244" s="236" t="s">
         <v>2902</v>
       </c>
-      <c r="C244" s="232"/>
-    </row>
-    <row r="245" spans="1:13" ht="15" customHeight="1">
+      <c r="C244" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F244" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" ht="15" customHeight="1">
       <c r="A245" s="236" t="s">
         <v>2895</v>
       </c>
-      <c r="C245" s="232"/>
-    </row>
-    <row r="246" spans="1:13" ht="15" customHeight="1">
-      <c r="A246" s="240" t="s">
+      <c r="C245" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F245" t="s">
+        <v>2871</v>
+      </c>
+      <c r="J245" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" ht="15" customHeight="1">
+      <c r="A246" s="236" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" ht="15" customHeight="1">
+      <c r="C246" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F246" t="s">
+        <v>328</v>
+      </c>
+      <c r="J246" t="s">
+        <v>2924</v>
+      </c>
+      <c r="S246">
+        <v>1E-3</v>
+      </c>
+      <c r="T246">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" ht="15" customHeight="1">
       <c r="A247" s="236" t="s">
         <v>2896</v>
       </c>
-      <c r="C247" s="232"/>
-    </row>
-    <row r="248" spans="1:13" ht="15" customHeight="1">
+      <c r="C247" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F247" t="s">
+        <v>2871</v>
+      </c>
+      <c r="J247" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" ht="15" customHeight="1">
       <c r="A248" s="236" t="s">
-        <v>2904</v>
+        <v>2911</v>
       </c>
       <c r="C248" s="232" t="s">
         <v>2879</v>
@@ -58326,11 +58453,11 @@
       <c r="F248" t="s">
         <v>2871</v>
       </c>
-      <c r="M248" s="221">
-        <v>54.638365</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" ht="15" customHeight="1">
+      <c r="J248" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" ht="15" customHeight="1">
       <c r="A249" s="236" t="s">
         <v>2885</v>
       </c>
@@ -58343,37 +58470,60 @@
       <c r="F249" t="s">
         <v>2871</v>
       </c>
-      <c r="M249" s="221">
-        <v>93.696398000000002</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" ht="15" customHeight="1">
+      <c r="J249" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" ht="15" customHeight="1">
       <c r="A250" s="236" t="s">
-        <v>2905</v>
-      </c>
-      <c r="C250" s="232"/>
-    </row>
-    <row r="251" spans="1:13" ht="15" customHeight="1">
+        <v>2912</v>
+      </c>
+      <c r="C250" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F250" t="s">
+        <v>2871</v>
+      </c>
+      <c r="J250" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" ht="15" customHeight="1">
       <c r="A251" s="236" t="s">
-        <v>2906</v>
-      </c>
-      <c r="C251" s="232"/>
-    </row>
-    <row r="252" spans="1:13" ht="15" customHeight="1">
+        <v>2913</v>
+      </c>
+      <c r="C251" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F251" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" ht="15" customHeight="1">
       <c r="A252" s="236" t="s">
-        <v>2907</v>
-      </c>
-      <c r="C252" s="232"/>
-    </row>
-    <row r="253" spans="1:13" ht="15" customHeight="1">
+        <v>2914</v>
+      </c>
+      <c r="C252" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F252" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" ht="15" customHeight="1">
       <c r="A253" s="236" t="s">
-        <v>2908</v>
-      </c>
-      <c r="C253" s="232"/>
-    </row>
-    <row r="254" spans="1:13" ht="15" customHeight="1">
-      <c r="A254" s="240" t="s">
-        <v>2909</v>
+        <v>2915</v>
+      </c>
+      <c r="C253" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F253" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" ht="15" customHeight="1">
+      <c r="A254" s="236" t="s">
+        <v>2916</v>
       </c>
       <c r="C254" s="232" t="s">
         <v>2879</v>
@@ -58384,18 +58534,21 @@
       <c r="F254" t="s">
         <v>2871</v>
       </c>
-      <c r="M254" s="221">
-        <v>94.711264</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" ht="15" customHeight="1">
-      <c r="A255" s="240" t="s">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" ht="15" customHeight="1">
+    </row>
+    <row r="255" spans="1:20" ht="15" customHeight="1">
+      <c r="A255" s="236" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C255" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F255" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" ht="15" customHeight="1">
       <c r="A256" s="236" t="s">
-        <v>2911</v>
+        <v>2904</v>
       </c>
       <c r="C256" s="232" t="s">
         <v>2879</v>
@@ -58406,116 +58559,180 @@
       <c r="F256" t="s">
         <v>2871</v>
       </c>
-      <c r="M256" s="221">
-        <v>93.532017999999994</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" ht="15" customHeight="1">
+    </row>
+    <row r="257" spans="1:20" ht="15" customHeight="1">
       <c r="A257" s="236" t="s">
-        <v>2912</v>
-      </c>
-      <c r="C257" s="232"/>
-    </row>
-    <row r="258" spans="1:13" ht="15" customHeight="1">
+        <v>2918</v>
+      </c>
+      <c r="C257" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F257" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" ht="15" customHeight="1">
       <c r="A258" s="236" t="s">
-        <v>2913</v>
-      </c>
-      <c r="C258" s="232"/>
-    </row>
-    <row r="259" spans="1:13" ht="15" customHeight="1">
-      <c r="A259" s="236" t="s">
-        <v>2914</v>
-      </c>
-      <c r="C259" s="232"/>
-    </row>
-    <row r="260" spans="1:13" ht="15" customHeight="1">
+        <v>2881</v>
+      </c>
+      <c r="C258" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E258" t="s">
+        <v>120</v>
+      </c>
+      <c r="F258" t="s">
+        <v>322</v>
+      </c>
+      <c r="J258" t="s">
+        <v>2882</v>
+      </c>
+      <c r="K258" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" ht="15" customHeight="1">
+      <c r="A259" s="238" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C259" s="237" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E259" s="223" t="s">
+        <v>120</v>
+      </c>
+      <c r="F259" s="223" t="s">
+        <v>2871</v>
+      </c>
+      <c r="J259" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" ht="15" customHeight="1">
       <c r="A260" s="236" t="s">
-        <v>2915</v>
-      </c>
-      <c r="C260" s="232"/>
-    </row>
-    <row r="261" spans="1:13" ht="15" customHeight="1">
+        <v>2905</v>
+      </c>
+      <c r="C260" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F260" s="223" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" ht="15" customHeight="1">
       <c r="A261" s="236" t="s">
-        <v>2916</v>
-      </c>
-      <c r="C261" s="232"/>
-    </row>
-    <row r="262" spans="1:13" ht="15" customHeight="1">
+        <v>2906</v>
+      </c>
+      <c r="C261" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F261" s="223" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" ht="15" customHeight="1">
       <c r="A262" s="236" t="s">
-        <v>2917</v>
-      </c>
-      <c r="C262" s="232"/>
-    </row>
-    <row r="263" spans="1:13" ht="15" customHeight="1">
+        <v>2907</v>
+      </c>
+      <c r="C262" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F262" s="223" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" ht="15" customHeight="1">
       <c r="A263" s="236" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C263" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F263" s="223" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" ht="15" customHeight="1">
+      <c r="A264" s="236" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C264" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F264" s="223" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" ht="15" customHeight="1">
+      <c r="A265" s="236" t="s">
         <v>2887</v>
       </c>
-      <c r="C263" s="232"/>
-    </row>
-    <row r="264" spans="1:13" ht="15" customHeight="1">
-      <c r="A264" s="236" t="s">
+      <c r="C265" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F265" s="223" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" ht="15" customHeight="1">
+      <c r="A266" s="236" t="s">
         <v>2888</v>
       </c>
-      <c r="C264" s="232"/>
-    </row>
-    <row r="265" spans="1:13" ht="15" customHeight="1">
-      <c r="A265" s="236" t="s">
-        <v>2918</v>
-      </c>
-      <c r="C265" s="232"/>
-    </row>
-    <row r="266" spans="1:13" ht="15" customHeight="1">
-      <c r="A266" s="236" t="s">
+      <c r="C266" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F266" s="223" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" ht="15" customHeight="1">
+      <c r="A267" s="236" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C267" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F267" s="223" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" ht="15" customHeight="1">
+      <c r="A268" s="236" t="s">
         <v>2886</v>
       </c>
-      <c r="C266" s="232"/>
-    </row>
-    <row r="267" spans="1:13" ht="15" customHeight="1">
-      <c r="A267" s="236" t="s">
+      <c r="C268" s="232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F268" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" ht="15" customHeight="1">
+      <c r="A269" s="236" t="s">
         <v>2890</v>
-      </c>
-      <c r="C267" s="232"/>
-    </row>
-    <row r="268" spans="1:13" ht="15" customHeight="1">
-      <c r="A268" s="236" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C268" s="232"/>
-    </row>
-    <row r="269" spans="1:13" ht="15" customHeight="1">
-      <c r="A269" s="236" t="s">
-        <v>2823</v>
       </c>
       <c r="C269" s="232" t="s">
         <v>2879</v>
       </c>
-      <c r="E269" t="s">
-        <v>120</v>
-      </c>
       <c r="F269" t="s">
-        <v>328</v>
-      </c>
-      <c r="M269" s="221">
-        <v>78.930818000000002</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" ht="15" customHeight="1">
-      <c r="A270" s="236"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" ht="15" customHeight="1">
+      <c r="A270" s="236" t="s">
+        <v>2889</v>
+      </c>
       <c r="C270" s="232" t="s">
         <v>2879</v>
       </c>
-      <c r="E270" t="s">
-        <v>120</v>
-      </c>
       <c r="F270" t="s">
         <v>2871</v>
       </c>
-      <c r="M270" s="221">
-        <v>89.865638000000004</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" ht="15" customHeight="1">
-      <c r="A271" s="236"/>
+    </row>
+    <row r="271" spans="1:20" ht="15" customHeight="1">
+      <c r="A271" s="236" t="s">
+        <v>2823</v>
+      </c>
       <c r="C271" s="232" t="s">
         <v>2879</v>
       </c>
@@ -58523,103 +58740,58 @@
         <v>120</v>
       </c>
       <c r="F271" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M271" s="221">
-        <v>91.552316000000005</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" ht="15" customHeight="1">
+        <v>322</v>
+      </c>
+      <c r="S271">
+        <v>10</v>
+      </c>
+      <c r="T271">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" ht="15" customHeight="1">
       <c r="A272" s="236"/>
-      <c r="C272" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E272" t="s">
-        <v>120</v>
-      </c>
-      <c r="F272" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M272" s="221">
-        <v>60.513150000000003</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" ht="15" customHeight="1">
-      <c r="C273" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E273" t="s">
-        <v>120</v>
-      </c>
-      <c r="F273" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M273" s="221">
-        <v>62.056890000000003</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" ht="15" customHeight="1">
-      <c r="A274" s="238"/>
+      <c r="C272" s="232"/>
+    </row>
+    <row r="273" spans="1:6" ht="15" customHeight="1">
+      <c r="A273" s="236"/>
+      <c r="C273" s="232"/>
+    </row>
+    <row r="274" spans="1:6" ht="15" customHeight="1">
+      <c r="A274" s="236"/>
       <c r="C274" s="232"/>
-      <c r="M274" s="221">
-        <v>33.897942</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" ht="15" customHeight="1">
-      <c r="A275" s="238"/>
+    </row>
+    <row r="275" spans="1:6" ht="15" customHeight="1">
       <c r="C275" s="232"/>
-      <c r="E275" s="223"/>
-      <c r="F275" s="225"/>
-    </row>
-    <row r="276" spans="1:13" ht="15" customHeight="1">
-      <c r="A276" s="236" t="s">
-        <v>2881</v>
-      </c>
-      <c r="C276" s="232" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E276" t="s">
-        <v>120</v>
-      </c>
-      <c r="F276" t="s">
-        <v>322</v>
-      </c>
-      <c r="J276" t="s">
-        <v>2882</v>
-      </c>
-      <c r="K276" t="s">
-        <v>2883</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" ht="15" customHeight="1">
+    </row>
+    <row r="276" spans="1:6" ht="15" customHeight="1">
+      <c r="A276" s="238"/>
+      <c r="C276" s="232"/>
+    </row>
+    <row r="277" spans="1:6" ht="15" customHeight="1">
       <c r="A277" s="238"/>
       <c r="C277" s="232"/>
       <c r="E277" s="223"/>
-      <c r="F277" s="239"/>
-    </row>
-    <row r="278" spans="1:13" ht="15" customHeight="1">
-      <c r="A278" s="238" t="s">
-        <v>2894</v>
-      </c>
-      <c r="C278" s="237" t="s">
-        <v>2879</v>
-      </c>
-      <c r="E278" s="223" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" ht="15" customHeight="1">
+      <c r="F277" s="225"/>
+    </row>
+    <row r="279" spans="1:6" ht="15" customHeight="1">
       <c r="A279" s="238"/>
-      <c r="C279" s="237"/>
+      <c r="C279" s="232"/>
       <c r="E279" s="223"/>
-    </row>
-    <row r="280" spans="1:13" ht="15" customHeight="1">
-      <c r="A280" s="238"/>
-      <c r="C280" s="237"/>
-      <c r="E280" s="223"/>
+      <c r="F279" s="225"/>
+    </row>
+    <row r="281" spans="1:6" ht="15" customHeight="1">
+      <c r="A281" s="238"/>
+      <c r="C281" s="237"/>
+      <c r="E281" s="223"/>
+    </row>
+    <row r="282" spans="1:6" ht="15" customHeight="1">
+      <c r="A282" s="238"/>
+      <c r="C282" s="237"/>
+      <c r="E282" s="223"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T280" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
+  <autoFilter ref="A1:T282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
   <conditionalFormatting sqref="D2:H4 D5:F81 H5:H81 G5:G234">
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D2))))</formula>
@@ -58647,7 +58819,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M236:M245 M256:M274 M247:M254 M276">
+  <conditionalFormatting sqref="M236:M245 M256:M258 M260:M276 M247:M254">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA27C0-6D85-EC47-AB16-7D410C659BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D93B330-25AB-D44F-B76D-D35E231B4AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="3200" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12381" uniqueCount="2928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12418" uniqueCount="2948">
   <si>
     <t>Tab</t>
   </si>
@@ -11279,9 +11279,6 @@
     <t>Presence of microcephaly after birth</t>
   </si>
   <si>
-    <t>Presence of microcephaly based on head circumference</t>
-  </si>
-  <si>
     <t>Studycode</t>
   </si>
   <si>
@@ -11291,10 +11288,73 @@
     <t>Neurological abnormalities</t>
   </si>
   <si>
-    <t>Contractures</t>
-  </si>
-  <si>
     <t>Cardiovascular abnormalities</t>
+  </si>
+  <si>
+    <t>Presence of microcephaly at birth based on head circumference</t>
+  </si>
+  <si>
+    <t>Gestational age at which the baby was born</t>
+  </si>
+  <si>
+    <t>No?</t>
+  </si>
+  <si>
+    <t>Indicates whether the fetus has died</t>
+  </si>
+  <si>
+    <t>Gestation age at which the fetus died</t>
+  </si>
+  <si>
+    <t>Gestational age at which the baby was born or died</t>
+  </si>
+  <si>
+    <t>Z-score head circumference</t>
+  </si>
+  <si>
+    <t>Indicator whether the baby was alive after birth</t>
+  </si>
+  <si>
+    <t>Gastrointestinal abnormalities</t>
+  </si>
+  <si>
+    <t>Ocular abnormalities</t>
+  </si>
+  <si>
+    <t>Congenital contractures</t>
+  </si>
+  <si>
+    <t>Nonneurologic abnormalities: cardio, gastro, orofactial, genur</t>
+  </si>
+  <si>
+    <t>Any abnormality, except microcephaly</t>
+  </si>
+  <si>
+    <t>Genetic abnormalities</t>
+  </si>
+  <si>
+    <t>Concurrent or prior DENV</t>
+  </si>
+  <si>
+    <t>Concurrent or prior CHIKV</t>
+  </si>
+  <si>
+    <t>Pregnancy-related comorbidities</t>
+  </si>
+  <si>
+    <t>STORCH pathogen infection during current pregnancy</t>
+  </si>
+  <si>
+    <t>Prior arbovirus infection</t>
+  </si>
+  <si>
+    <t>Current arbovirus infection</t>
+  </si>
+  <si>
+    <t>Current arbovirus infection excluding zikv</t>
+  </si>
+  <si>
+    <t>Concurrent or prior flavi- or alpha virus infection</t>
   </si>
 </sst>
 </file>
@@ -11963,7 +12023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12615,7 +12675,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -47946,10 +48005,10 @@
   <dimension ref="A1:T282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B233" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J251" sqref="J251"/>
+      <selection pane="bottomRight" activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -50636,7 +50695,7 @@
         <v>121</v>
       </c>
       <c r="E63" s="188" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="F63" s="188" t="s">
         <v>322</v>
@@ -54196,7 +54255,7 @@
       <c r="R139" t="s">
         <v>2849</v>
       </c>
-      <c r="S139" s="239">
+      <c r="S139" s="223">
         <v>1E-3</v>
       </c>
       <c r="T139">
@@ -57257,8 +57316,12 @@
         <v>120</v>
       </c>
       <c r="D212" s="196"/>
-      <c r="E212" s="196"/>
-      <c r="F212" s="196"/>
+      <c r="E212" s="176" t="s">
+        <v>121</v>
+      </c>
+      <c r="F212" s="176" t="s">
+        <v>328</v>
+      </c>
       <c r="G212" s="177">
         <v>211</v>
       </c>
@@ -58279,8 +58342,8 @@
       <c r="F236" t="s">
         <v>322</v>
       </c>
-      <c r="J236" s="240" t="s">
-        <v>2923</v>
+      <c r="J236" s="224" t="s">
+        <v>2922</v>
       </c>
     </row>
     <row r="237" spans="1:20" ht="15" customHeight="1">
@@ -58290,8 +58353,14 @@
       <c r="C237" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E237" t="s">
+        <v>2928</v>
+      </c>
       <c r="F237" t="s">
         <v>328</v>
+      </c>
+      <c r="J237" s="239" t="s">
+        <v>2927</v>
       </c>
       <c r="S237">
         <v>1E-3</v>
@@ -58307,8 +58376,14 @@
       <c r="C238" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E238" t="s">
+        <v>2928</v>
+      </c>
       <c r="F238" t="s">
         <v>2871</v>
+      </c>
+      <c r="J238" t="s">
+        <v>2933</v>
       </c>
     </row>
     <row r="239" spans="1:20" ht="15" customHeight="1">
@@ -58318,8 +58393,14 @@
       <c r="C239" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E239" t="s">
+        <v>121</v>
+      </c>
       <c r="F239" t="s">
         <v>2871</v>
+      </c>
+      <c r="J239" t="s">
+        <v>2929</v>
       </c>
     </row>
     <row r="240" spans="1:20" ht="15" customHeight="1">
@@ -58329,8 +58410,14 @@
       <c r="C240" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E240" t="s">
+        <v>121</v>
+      </c>
       <c r="F240" t="s">
         <v>328</v>
+      </c>
+      <c r="J240" t="s">
+        <v>2930</v>
       </c>
       <c r="S240">
         <v>1E-3</v>
@@ -58349,6 +58436,9 @@
       <c r="F241" t="s">
         <v>328</v>
       </c>
+      <c r="J241" t="s">
+        <v>2931</v>
+      </c>
       <c r="S241">
         <v>1E-3</v>
       </c>
@@ -58363,8 +58453,14 @@
       <c r="C242" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E242" t="s">
+        <v>153</v>
+      </c>
       <c r="F242" t="s">
         <v>328</v>
+      </c>
+      <c r="J242" t="s">
+        <v>2932</v>
       </c>
     </row>
     <row r="243" spans="1:20" ht="15" customHeight="1">
@@ -58378,7 +58474,7 @@
         <v>322</v>
       </c>
       <c r="J243" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="244" spans="1:20" ht="15" customHeight="1">
@@ -58417,7 +58513,7 @@
         <v>328</v>
       </c>
       <c r="J246" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="S246">
         <v>1E-3</v>
@@ -58454,7 +58550,7 @@
         <v>2871</v>
       </c>
       <c r="J248" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="249" spans="1:20" ht="15" customHeight="1">
@@ -58471,7 +58567,7 @@
         <v>2871</v>
       </c>
       <c r="J249" t="s">
-        <v>2926</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="250" spans="1:20" ht="15" customHeight="1">
@@ -58485,7 +58581,7 @@
         <v>2871</v>
       </c>
       <c r="J250" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="251" spans="1:20" ht="15" customHeight="1">
@@ -58498,6 +58594,9 @@
       <c r="F251" t="s">
         <v>2871</v>
       </c>
+      <c r="J251" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="252" spans="1:20" ht="15" customHeight="1">
       <c r="A252" s="236" t="s">
@@ -58520,6 +58619,9 @@
       <c r="F253" t="s">
         <v>2871</v>
       </c>
+      <c r="J253" t="s">
+        <v>2935</v>
+      </c>
     </row>
     <row r="254" spans="1:20" ht="15" customHeight="1">
       <c r="A254" s="236" t="s">
@@ -58545,6 +58647,9 @@
       <c r="F255" t="s">
         <v>2871</v>
       </c>
+      <c r="J255" t="s">
+        <v>2937</v>
+      </c>
     </row>
     <row r="256" spans="1:20" ht="15" customHeight="1">
       <c r="A256" s="236" t="s">
@@ -58553,11 +58658,11 @@
       <c r="C256" s="232" t="s">
         <v>2879</v>
       </c>
-      <c r="E256" t="s">
-        <v>120</v>
-      </c>
       <c r="F256" t="s">
         <v>2871</v>
+      </c>
+      <c r="J256" t="s">
+        <v>2938</v>
       </c>
     </row>
     <row r="257" spans="1:20" ht="15" customHeight="1">
@@ -58567,8 +58672,14 @@
       <c r="C257" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E257" t="s">
+        <v>120</v>
+      </c>
       <c r="F257" t="s">
         <v>2871</v>
+      </c>
+      <c r="J257" t="s">
+        <v>2939</v>
       </c>
     </row>
     <row r="258" spans="1:20" ht="15" customHeight="1">
@@ -58615,8 +58726,14 @@
       <c r="C260" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E260" s="223" t="s">
+        <v>2284</v>
+      </c>
       <c r="F260" s="223" t="s">
         <v>2871</v>
+      </c>
+      <c r="J260" t="s">
+        <v>2947</v>
       </c>
     </row>
     <row r="261" spans="1:20" ht="15" customHeight="1">
@@ -58626,8 +58743,14 @@
       <c r="C261" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E261" t="s">
+        <v>120</v>
+      </c>
       <c r="F261" s="223" t="s">
         <v>2871</v>
+      </c>
+      <c r="J261" t="s">
+        <v>2943</v>
       </c>
     </row>
     <row r="262" spans="1:20" ht="15" customHeight="1">
@@ -58637,8 +58760,14 @@
       <c r="C262" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E262" t="s">
+        <v>2284</v>
+      </c>
       <c r="F262" s="223" t="s">
         <v>2871</v>
+      </c>
+      <c r="J262" t="s">
+        <v>2944</v>
       </c>
     </row>
     <row r="263" spans="1:20" ht="15" customHeight="1">
@@ -58648,8 +58777,14 @@
       <c r="C263" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E263" t="s">
+        <v>2284</v>
+      </c>
       <c r="F263" s="223" t="s">
         <v>2871</v>
+      </c>
+      <c r="J263" t="s">
+        <v>2945</v>
       </c>
     </row>
     <row r="264" spans="1:20" ht="15" customHeight="1">
@@ -58659,8 +58794,14 @@
       <c r="C264" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E264" t="s">
+        <v>2284</v>
+      </c>
       <c r="F264" s="223" t="s">
         <v>2871</v>
+      </c>
+      <c r="J264" t="s">
+        <v>2946</v>
       </c>
     </row>
     <row r="265" spans="1:20" ht="15" customHeight="1">
@@ -58670,8 +58811,14 @@
       <c r="C265" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E265" t="s">
+        <v>120</v>
+      </c>
       <c r="F265" s="223" t="s">
         <v>2871</v>
+      </c>
+      <c r="J265" t="s">
+        <v>2940</v>
       </c>
     </row>
     <row r="266" spans="1:20" ht="15" customHeight="1">
@@ -58681,8 +58828,14 @@
       <c r="C266" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E266" t="s">
+        <v>120</v>
+      </c>
       <c r="F266" s="223" t="s">
         <v>2871</v>
+      </c>
+      <c r="J266" t="s">
+        <v>2941</v>
       </c>
     </row>
     <row r="267" spans="1:20" ht="15" customHeight="1">
@@ -58703,8 +58856,14 @@
       <c r="C268" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E268" t="s">
+        <v>120</v>
+      </c>
       <c r="F268" t="s">
         <v>2871</v>
+      </c>
+      <c r="J268" t="s">
+        <v>2826</v>
       </c>
     </row>
     <row r="269" spans="1:20" ht="15" customHeight="1">
@@ -58714,6 +58873,9 @@
       <c r="C269" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E269" t="s">
+        <v>120</v>
+      </c>
       <c r="F269" t="s">
         <v>322</v>
       </c>
@@ -58725,8 +58887,14 @@
       <c r="C270" s="232" t="s">
         <v>2879</v>
       </c>
+      <c r="E270" t="s">
+        <v>120</v>
+      </c>
       <c r="F270" t="s">
         <v>2871</v>
+      </c>
+      <c r="J270" t="s">
+        <v>2942</v>
       </c>
     </row>
     <row r="271" spans="1:20" ht="15" customHeight="1">

--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D93B330-25AB-D44F-B76D-D35E231B4AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33707836-293D-2D4A-BE9C-0A29955AC2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48005,10 +48005,10 @@
   <dimension ref="A1:T282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E267" sqref="E267"/>
+      <selection pane="bottomRight" activeCell="Q283" sqref="Q283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49126,7 +49126,7 @@
       </c>
       <c r="O26" s="223"/>
       <c r="Q26" s="223" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -49170,7 +49170,7 @@
       </c>
       <c r="O27" s="223"/>
       <c r="Q27" s="223" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="S27">
         <v>1</v>

--- a/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
+++ b/1_Input_data/MasterCodebook_Final_June2022 ALL (Repaired).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6460F3A8-5426-304F-962A-AEA59E7093E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7B6ED-80F5-2048-BE41-866A39B6AE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="36460" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12621" uniqueCount="2965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12649" uniqueCount="2970">
   <si>
     <t>Tab</t>
   </si>
@@ -11406,6 +11406,21 @@
   </si>
   <si>
     <t>Descriptives table?</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Outcome and covariate</t>
+  </si>
+  <si>
+    <t>Exposure and covariate</t>
+  </si>
+  <si>
+    <t>Oro-facial abnormalities (cleft palate, cleft lip)</t>
+  </si>
+  <si>
+    <t>Genitourinary system abnormalities (Hypospadias, Hermaphroditism, Phimosis, renal agenesis)</t>
   </si>
 </sst>
 </file>
@@ -48051,14 +48066,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F162" sqref="F162"/>
+      <selection pane="bottomRight" activeCell="M241" sqref="M241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -48144,7 +48158,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="2" spans="1:23" ht="15" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -48185,7 +48199,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="3" spans="1:23" ht="15" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -48226,7 +48240,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:23" ht="15" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -48267,7 +48281,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:23" ht="15" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -48305,7 +48319,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:23" ht="15" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -48343,7 +48357,7 @@
         <v>77.342577371167195</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -48382,7 +48396,7 @@
       </c>
       <c r="R7" s="222"/>
     </row>
-    <row r="8" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -48421,7 +48435,7 @@
       </c>
       <c r="R8" s="222"/>
     </row>
-    <row r="9" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:23" ht="15" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -48460,7 +48474,7 @@
       </c>
       <c r="R9" s="222"/>
     </row>
-    <row r="10" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -48732,7 +48746,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -48836,7 +48850,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:22" ht="15" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -48878,7 +48892,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:22" ht="15" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -48920,7 +48934,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:22" ht="15" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -48962,7 +48976,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:22" ht="15" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -49059,7 +49073,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:22" ht="15" customHeight="1">
       <c r="A22" s="214" t="s">
         <v>269</v>
       </c>
@@ -49106,7 +49120,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:22" ht="15" customHeight="1">
       <c r="A23" s="193" t="s">
         <v>309</v>
       </c>
@@ -49153,7 +49167,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:22" ht="15" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -49200,7 +49214,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:22" ht="15" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -49247,7 +49261,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:22" ht="15" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -49294,7 +49308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:22" ht="15" customHeight="1">
       <c r="A27" s="193" t="s">
         <v>365</v>
       </c>
@@ -49341,7 +49355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:22" ht="15" customHeight="1">
       <c r="A28" s="193" t="s">
         <v>369</v>
       </c>
@@ -49383,7 +49397,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:22" ht="15" customHeight="1">
       <c r="A29" s="215" t="s">
         <v>372</v>
       </c>
@@ -49425,7 +49439,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:22" ht="15" customHeight="1">
       <c r="A30" s="215" t="s">
         <v>374</v>
       </c>
@@ -49468,7 +49482,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:22" ht="15" customHeight="1">
       <c r="A31" s="215" t="s">
         <v>376</v>
       </c>
@@ -49511,7 +49525,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:22" ht="15" customHeight="1">
       <c r="A32" s="215" t="s">
         <v>378</v>
       </c>
@@ -49553,7 +49567,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:20" ht="15" customHeight="1">
       <c r="A33" s="193" t="s">
         <v>380</v>
       </c>
@@ -49594,7 +49608,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:20" ht="15" customHeight="1">
       <c r="A34" s="193" t="s">
         <v>382</v>
       </c>
@@ -49637,7 +49651,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:20" ht="15" customHeight="1">
       <c r="A35" s="193" t="s">
         <v>385</v>
       </c>
@@ -49678,7 +49692,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:20" ht="15" customHeight="1">
       <c r="A36" s="216" t="s">
         <v>395</v>
       </c>
@@ -49725,7 +49739,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:20" ht="15" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -49772,7 +49786,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:20" ht="15" customHeight="1">
       <c r="A38" s="215" t="s">
         <v>400</v>
       </c>
@@ -49816,7 +49830,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:20" ht="15" customHeight="1">
       <c r="A39" s="193" t="s">
         <v>403</v>
       </c>
@@ -49857,7 +49871,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="40" spans="1:20" ht="15" customHeight="1">
       <c r="A40" s="193" t="s">
         <v>405</v>
       </c>
@@ -49898,7 +49912,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:20" ht="15" customHeight="1">
       <c r="A41" s="193" t="s">
         <v>408</v>
       </c>
@@ -49934,7 +49948,7 @@
         <v>98.499035093988994</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:20" ht="15" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -49981,7 +49995,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:20" ht="15" customHeight="1">
       <c r="A43" s="193" t="s">
         <v>416</v>
       </c>
@@ -50030,7 +50044,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:20" ht="15" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -50077,7 +50091,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:20" ht="15" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -50124,7 +50138,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:20" ht="15" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -50171,7 +50185,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:20" ht="15" customHeight="1">
       <c r="A47" s="193" t="s">
         <v>454</v>
       </c>
@@ -50218,7 +50232,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:20" ht="15" customHeight="1">
       <c r="A48" s="193" t="s">
         <v>457</v>
       </c>
@@ -50259,7 +50273,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:23" ht="15" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2648</v>
       </c>
@@ -50311,7 +50325,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:23" ht="15" customHeight="1">
       <c r="A50" s="193" t="s">
         <v>465</v>
       </c>
@@ -50369,7 +50383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:23" ht="15" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -50427,7 +50441,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:23" ht="15" customHeight="1">
       <c r="A52" s="193" t="s">
         <v>469</v>
       </c>
@@ -50476,7 +50490,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:23" ht="15" customHeight="1">
       <c r="A53" s="193" t="s">
         <v>472</v>
       </c>
@@ -50523,7 +50537,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:23" ht="15" customHeight="1">
       <c r="A54" s="215" t="s">
         <v>474</v>
       </c>
@@ -50572,7 +50586,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:23" ht="15" customHeight="1">
       <c r="A55" s="215" t="s">
         <v>478</v>
       </c>
@@ -50615,7 +50629,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:23" ht="15" customHeight="1">
       <c r="A56" s="177" t="s">
         <v>482</v>
       </c>
@@ -50659,7 +50673,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:23" ht="15" customHeight="1">
       <c r="A57" s="215" t="s">
         <v>484</v>
       </c>
@@ -50714,7 +50728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:23" ht="15" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -50761,7 +50775,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:23" ht="15" customHeight="1">
       <c r="A59" s="217" t="s">
         <v>490</v>
       </c>
@@ -50810,7 +50824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:23" ht="15" customHeight="1">
       <c r="A60" s="215" t="s">
         <v>493</v>
       </c>
@@ -50857,7 +50871,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:23" ht="15" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -50904,7 +50918,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:23" ht="15" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -51010,7 +51024,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:23" ht="15" customHeight="1">
       <c r="A64" s="215" t="s">
         <v>530</v>
       </c>
@@ -51057,7 +51071,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:20" ht="15" customHeight="1">
       <c r="A65" s="193" t="s">
         <v>533</v>
       </c>
@@ -51104,7 +51118,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:20" ht="15" customHeight="1">
       <c r="A66" s="215" t="s">
         <v>535</v>
       </c>
@@ -51151,7 +51165,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:20" ht="15" customHeight="1">
       <c r="A67" s="215" t="s">
         <v>537</v>
       </c>
@@ -51198,7 +51212,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:20" ht="15" customHeight="1">
       <c r="A68" s="215" t="s">
         <v>539</v>
       </c>
@@ -51245,7 +51259,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:20" ht="15" customHeight="1">
       <c r="A69" s="215" t="s">
         <v>542</v>
       </c>
@@ -51286,7 +51300,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:20" ht="15" customHeight="1">
       <c r="A70" s="215" t="s">
         <v>544</v>
       </c>
@@ -51333,7 +51347,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:20" ht="15" customHeight="1">
       <c r="A71" s="215" t="s">
         <v>546</v>
       </c>
@@ -51380,7 +51394,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:20" ht="15" customHeight="1">
       <c r="A72" s="215" t="s">
         <v>548</v>
       </c>
@@ -51427,7 +51441,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:20" ht="15" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -51474,7 +51488,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="74" spans="1:20" ht="15" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -51521,7 +51535,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="75" spans="1:20" ht="15" customHeight="1">
       <c r="A75" s="215" t="s">
         <v>554</v>
       </c>
@@ -51568,7 +51582,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="76" spans="1:20" ht="15" customHeight="1">
       <c r="A76" s="215" t="s">
         <v>556</v>
       </c>
@@ -51615,7 +51629,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="77" spans="1:20" ht="15" customHeight="1">
       <c r="A77" s="215" t="s">
         <v>558</v>
       </c>
@@ -51662,7 +51676,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="78" spans="1:20" ht="15" customHeight="1">
       <c r="A78" s="215" t="s">
         <v>560</v>
       </c>
@@ -51931,7 +51945,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:23" ht="15" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -51978,7 +51992,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:23" ht="15" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -52019,7 +52033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:23" ht="15" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -52075,7 +52089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:23" ht="15" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -52122,7 +52136,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:23" ht="15" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -52171,7 +52185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:23" ht="15" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -52275,7 +52289,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:23" ht="15" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -52328,7 +52342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:23" ht="15" customHeight="1">
       <c r="A91" s="193" t="s">
         <v>733</v>
       </c>
@@ -52371,7 +52385,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:23" ht="15" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -52481,7 +52495,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:23" ht="15" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -52534,7 +52548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:23" ht="15" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -52589,7 +52603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:23" ht="15" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -52695,7 +52709,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:23" ht="15" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -52803,7 +52817,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:23" ht="15" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -53253,7 +53267,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:23" ht="15" customHeight="1">
       <c r="A108" s="194" t="s">
         <v>791</v>
       </c>
@@ -53300,7 +53314,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:23" ht="15" customHeight="1">
       <c r="A109" s="194" t="s">
         <v>798</v>
       </c>
@@ -53347,7 +53361,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:23" ht="15" customHeight="1">
       <c r="A110" s="194" t="s">
         <v>802</v>
       </c>
@@ -53400,7 +53414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:23" ht="15" customHeight="1">
       <c r="A111" s="194" t="s">
         <v>805</v>
       </c>
@@ -53444,7 +53458,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:23" ht="15" customHeight="1">
       <c r="A112" s="194" t="s">
         <v>809</v>
       </c>
@@ -53490,7 +53504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="113" spans="1:23" ht="15" customHeight="1">
       <c r="A113" s="194" t="s">
         <v>811</v>
       </c>
@@ -53548,7 +53562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="114" spans="1:23" ht="15" customHeight="1">
       <c r="A114" s="194" t="s">
         <v>813</v>
       </c>
@@ -53597,7 +53611,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:23" ht="15" customHeight="1">
       <c r="A115" s="194" t="s">
         <v>815</v>
       </c>
@@ -53643,7 +53657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:23" ht="15" customHeight="1">
       <c r="A116" s="194" t="s">
         <v>829</v>
       </c>
@@ -53701,7 +53715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:23" ht="15" customHeight="1">
       <c r="A117" s="194" t="s">
         <v>832</v>
       </c>
@@ -53747,7 +53761,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:23" ht="15" customHeight="1">
       <c r="A118" s="194" t="s">
         <v>835</v>
       </c>
@@ -53846,7 +53860,7 @@
         <v>2839</v>
       </c>
       <c r="R119" t="s">
-        <v>124</v>
+        <v>2812</v>
       </c>
       <c r="T119" s="224" t="s">
         <v>328</v>
@@ -53861,7 +53875,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:23" ht="15" customHeight="1">
       <c r="A120" s="194" t="s">
         <v>842</v>
       </c>
@@ -53904,7 +53918,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:23" ht="15" customHeight="1">
       <c r="A121" s="194" t="s">
         <v>846</v>
       </c>
@@ -53950,7 +53964,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:23" ht="15" customHeight="1">
       <c r="A122" s="194" t="s">
         <v>850</v>
       </c>
@@ -54008,7 +54022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:23" ht="15" customHeight="1">
       <c r="A123" s="194" t="s">
         <v>852</v>
       </c>
@@ -54054,7 +54068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:23" ht="15" customHeight="1">
       <c r="A124" s="194" t="s">
         <v>854</v>
       </c>
@@ -54100,7 +54114,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:23" ht="15" customHeight="1">
       <c r="A125" s="194" t="s">
         <v>856</v>
       </c>
@@ -54146,7 +54160,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:23" ht="15" customHeight="1">
       <c r="A126" s="194" t="s">
         <v>860</v>
       </c>
@@ -54192,7 +54206,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:23" ht="15" customHeight="1">
       <c r="A127" s="194" t="s">
         <v>864</v>
       </c>
@@ -54238,7 +54252,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:23" ht="15" customHeight="1">
       <c r="A128" s="194" t="s">
         <v>870</v>
       </c>
@@ -54284,7 +54298,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:23" ht="15" customHeight="1">
       <c r="A129" s="194" t="s">
         <v>874</v>
       </c>
@@ -54336,7 +54350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:23" ht="15" customHeight="1">
       <c r="A130" s="194" t="s">
         <v>879</v>
       </c>
@@ -54382,7 +54396,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:23" ht="15" customHeight="1">
       <c r="A131" s="194" t="s">
         <v>881</v>
       </c>
@@ -54434,7 +54448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:23" ht="15" customHeight="1">
       <c r="A132" s="194" t="s">
         <v>885</v>
       </c>
@@ -54486,7 +54500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:23" ht="15" customHeight="1">
       <c r="A133" s="194" t="s">
         <v>890</v>
       </c>
@@ -54532,7 +54546,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:23" ht="15" customHeight="1">
       <c r="A134" s="194" t="s">
         <v>894</v>
       </c>
@@ -54587,7 +54601,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:23" ht="15" customHeight="1">
       <c r="A135" s="194" t="s">
         <v>898</v>
       </c>
@@ -54639,7 +54653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:23" ht="15" customHeight="1">
       <c r="A136" s="194" t="s">
         <v>901</v>
       </c>
@@ -54691,7 +54705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:23" ht="15" customHeight="1">
       <c r="A137" s="194" t="s">
         <v>905</v>
       </c>
@@ -54740,7 +54754,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:23" ht="15" customHeight="1">
       <c r="A138" s="194" t="s">
         <v>909</v>
       </c>
@@ -54840,7 +54854,7 @@
         <v>2838</v>
       </c>
       <c r="R139" t="s">
-        <v>124</v>
+        <v>2967</v>
       </c>
       <c r="T139" s="224" t="s">
         <v>328</v>
@@ -54855,7 +54869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="140" spans="1:23" ht="15" customHeight="1">
       <c r="A140" s="194" t="s">
         <v>916</v>
       </c>
@@ -54961,7 +54975,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:23" ht="15" customHeight="1">
       <c r="A142" s="194" t="s">
         <v>921</v>
       </c>
@@ -55005,7 +55019,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:23" ht="15" customHeight="1">
       <c r="A143" s="194" t="s">
         <v>924</v>
       </c>
@@ -55052,7 +55066,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:23" ht="15" customHeight="1">
       <c r="A144" s="194" t="s">
         <v>931</v>
       </c>
@@ -55095,7 +55109,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:22" ht="15" customHeight="1">
       <c r="A145" s="194" t="s">
         <v>934</v>
       </c>
@@ -55147,7 +55161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:22" ht="15" customHeight="1">
       <c r="A146" s="194" t="s">
         <v>938</v>
       </c>
@@ -55190,7 +55204,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:22" ht="15" customHeight="1">
       <c r="A147" s="194" t="s">
         <v>941</v>
       </c>
@@ -55242,7 +55256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:22" ht="15" customHeight="1">
       <c r="A148" s="194" t="s">
         <v>945</v>
       </c>
@@ -55285,7 +55299,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:22" ht="15" customHeight="1">
       <c r="A149" s="194" t="s">
         <v>947</v>
       </c>
@@ -55337,7 +55351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="150" spans="1:22" ht="15" customHeight="1">
       <c r="A150" s="194" t="s">
         <v>949</v>
       </c>
@@ -55389,7 +55403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="151" spans="1:22" ht="15" customHeight="1">
       <c r="A151" s="194" t="s">
         <v>960</v>
       </c>
@@ -55436,7 +55450,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="152" spans="1:22" ht="15" customHeight="1">
       <c r="A152" s="194" t="s">
         <v>966</v>
       </c>
@@ -55479,7 +55493,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="153" spans="1:22" ht="15" customHeight="1">
       <c r="A153" s="194" t="s">
         <v>969</v>
       </c>
@@ -55531,7 +55545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="154" spans="1:22" ht="15" customHeight="1">
       <c r="A154" s="194" t="s">
         <v>973</v>
       </c>
@@ -55574,7 +55588,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="155" spans="1:22" ht="15" customHeight="1">
       <c r="A155" s="194" t="s">
         <v>976</v>
       </c>
@@ -55626,7 +55640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="156" spans="1:22" ht="15" customHeight="1">
       <c r="A156" s="194" t="s">
         <v>980</v>
       </c>
@@ -55669,7 +55683,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="157" spans="1:22" ht="15" customHeight="1">
       <c r="A157" s="194" t="s">
         <v>983</v>
       </c>
@@ -55721,7 +55735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="158" spans="1:22" ht="15" customHeight="1">
       <c r="A158" s="207" t="s">
         <v>1663</v>
       </c>
@@ -55759,7 +55773,7 @@
         <v>13.4086198270317</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:22" ht="15" customHeight="1">
       <c r="A159" s="207" t="s">
         <v>1660</v>
       </c>
@@ -55800,7 +55814,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:22" ht="15" customHeight="1">
       <c r="A160" s="207" t="s">
         <v>1658</v>
       </c>
@@ -55952,7 +55966,7 @@
       </c>
       <c r="T162" s="222"/>
     </row>
-    <row r="163" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:23" ht="15" customHeight="1">
       <c r="A163" s="203" t="s">
         <v>1042</v>
       </c>
@@ -55994,7 +56008,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:23" ht="15" customHeight="1">
       <c r="A164" s="203" t="s">
         <v>1039</v>
       </c>
@@ -56045,7 +56059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:23" ht="15" customHeight="1">
       <c r="A165" s="207" t="s">
         <v>1632</v>
       </c>
@@ -56081,7 +56095,7 @@
         <v>99.749839182331499</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:23" ht="15" customHeight="1">
       <c r="A166" s="207" t="s">
         <v>1628</v>
       </c>
@@ -56117,7 +56131,7 @@
         <v>99.635479951397301</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:23" ht="15" customHeight="1">
       <c r="A167" s="207" t="s">
         <v>1625</v>
       </c>
@@ -56155,7 +56169,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:23" ht="15" customHeight="1">
       <c r="A168" s="207" t="s">
         <v>1621</v>
       </c>
@@ -56191,7 +56205,7 @@
         <v>98.827817882924705</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:23" ht="15" customHeight="1">
       <c r="A169" s="207" t="s">
         <v>1619</v>
       </c>
@@ -56227,7 +56241,7 @@
         <v>99.849903509398899</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:23" ht="15" customHeight="1">
       <c r="A170" s="207" t="s">
         <v>1616</v>
       </c>
@@ -56263,7 +56277,7 @@
         <v>99.978557644199896</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:23" ht="15" customHeight="1">
       <c r="A171" s="207" t="s">
         <v>1612</v>
       </c>
@@ -56305,7 +56319,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:23" ht="15" customHeight="1">
       <c r="A172" s="203" t="s">
         <v>1522</v>
       </c>
@@ -56350,7 +56364,7 @@
       </c>
       <c r="T172" s="222"/>
     </row>
-    <row r="173" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:23" ht="15" customHeight="1">
       <c r="A173" s="218" t="s">
         <v>1517</v>
       </c>
@@ -56398,7 +56412,7 @@
       </c>
       <c r="T173" s="222"/>
     </row>
-    <row r="174" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:23" ht="15" customHeight="1">
       <c r="A174" s="207" t="s">
         <v>1511</v>
       </c>
@@ -56443,7 +56457,7 @@
       </c>
       <c r="T174" s="222"/>
     </row>
-    <row r="175" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:23" ht="15" customHeight="1">
       <c r="A175" s="218" t="s">
         <v>1508</v>
       </c>
@@ -56491,7 +56505,7 @@
       </c>
       <c r="T175" s="222"/>
     </row>
-    <row r="176" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:23" ht="15" customHeight="1">
       <c r="A176" s="218" t="s">
         <v>1504</v>
       </c>
@@ -56539,7 +56553,7 @@
       </c>
       <c r="T176" s="222"/>
     </row>
-    <row r="177" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="177" spans="1:20" ht="15" customHeight="1">
       <c r="A177" s="218" t="s">
         <v>1490</v>
       </c>
@@ -56587,7 +56601,7 @@
       </c>
       <c r="T177" s="222"/>
     </row>
-    <row r="178" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="178" spans="1:20" ht="15" customHeight="1">
       <c r="A178" s="218" t="s">
         <v>1475</v>
       </c>
@@ -56635,7 +56649,7 @@
       </c>
       <c r="T178" s="222"/>
     </row>
-    <row r="179" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="179" spans="1:20" ht="15" customHeight="1">
       <c r="A179" s="218" t="s">
         <v>1459</v>
       </c>
@@ -56683,7 +56697,7 @@
       </c>
       <c r="T179" s="222"/>
     </row>
-    <row r="180" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="180" spans="1:20" ht="15" customHeight="1">
       <c r="A180" s="218" t="s">
         <v>1445</v>
       </c>
@@ -56708,7 +56722,7 @@
       <c r="L180" s="207" t="s">
         <v>1423</v>
       </c>
-      <c r="M180" s="196" t="s">
+      <c r="M180" s="176" t="s">
         <v>1444</v>
       </c>
       <c r="N180" s="196" t="s">
@@ -56731,7 +56745,7 @@
       </c>
       <c r="T180" s="222"/>
     </row>
-    <row r="181" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="181" spans="1:20" ht="15" customHeight="1">
       <c r="A181" s="218" t="s">
         <v>1441</v>
       </c>
@@ -56779,7 +56793,7 @@
       </c>
       <c r="T181" s="222"/>
     </row>
-    <row r="182" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:20" ht="15" customHeight="1">
       <c r="A182" s="218" t="s">
         <v>1429</v>
       </c>
@@ -56827,7 +56841,7 @@
       </c>
       <c r="T182" s="222"/>
     </row>
-    <row r="183" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="183" spans="1:20" ht="15" customHeight="1">
       <c r="A183" s="207" t="s">
         <v>1419</v>
       </c>
@@ -56872,7 +56886,7 @@
       </c>
       <c r="T183" s="222"/>
     </row>
-    <row r="184" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="184" spans="1:20" ht="15" customHeight="1">
       <c r="A184" s="218" t="s">
         <v>1416</v>
       </c>
@@ -56920,7 +56934,7 @@
       </c>
       <c r="T184" s="222"/>
     </row>
-    <row r="185" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="185" spans="1:20" ht="15" customHeight="1">
       <c r="A185" s="218" t="s">
         <v>1412</v>
       </c>
@@ -56968,7 +56982,7 @@
       </c>
       <c r="T185" s="222"/>
     </row>
-    <row r="186" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="186" spans="1:20" ht="15" customHeight="1">
       <c r="A186" s="218" t="s">
         <v>1396</v>
       </c>
@@ -57016,7 +57030,7 @@
       </c>
       <c r="T186" s="222"/>
     </row>
-    <row r="187" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="187" spans="1:20" ht="15" customHeight="1">
       <c r="A187" s="218" t="s">
         <v>1380</v>
       </c>
@@ -57064,7 +57078,7 @@
       </c>
       <c r="T187" s="222"/>
     </row>
-    <row r="188" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="188" spans="1:20" ht="15" customHeight="1">
       <c r="A188" s="218" t="s">
         <v>1362</v>
       </c>
@@ -57112,7 +57126,7 @@
       </c>
       <c r="T188" s="222"/>
     </row>
-    <row r="189" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="189" spans="1:20" ht="15" customHeight="1">
       <c r="A189" s="218" t="s">
         <v>1345</v>
       </c>
@@ -57160,7 +57174,7 @@
       </c>
       <c r="T189" s="222"/>
     </row>
-    <row r="190" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="190" spans="1:20" ht="15" customHeight="1">
       <c r="A190" s="218" t="s">
         <v>1335</v>
       </c>
@@ -57208,7 +57222,7 @@
       </c>
       <c r="T190" s="222"/>
     </row>
-    <row r="191" spans="1:20" ht="15" hidden="1" customHeight="1">
+    <row r="191" spans="1:20" ht="15" customHeight="1">
       <c r="A191" s="218" t="s">
         <v>1320</v>
       </c>
@@ -57312,7 +57326,7 @@
       </c>
       <c r="T192" s="222"/>
     </row>
-    <row r="193" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="193" spans="1:23" ht="15" customHeight="1">
       <c r="A193" s="203" t="s">
         <v>1189</v>
       </c>
@@ -57360,7 +57374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="194" spans="1:23" ht="15" customHeight="1">
       <c r="A194" s="203" t="s">
         <v>1186</v>
       </c>
@@ -57399,7 +57413,7 @@
       <c r="S194" s="222"/>
       <c r="T194" s="222"/>
     </row>
-    <row r="195" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="195" spans="1:23" ht="15" customHeight="1">
       <c r="A195" s="203" t="s">
         <v>1183</v>
       </c>
@@ -57443,7 +57457,7 @@
       <c r="S195" s="222"/>
       <c r="T195" s="222"/>
     </row>
-    <row r="196" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="196" spans="1:23" ht="15" customHeight="1">
       <c r="A196" s="203" t="s">
         <v>1181</v>
       </c>
@@ -57496,7 +57510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="197" spans="1:23" ht="15" customHeight="1">
       <c r="A197" s="203" t="s">
         <v>1178</v>
       </c>
@@ -57540,7 +57554,7 @@
       <c r="S197" s="222"/>
       <c r="T197" s="222"/>
     </row>
-    <row r="198" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="198" spans="1:23" ht="15" customHeight="1">
       <c r="A198" s="203" t="s">
         <v>1176</v>
       </c>
@@ -57593,7 +57607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="199" spans="1:23" ht="15" customHeight="1">
       <c r="A199" s="207" t="s">
         <v>1174</v>
       </c>
@@ -57639,7 +57653,7 @@
       <c r="S199" s="222"/>
       <c r="T199" s="222"/>
     </row>
-    <row r="200" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="200" spans="1:23" ht="15" customHeight="1">
       <c r="A200" s="207" t="s">
         <v>1171</v>
       </c>
@@ -57685,7 +57699,7 @@
       <c r="S200" s="222"/>
       <c r="T200" s="222"/>
     </row>
-    <row r="201" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="201" spans="1:23" ht="15" customHeight="1">
       <c r="A201" s="207" t="s">
         <v>1165</v>
       </c>
@@ -57738,7 +57752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="202" spans="1:23" ht="15" customHeight="1">
       <c r="A202" s="207" t="s">
         <v>1666</v>
       </c>
@@ -57778,7 +57792,7 @@
       <c r="S202" s="222"/>
       <c r="T202" s="222"/>
     </row>
-    <row r="203" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="203" spans="1:23" ht="15" customHeight="1">
       <c r="A203" s="207" t="s">
         <v>1669</v>
       </c>
@@ -57820,7 +57834,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="204" spans="1:23" ht="15" customHeight="1">
       <c r="A204" s="207" t="s">
         <v>1671</v>
       </c>
@@ -57860,7 +57874,7 @@
       <c r="S204" s="222"/>
       <c r="T204" s="222"/>
     </row>
-    <row r="205" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="205" spans="1:23" ht="15" customHeight="1">
       <c r="A205" s="207" t="s">
         <v>1674</v>
       </c>
@@ -57900,7 +57914,7 @@
       <c r="S205" s="222"/>
       <c r="T205" s="222"/>
     </row>
-    <row r="206" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="206" spans="1:23" ht="15" customHeight="1">
       <c r="A206" s="207" t="s">
         <v>1675</v>
       </c>
@@ -57940,7 +57954,7 @@
       <c r="S206" s="222"/>
       <c r="T206" s="222"/>
     </row>
-    <row r="207" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="207" spans="1:23" ht="15" customHeight="1">
       <c r="A207" s="207" t="s">
         <v>1676</v>
       </c>
@@ -57980,7 +57994,7 @@
       <c r="S207" s="222"/>
       <c r="T207" s="222"/>
     </row>
-    <row r="208" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="208" spans="1:23" ht="15" customHeight="1">
       <c r="A208" s="207" t="s">
         <v>1677</v>
       </c>
@@ -58020,7 +58034,7 @@
       <c r="S208" s="222"/>
       <c r="T208" s="222"/>
     </row>
-    <row r="209" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="209" spans="1:23" ht="15" customHeight="1">
       <c r="A209" s="207" t="s">
         <v>1678</v>
       </c>
@@ -58060,7 +58074,7 @@
       <c r="S209" s="222"/>
       <c r="T209" s="222"/>
     </row>
-    <row r="210" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="210" spans="1:23" ht="15" customHeight="1">
       <c r="A210" s="207" t="s">
         <v>1679</v>
       </c>
@@ -58100,7 +58114,7 @@
       <c r="S210" s="222"/>
       <c r="T210" s="222"/>
     </row>
-    <row r="211" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="211" spans="1:23" ht="15" customHeight="1">
       <c r="A211" s="207" t="s">
         <v>1683</v>
       </c>
@@ -58187,7 +58201,7 @@
         <v>2820</v>
       </c>
       <c r="R212" s="222" t="s">
-        <v>1667</v>
+        <v>2966</v>
       </c>
       <c r="S212" s="222"/>
       <c r="T212" s="222"/>
@@ -58201,7 +58215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="213" spans="1:23" ht="15" customHeight="1">
       <c r="A213" s="207" t="s">
         <v>1693</v>
       </c>
@@ -58239,7 +58253,7 @@
       <c r="S213" s="222"/>
       <c r="T213" s="222"/>
     </row>
-    <row r="214" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="214" spans="1:23" ht="15" customHeight="1">
       <c r="A214" s="207" t="s">
         <v>1697</v>
       </c>
@@ -58340,7 +58354,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="216" spans="1:23" ht="15" customHeight="1">
       <c r="A216" s="207" t="s">
         <v>1719</v>
       </c>
@@ -58443,7 +58457,7 @@
       <c r="S217" s="222"/>
       <c r="T217" s="222"/>
     </row>
-    <row r="218" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="218" spans="1:23" ht="15" customHeight="1">
       <c r="A218" s="207" t="s">
         <v>1734</v>
       </c>
@@ -58547,7 +58561,7 @@
       </c>
       <c r="T219" s="222"/>
     </row>
-    <row r="220" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="220" spans="1:23" ht="15" customHeight="1">
       <c r="A220" s="207" t="s">
         <v>1743</v>
       </c>
@@ -58591,7 +58605,7 @@
       <c r="S220" s="222"/>
       <c r="T220" s="222"/>
     </row>
-    <row r="221" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="221" spans="1:23" ht="15" customHeight="1">
       <c r="A221" s="207" t="s">
         <v>1750</v>
       </c>
@@ -58635,7 +58649,7 @@
       <c r="S221" s="222"/>
       <c r="T221" s="222"/>
     </row>
-    <row r="222" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="222" spans="1:23" ht="15" customHeight="1">
       <c r="A222" s="207" t="s">
         <v>1755</v>
       </c>
@@ -58679,7 +58693,7 @@
       <c r="S222" s="222"/>
       <c r="T222" s="222"/>
     </row>
-    <row r="223" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="223" spans="1:23" ht="15" customHeight="1">
       <c r="A223" s="207" t="s">
         <v>1759</v>
       </c>
@@ -58723,7 +58737,7 @@
       <c r="S223" s="222"/>
       <c r="T223" s="222"/>
     </row>
-    <row r="224" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="224" spans="1:23" ht="15" customHeight="1">
       <c r="A224" s="207" t="s">
         <v>1763</v>
       </c>
@@ -58767,7 +58781,7 @@
       <c r="S224" s="222"/>
       <c r="T224" s="222"/>
     </row>
-    <row r="225" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="225" spans="1:23" ht="15" customHeight="1">
       <c r="A225" s="207" t="s">
         <v>1765</v>
       </c>
@@ -58811,7 +58825,7 @@
       <c r="S225" s="222"/>
       <c r="T225" s="222"/>
     </row>
-    <row r="226" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="226" spans="1:23" ht="15" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -58867,7 +58881,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="227" spans="1:23" ht="15" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -58925,7 +58939,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="228" spans="1:23" ht="15" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -59035,7 +59049,7 @@
       <c r="S229" s="222"/>
       <c r="T229" s="222"/>
     </row>
-    <row r="230" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="230" spans="1:23" ht="15" customHeight="1">
       <c r="A230" s="207" t="s">
         <v>1875</v>
       </c>
@@ -59081,7 +59095,7 @@
       <c r="S230" s="222"/>
       <c r="T230" s="222"/>
     </row>
-    <row r="231" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="231" spans="1:23" ht="15" customHeight="1">
       <c r="A231" s="207" t="s">
         <v>1956</v>
       </c>
@@ -59125,7 +59139,7 @@
       <c r="S231" s="222"/>
       <c r="T231" s="222"/>
     </row>
-    <row r="232" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="232" spans="1:23" ht="15" customHeight="1">
       <c r="A232" s="207" t="s">
         <v>1958</v>
       </c>
@@ -59161,7 +59175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="233" spans="1:23" ht="15" customHeight="1">
       <c r="A233" s="207" t="s">
         <v>1961</v>
       </c>
@@ -59197,7 +59211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="234" spans="1:23" ht="15" customHeight="1">
       <c r="A234" s="203" t="s">
         <v>2194</v>
       </c>
@@ -59293,6 +59307,9 @@
       <c r="P236" s="220">
         <v>7.1469411092052598E-3</v>
       </c>
+      <c r="R236" s="222" t="s">
+        <v>2965</v>
+      </c>
     </row>
     <row r="237" spans="1:23" ht="15" customHeight="1">
       <c r="A237" s="235" t="s">
@@ -59356,6 +59373,9 @@
       <c r="P238" s="220">
         <v>11.270726129216699</v>
       </c>
+      <c r="R238" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="239" spans="1:23" ht="15" customHeight="1">
       <c r="A239" s="235" t="s">
@@ -59386,6 +59406,9 @@
       <c r="P239" s="220">
         <v>11.270726129216699</v>
       </c>
+      <c r="R239" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="240" spans="1:23" ht="15" customHeight="1">
       <c r="A240" s="235" t="s">
@@ -59416,6 +59439,9 @@
       <c r="P240" s="220">
         <v>84.991423670668993</v>
       </c>
+      <c r="R240" s="222" t="s">
+        <v>1667</v>
+      </c>
       <c r="V240">
         <v>1E-3</v>
       </c>
@@ -59449,6 +59475,9 @@
       <c r="P241" s="220">
         <v>14.944253859348199</v>
       </c>
+      <c r="R241" s="222" t="s">
+        <v>1667</v>
+      </c>
       <c r="V241">
         <v>1E-3</v>
       </c>
@@ -59542,6 +59571,9 @@
       <c r="P244" s="220">
         <v>22.398513436249299</v>
       </c>
+      <c r="R244" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="245" spans="1:23" ht="15" customHeight="1">
       <c r="A245" s="235" t="s">
@@ -59635,6 +59667,9 @@
       <c r="P247" s="220">
         <v>66.938250428816502</v>
       </c>
+      <c r="R247" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="248" spans="1:23" ht="15" customHeight="1">
       <c r="A248" s="235" t="s">
@@ -59662,6 +59697,9 @@
       <c r="P248" s="220">
         <v>54.638364779874202</v>
       </c>
+      <c r="R248" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="249" spans="1:23" ht="15" customHeight="1">
       <c r="A249" s="235" t="s">
@@ -59692,6 +59730,9 @@
       <c r="P249" s="220">
         <v>93.696397941680999</v>
       </c>
+      <c r="R249" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="250" spans="1:23" ht="15" customHeight="1">
       <c r="A250" s="235" t="s">
@@ -59722,6 +59763,9 @@
       <c r="P250" s="220">
         <v>93.610634648370507</v>
       </c>
+      <c r="R250" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="251" spans="1:23" ht="15" customHeight="1">
       <c r="A251" s="235" t="s">
@@ -59752,6 +59796,9 @@
       <c r="P251" s="220">
         <v>93.653516295025696</v>
       </c>
+      <c r="R251" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="252" spans="1:23" ht="15" customHeight="1">
       <c r="A252" s="235" t="s">
@@ -59776,8 +59823,14 @@
       <c r="I252" t="s">
         <v>2871</v>
       </c>
+      <c r="M252" t="s">
+        <v>2968</v>
+      </c>
       <c r="P252" s="220">
         <v>93.6392224128073</v>
+      </c>
+      <c r="R252" s="222" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="253" spans="1:23" ht="15" customHeight="1">
@@ -59809,6 +59862,9 @@
       <c r="P253" s="220">
         <v>94.711263579188099</v>
       </c>
+      <c r="R253" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="254" spans="1:23" ht="15" customHeight="1">
       <c r="A254" s="235" t="s">
@@ -59833,8 +59889,14 @@
       <c r="I254" t="s">
         <v>2871</v>
       </c>
+      <c r="M254" t="s">
+        <v>2969</v>
+      </c>
       <c r="P254" s="220">
         <v>94.153802172670098</v>
+      </c>
+      <c r="R254" s="222" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="255" spans="1:23" ht="15" customHeight="1">
@@ -59866,6 +59928,9 @@
       <c r="P255" s="220">
         <v>93.532018296169198</v>
       </c>
+      <c r="R255" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="256" spans="1:23" ht="15" customHeight="1">
       <c r="A256" s="235" t="s">
@@ -59896,6 +59961,9 @@
       <c r="P256" s="220">
         <v>48.1132075471698</v>
       </c>
+      <c r="R256" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="257" spans="1:23" ht="15" customHeight="1">
       <c r="A257" s="235" t="s">
@@ -59926,6 +59994,9 @@
       <c r="P257" s="220">
         <v>91.5523156089194</v>
       </c>
+      <c r="R257" s="222" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="258" spans="1:23" ht="15" customHeight="1">
       <c r="A258" s="235" t="s">
@@ -59956,6 +60027,9 @@
       <c r="P258" s="220">
         <v>53.6878216123499</v>
       </c>
+      <c r="R258" s="222" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="259" spans="1:23" ht="15" customHeight="1">
       <c r="A259" s="237" t="s">
@@ -59986,6 +60060,9 @@
       <c r="P259" s="220">
         <v>45.890508862207</v>
       </c>
+      <c r="R259" s="222" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="260" spans="1:23" ht="15" customHeight="1">
       <c r="A260" s="235" t="s">
@@ -60043,6 +60120,9 @@
       <c r="P261" s="220">
         <v>27.394225271583799</v>
       </c>
+      <c r="R261" s="222" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="262" spans="1:23" ht="15" customHeight="1">
       <c r="A262" s="235" t="s">
@@ -60160,6 +60240,9 @@
       <c r="P265" s="220">
         <v>62.056889651229298</v>
       </c>
+      <c r="R265" s="222" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="266" spans="1:23" ht="15" customHeight="1">
       <c r="A266" s="235" t="s">
@@ -60187,6 +60270,9 @@
       <c r="P266" s="220">
         <v>60.513150371640897</v>
       </c>
+      <c r="R266" s="222" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="267" spans="1:23" ht="15" customHeight="1">
       <c r="A267" s="235" t="s">
@@ -60244,6 +60330,9 @@
       <c r="P268" s="220">
         <v>89.8656375071469</v>
       </c>
+      <c r="R268" s="222" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="269" spans="1:23" ht="15" customHeight="1">
       <c r="A269" s="235" t="s">
@@ -60274,6 +60363,9 @@
       <c r="P269" s="220">
         <v>99.299599771297906</v>
       </c>
+      <c r="R269" s="222" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="270" spans="1:23" ht="15" customHeight="1">
       <c r="A270" s="235" t="s">
@@ -60301,6 +60393,9 @@
       <c r="P270" s="220">
         <v>33.8979416809605</v>
       </c>
+      <c r="R270" s="222" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="271" spans="1:23" ht="15" customHeight="1">
       <c r="A271" s="235" t="s">
@@ -60328,6 +60423,9 @@
       <c r="P271" s="220">
         <v>78.930817610062903</v>
       </c>
+      <c r="R271" s="222" t="s">
+        <v>2812</v>
+      </c>
       <c r="V271">
         <v>10</v>
       </c>
@@ -60335,26 +60433,26 @@
         <v>80</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="272" spans="1:23" ht="15" customHeight="1">
       <c r="A272" s="235"/>
       <c r="C272" s="231"/>
     </row>
-    <row r="273" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="273" spans="1:9" ht="15" customHeight="1">
       <c r="A273" s="235"/>
       <c r="C273" s="231"/>
     </row>
-    <row r="274" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="274" spans="1:9" ht="15" customHeight="1">
       <c r="A274" s="235"/>
       <c r="C274" s="231"/>
     </row>
-    <row r="275" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="275" spans="1:9" ht="15" customHeight="1">
       <c r="C275" s="231"/>
     </row>
-    <row r="276" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="276" spans="1:9" ht="15" customHeight="1">
       <c r="A276" s="237"/>
       <c r="C276" s="231"/>
     </row>
-    <row r="277" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="277" spans="1:9" ht="15" customHeight="1">
       <c r="A277" s="237"/>
       <c r="C277" s="231"/>
       <c r="E277" s="222"/>
@@ -60363,8 +60461,7 @@
       <c r="H277" s="222"/>
       <c r="I277" s="224"/>
     </row>
-    <row r="278" spans="1:9" ht="15" hidden="1" customHeight="1"/>
-    <row r="279" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="279" spans="1:9" ht="15" customHeight="1">
       <c r="A279" s="237"/>
       <c r="C279" s="231"/>
       <c r="E279" s="222"/>
@@ -60373,8 +60470,7 @@
       <c r="H279" s="222"/>
       <c r="I279" s="224"/>
     </row>
-    <row r="280" spans="1:9" ht="15" hidden="1" customHeight="1"/>
-    <row r="281" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="281" spans="1:9" ht="15" customHeight="1">
       <c r="A281" s="237"/>
       <c r="C281" s="236"/>
       <c r="E281" s="222"/>
@@ -60382,7 +60478,7 @@
       <c r="G281" s="222"/>
       <c r="H281" s="222"/>
     </row>
-    <row r="282" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="282" spans="1:9" ht="15" customHeight="1">
       <c r="A282" s="237"/>
       <c r="C282" s="236"/>
       <c r="E282" s="222"/>
@@ -60391,13 +60487,7 @@
       <c r="H282" s="222"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
   <conditionalFormatting sqref="D2:K4 D5:I81 K5:K81 J5:J234 D13:G271">
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D2))))</formula>
